--- a/GW_seaweed_seasonality_transect_data11.xlsx
+++ b/GW_seaweed_seasonality_transect_data11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25506"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="649" documentId="8_{BF71311B-6A6D-4ED2-9B6E-E3E672618DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48A81A9-8A40-4331-9019-D3041B222AE6}"/>
+  <xr:revisionPtr revIDLastSave="668" documentId="8_{BF71311B-6A6D-4ED2-9B6E-E3E672618DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B3480CC-A344-439E-AE98-24AD564C7838}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="82">
   <si>
     <t>year</t>
   </si>
@@ -52,37 +52,145 @@
     <t>dominant_seaweed</t>
   </si>
   <si>
+    <t>fucus_distichus__brown</t>
+  </si>
+  <si>
+    <t>saccharina_latissima__brown</t>
+  </si>
+  <si>
+    <t>nereocystis_luetkeana__brown</t>
+  </si>
+  <si>
+    <t>alaria_marginata__brown</t>
+  </si>
+  <si>
+    <t>costaria_costata__brown</t>
+  </si>
+  <si>
+    <t>laminariales_sp__brown</t>
+  </si>
+  <si>
+    <t>desmarestia_viridis__brown</t>
+  </si>
+  <si>
+    <t>desmarestia_herbacea__brown</t>
+  </si>
+  <si>
+    <t>desmarestia_ligulata__brown</t>
+  </si>
+  <si>
+    <t>scytosiphon_sp__brown</t>
+  </si>
+  <si>
+    <t>melanosiphon_intestinalis__brown</t>
+  </si>
+  <si>
+    <t>petalonia_fascia__brown</t>
+  </si>
+  <si>
+    <t>sargassum_muticum__brown</t>
+  </si>
+  <si>
+    <t>elachista_fucicola__brown</t>
+  </si>
+  <si>
     <t>brown_filament</t>
   </si>
   <si>
-    <t>ulva_fenestrata</t>
+    <t>ulva_fenestrata__green</t>
   </si>
   <si>
-    <t>ulva_intestinalis</t>
+    <t>ulva_intestinalis__green</t>
   </si>
   <si>
-    <t>ulva_linza</t>
+    <t>ulva_linza__green</t>
   </si>
   <si>
-    <t>mastocarpus_sp</t>
+    <t>ulva_torta__green</t>
   </si>
   <si>
-    <t>pyropia_sp</t>
+    <t>cladophora_stimpsonii__green</t>
   </si>
   <si>
-    <t>hildenbrandia_sp</t>
+    <t>rhizoclonium_tortuosum__green</t>
   </si>
   <si>
-    <t>polysiphonia_sp</t>
+    <t>ulothrix_speciosa__green</t>
   </si>
   <si>
-    <t>cons_subulifera</t>
+    <t>ulva_long__green</t>
   </si>
   <si>
-    <t>caul_ustulatus</t>
+    <t>green_filament__green</t>
   </si>
   <si>
-    <t>red_filament</t>
+    <t>mastocarpus_sp__red</t>
+  </si>
+  <si>
+    <t>petrocelis_sp__red</t>
+  </si>
+  <si>
+    <t>pyropia_sp__red</t>
+  </si>
+  <si>
+    <t>polyneura_latissima__red</t>
+  </si>
+  <si>
+    <t>chondrachantus_exasperatus__red</t>
+  </si>
+  <si>
+    <t>mazzaella_splendens__red</t>
+  </si>
+  <si>
+    <t>prionitis_sternbergii__red</t>
+  </si>
+  <si>
+    <t>prionitis_filiformis__red</t>
+  </si>
+  <si>
+    <t>sarcodiotheca_gaudichaudii__red</t>
+  </si>
+  <si>
+    <t>hildenbrandia_sp__red</t>
+  </si>
+  <si>
+    <t>cryptosiphonia_woodii__red</t>
+  </si>
+  <si>
+    <t>polysiphonia_sp__red</t>
+  </si>
+  <si>
+    <t>hollenbergia_or_scagelia_sp__red</t>
+  </si>
+  <si>
+    <t>sparlingia_pertusa__red</t>
+  </si>
+  <si>
+    <t>bonnemaisonia_sp__red</t>
+  </si>
+  <si>
+    <t>odonthalia_floccosa__red</t>
+  </si>
+  <si>
+    <t>constantinea_subulifera__red</t>
+  </si>
+  <si>
+    <t>caulacanthus_ustulatus__red</t>
+  </si>
+  <si>
+    <t>callophyllis_sp__red</t>
+  </si>
+  <si>
+    <t>plocamium_sp__red</t>
+  </si>
+  <si>
+    <t>crustose_coralline__red</t>
+  </si>
+  <si>
+    <t>red_filament__red</t>
+  </si>
+  <si>
+    <t>gracilaria</t>
   </si>
   <si>
     <t>unknown</t>
@@ -94,7 +202,19 @@
     <t>no_seaweed</t>
   </si>
   <si>
+    <t>mastocarpus_sp</t>
+  </si>
+  <si>
+    <t>ulva_fenestrata</t>
+  </si>
+  <si>
+    <t>red_filament</t>
+  </si>
+  <si>
     <t>sargassum_muticum</t>
+  </si>
+  <si>
+    <t>hildenbrandia_sp</t>
   </si>
   <si>
     <t>ulva fenestrata</t>
@@ -103,10 +223,16 @@
     <t>mastocarous_sp</t>
   </si>
   <si>
+    <t>polysiphonia_sp</t>
+  </si>
+  <si>
     <t>petalonia_sp</t>
   </si>
   <si>
     <t>fucus</t>
+  </si>
+  <si>
+    <t>ulva_intestinalis</t>
   </si>
   <si>
     <t>petalonia</t>
@@ -136,10 +262,16 @@
     <t>saccharina_latissima</t>
   </si>
   <si>
+    <t>pyropia_sp</t>
+  </si>
+  <si>
     <t> </t>
   </si>
   <si>
     <t>nereocystis_luetkeana</t>
+  </si>
+  <si>
+    <t>ulva_linza</t>
   </si>
   <si>
     <t>saccharina latissima</t>
@@ -147,141 +279,12 @@
   <si>
     <t>alaria_marginata</t>
   </si>
-  <si>
-    <t>Gracilaria</t>
-  </si>
-  <si>
-    <t>fucus_distichus-brown</t>
-  </si>
-  <si>
-    <t>saccharina_latissima-brown</t>
-  </si>
-  <si>
-    <t>nereocystis_luetkeana-brown</t>
-  </si>
-  <si>
-    <t>alaria_marginata-brown</t>
-  </si>
-  <si>
-    <t>costaria_costata-brown</t>
-  </si>
-  <si>
-    <t>laminariales_sp-brown</t>
-  </si>
-  <si>
-    <t>desmarestia_viridis-brown</t>
-  </si>
-  <si>
-    <t>desmarestia_herbacea-brown</t>
-  </si>
-  <si>
-    <t>scytosiphon_sp-brown</t>
-  </si>
-  <si>
-    <t>melanosiphon_intestinalis-brown</t>
-  </si>
-  <si>
-    <t>petalonia_fascia-brown</t>
-  </si>
-  <si>
-    <t>sargasum_muticum-brown</t>
-  </si>
-  <si>
-    <t>elachista_fucicola-brown</t>
-  </si>
-  <si>
-    <t>Desmarestia_lingulata-brown</t>
-  </si>
-  <si>
-    <t>ulva_fenestrata-green</t>
-  </si>
-  <si>
-    <t>ulva_intestinalis-green</t>
-  </si>
-  <si>
-    <t>ulva_linza-green</t>
-  </si>
-  <si>
-    <t>ulva_torta-green</t>
-  </si>
-  <si>
-    <t>rhizoclonium_tortuosum-green</t>
-  </si>
-  <si>
-    <t>ulothrix_speciosa-green</t>
-  </si>
-  <si>
-    <t>ulva_long-green</t>
-  </si>
-  <si>
-    <t>green_filament-green</t>
-  </si>
-  <si>
-    <t>mastocarpus_sp-red</t>
-  </si>
-  <si>
-    <t>petrocelis_sp-red</t>
-  </si>
-  <si>
-    <t>pyropia_sp-red</t>
-  </si>
-  <si>
-    <t>polyneura_latissima-red</t>
-  </si>
-  <si>
-    <t>chondrachantus_exasperatus-red</t>
-  </si>
-  <si>
-    <t>mazzaella_splendens-red</t>
-  </si>
-  <si>
-    <t>prionitis_sternbergii-red</t>
-  </si>
-  <si>
-    <t>prionitis_filiformis-red</t>
-  </si>
-  <si>
-    <t>sarcodiotheca_gaudichaudii-red</t>
-  </si>
-  <si>
-    <t>hildenbrandia_sp-red</t>
-  </si>
-  <si>
-    <t>cryptosiphonia_woodii-red</t>
-  </si>
-  <si>
-    <t>polysiphonia_sp-red</t>
-  </si>
-  <si>
-    <t>hollenbergia_or_scagelia_sp-red</t>
-  </si>
-  <si>
-    <t>sparlingia_pertusa-red</t>
-  </si>
-  <si>
-    <t>bonnemaisonia_sp-red</t>
-  </si>
-  <si>
-    <t>odonthalia_floccosa-red</t>
-  </si>
-  <si>
-    <t>callophyllis_sp-red</t>
-  </si>
-  <si>
-    <t>plocamium_sp-red</t>
-  </si>
-  <si>
-    <t>crustose_coralline-red</t>
-  </si>
-  <si>
-    <t>cladophora_stimpsonii-green</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +424,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -764,10 +774,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1125,18 +1136,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB435"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I355" sqref="I355"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AZ353" sqref="AZ353"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="47" max="48" width="8.88671875" style="2"/>
+    <col min="47" max="48" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1156,151 +1166,151 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AY1" t="s">
         <v>50</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V1" t="s">
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="W1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:54" ht="15">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -1317,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -1329,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" ht="15">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1346,13 +1356,13 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" ht="15">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -1369,13 +1379,13 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" ht="15">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -1392,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1401,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" ht="15">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -1418,13 +1428,13 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" ht="15">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -1441,13 +1451,13 @@
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" ht="15">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -1464,7 +1474,7 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1479,7 +1489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" ht="15">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -1496,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>40</v>
@@ -1508,7 +1518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" ht="15">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -1525,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1534,7 +1544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" ht="15">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -1551,7 +1561,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1560,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" ht="15">
       <c r="A12">
         <v>2021</v>
       </c>
@@ -1577,7 +1587,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1589,7 +1599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" ht="15">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -1606,7 +1616,7 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1618,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" ht="15">
       <c r="A14">
         <v>2021</v>
       </c>
@@ -1635,7 +1645,7 @@
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G14">
         <v>10</v>
@@ -1647,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" ht="15">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -1664,7 +1674,7 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1676,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" ht="15">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -1693,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>70</v>
@@ -1705,7 +1715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" ht="15">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -1722,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1731,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" ht="15">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -1748,7 +1758,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1760,7 +1770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" ht="15">
       <c r="A19">
         <v>2021</v>
       </c>
@@ -1777,7 +1787,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1786,7 +1796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" ht="15">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -1803,7 +1813,7 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1815,7 +1825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" ht="15">
       <c r="A21">
         <v>2021</v>
       </c>
@@ -1832,7 +1842,7 @@
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1841,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" ht="15">
       <c r="A22">
         <v>2021</v>
       </c>
@@ -1858,7 +1868,7 @@
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1867,7 +1877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" ht="15">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -1884,13 +1894,13 @@
         <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" ht="15">
       <c r="A24">
         <v>2021</v>
       </c>
@@ -1907,7 +1917,7 @@
         <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1916,7 +1926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" ht="15">
       <c r="A25">
         <v>2021</v>
       </c>
@@ -1933,7 +1943,7 @@
         <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1942,7 +1952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" ht="15">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -1959,7 +1969,7 @@
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1968,7 +1978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" ht="15">
       <c r="A27">
         <v>2021</v>
       </c>
@@ -1985,7 +1995,7 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1994,7 +2004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" ht="15">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -2011,7 +2021,7 @@
         <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2020,7 +2030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" ht="15">
       <c r="A29">
         <v>2021</v>
       </c>
@@ -2037,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G29">
         <v>70</v>
@@ -2049,7 +2059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" ht="15">
       <c r="A30">
         <v>2021</v>
       </c>
@@ -2066,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2075,7 +2085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" ht="15">
       <c r="A31">
         <v>2021</v>
       </c>
@@ -2092,13 +2102,13 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" ht="15">
       <c r="A32">
         <v>2021</v>
       </c>
@@ -2115,7 +2125,7 @@
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2127,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" ht="15">
       <c r="A33">
         <v>2021</v>
       </c>
@@ -2144,7 +2154,7 @@
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2156,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" ht="15">
       <c r="A34">
         <v>2021</v>
       </c>
@@ -2173,7 +2183,7 @@
         <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2185,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" ht="15">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -2202,7 +2212,7 @@
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2214,7 +2224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" ht="15">
       <c r="A36">
         <v>2021</v>
       </c>
@@ -2231,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G36">
         <v>20</v>
@@ -2243,7 +2253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" ht="15">
       <c r="A37">
         <v>2021</v>
       </c>
@@ -2260,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G37">
         <v>25</v>
@@ -2272,7 +2282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" ht="15">
       <c r="A38">
         <v>2021</v>
       </c>
@@ -2289,7 +2299,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G38">
         <v>5</v>
@@ -2301,7 +2311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" ht="15">
       <c r="A39">
         <v>2021</v>
       </c>
@@ -2318,7 +2328,7 @@
         <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -2330,7 +2340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" ht="15">
       <c r="A40">
         <v>2021</v>
       </c>
@@ -2347,7 +2357,7 @@
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2359,7 +2369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" ht="15">
       <c r="A41">
         <v>2021</v>
       </c>
@@ -2376,7 +2386,7 @@
         <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2385,7 +2395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" ht="15">
       <c r="A42">
         <v>2021</v>
       </c>
@@ -2402,7 +2412,7 @@
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2411,7 +2421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" ht="15">
       <c r="A43">
         <v>2021</v>
       </c>
@@ -2428,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G43">
         <v>30</v>
@@ -2440,7 +2450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" ht="15">
       <c r="A44">
         <v>2021</v>
       </c>
@@ -2457,7 +2467,7 @@
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G44">
         <v>5</v>
@@ -2469,7 +2479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" ht="15">
       <c r="A45">
         <v>2021</v>
       </c>
@@ -2486,13 +2496,13 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" ht="15">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -2509,7 +2519,7 @@
         <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G46">
         <v>10</v>
@@ -2521,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" ht="15">
       <c r="A47">
         <v>2021</v>
       </c>
@@ -2538,7 +2548,7 @@
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -2547,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" ht="15">
       <c r="A48">
         <v>2021</v>
       </c>
@@ -2564,13 +2574,13 @@
         <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" ht="15">
       <c r="A49">
         <v>2021</v>
       </c>
@@ -2587,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G49">
         <v>40</v>
@@ -2599,7 +2609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" ht="15">
       <c r="A50">
         <v>2021</v>
       </c>
@@ -2616,7 +2626,7 @@
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2625,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" ht="15">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -2642,7 +2652,7 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G51">
         <v>20</v>
@@ -2654,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" ht="15">
       <c r="A52">
         <v>2021</v>
       </c>
@@ -2671,7 +2681,7 @@
         <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -2683,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" ht="15">
       <c r="A53">
         <v>2021</v>
       </c>
@@ -2700,7 +2710,7 @@
         <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2709,7 +2719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" ht="15">
       <c r="A54">
         <v>2021</v>
       </c>
@@ -2726,7 +2736,7 @@
         <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G54">
         <v>5</v>
@@ -2738,7 +2748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" ht="15">
       <c r="A55">
         <v>2021</v>
       </c>
@@ -2755,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G55">
         <v>40</v>
@@ -2767,7 +2777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" ht="15">
       <c r="A56">
         <v>2021</v>
       </c>
@@ -2784,13 +2794,13 @@
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" ht="15">
       <c r="A57">
         <v>2021</v>
       </c>
@@ -2807,7 +2817,7 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2819,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" ht="15">
       <c r="A58">
         <v>2021</v>
       </c>
@@ -2836,7 +2846,7 @@
         <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2848,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" ht="15">
       <c r="A59">
         <v>2021</v>
       </c>
@@ -2865,7 +2875,7 @@
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G59">
         <v>5</v>
@@ -2877,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" ht="15">
       <c r="A60">
         <v>2021</v>
       </c>
@@ -2894,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G60">
         <v>70</v>
@@ -2906,7 +2916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" ht="15">
       <c r="A61">
         <v>2021</v>
       </c>
@@ -2923,7 +2933,7 @@
         <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2935,7 +2945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" ht="15">
       <c r="A62">
         <v>2021</v>
       </c>
@@ -2952,7 +2962,7 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2961,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" ht="15">
       <c r="A63">
         <v>2021</v>
       </c>
@@ -2978,13 +2988,13 @@
         <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" ht="15">
       <c r="A64">
         <v>2021</v>
       </c>
@@ -3001,7 +3011,7 @@
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G64">
         <v>10</v>
@@ -3016,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:52" ht="15">
       <c r="A65">
         <v>2021</v>
       </c>
@@ -3033,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G65">
         <v>40</v>
@@ -3048,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:52" ht="15">
       <c r="A66">
         <v>2021</v>
       </c>
@@ -3065,7 +3075,7 @@
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G66">
         <v>30</v>
@@ -3077,7 +3087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:52" ht="15">
       <c r="A67">
         <v>2021</v>
       </c>
@@ -3094,7 +3104,7 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G67">
         <v>10</v>
@@ -3106,7 +3116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:52" ht="15">
       <c r="A68">
         <v>2021</v>
       </c>
@@ -3123,7 +3133,7 @@
         <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G68">
         <v>5</v>
@@ -3135,7 +3145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:52" ht="15">
       <c r="A69">
         <v>2021</v>
       </c>
@@ -3161,7 +3171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:52" ht="15">
       <c r="A70">
         <v>2021</v>
       </c>
@@ -3178,7 +3188,7 @@
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -3190,7 +3200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:52" ht="15">
       <c r="A71">
         <v>2021</v>
       </c>
@@ -3207,13 +3217,13 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:52" ht="15">
       <c r="A72">
         <v>2021</v>
       </c>
@@ -3239,7 +3249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:52" ht="15">
       <c r="A73">
         <v>2021</v>
       </c>
@@ -3256,7 +3266,7 @@
         <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -3268,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:52" ht="15">
       <c r="A74">
         <v>2021</v>
       </c>
@@ -3285,13 +3295,13 @@
         <v>25</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:52" ht="15">
       <c r="A75">
         <v>2021</v>
       </c>
@@ -3308,7 +3318,7 @@
         <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G75">
         <v>5</v>
@@ -3320,7 +3330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:52" ht="15">
       <c r="A76">
         <v>2021</v>
       </c>
@@ -3337,13 +3347,13 @@
         <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:52" ht="15">
       <c r="A77">
         <v>2021</v>
       </c>
@@ -3360,7 +3370,7 @@
         <v>40</v>
       </c>
       <c r="F77" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -3375,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:52" ht="15">
       <c r="A78">
         <v>2021</v>
       </c>
@@ -3392,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G78">
         <v>40</v>
@@ -3404,7 +3414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:52" ht="15">
       <c r="A79">
         <v>2021</v>
       </c>
@@ -3421,7 +3431,7 @@
         <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3430,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:52" ht="15">
       <c r="A80">
         <v>2021</v>
       </c>
@@ -3447,7 +3457,7 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G80">
         <v>15</v>
@@ -3459,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:52" ht="15">
       <c r="A81">
         <v>2021</v>
       </c>
@@ -3476,13 +3486,13 @@
         <v>15</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:52" ht="15">
       <c r="A82">
         <v>2021</v>
       </c>
@@ -3499,7 +3509,7 @@
         <v>20</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -3508,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:52" ht="15">
       <c r="A83">
         <v>2021</v>
       </c>
@@ -3525,7 +3535,7 @@
         <v>25</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -3540,7 +3550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:52" ht="15">
       <c r="A84">
         <v>2021</v>
       </c>
@@ -3566,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:52" ht="15">
       <c r="A85">
         <v>2021</v>
       </c>
@@ -3583,7 +3593,7 @@
         <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G85">
         <v>20</v>
@@ -3601,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:52" ht="15">
       <c r="A86">
         <v>2021</v>
       </c>
@@ -3618,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G86">
         <v>35</v>
@@ -3630,7 +3640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:52" ht="15">
       <c r="A87">
         <v>2021</v>
       </c>
@@ -3647,13 +3657,13 @@
         <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:52" ht="15">
       <c r="A88">
         <v>2021</v>
       </c>
@@ -3670,13 +3680,13 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:52" ht="15">
       <c r="A89">
         <v>2021</v>
       </c>
@@ -3693,7 +3703,7 @@
         <v>15</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -3705,7 +3715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:52" ht="15">
       <c r="A90">
         <v>2021</v>
       </c>
@@ -3722,13 +3732,13 @@
         <v>20</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:52" ht="15">
       <c r="A91">
         <v>2021</v>
       </c>
@@ -3745,13 +3755,13 @@
         <v>25</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:52" ht="15">
       <c r="A92">
         <v>2021</v>
       </c>
@@ -3768,7 +3778,7 @@
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3777,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:52" ht="15">
       <c r="A93">
         <v>2021</v>
       </c>
@@ -3794,7 +3804,7 @@
         <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3803,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:52" ht="15">
       <c r="A94">
         <v>2021</v>
       </c>
@@ -3820,7 +3830,7 @@
         <v>40</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3829,7 +3839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:52" ht="15">
       <c r="A95">
         <v>2021</v>
       </c>
@@ -3846,7 +3856,7 @@
         <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3855,7 +3865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:52" ht="15">
       <c r="A96">
         <v>2021</v>
       </c>
@@ -3872,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G96">
         <v>50</v>
@@ -3884,7 +3894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:52" ht="15">
       <c r="A97">
         <v>2021</v>
       </c>
@@ -3901,7 +3911,7 @@
         <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3913,7 +3923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:52" ht="15">
       <c r="A98">
         <v>2021</v>
       </c>
@@ -3930,7 +3940,7 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -3942,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:52" ht="15">
       <c r="A99">
         <v>2021</v>
       </c>
@@ -3959,7 +3969,7 @@
         <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -3971,7 +3981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:52" ht="15">
       <c r="A100">
         <v>2021</v>
       </c>
@@ -3988,13 +3998,13 @@
         <v>20</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:52" ht="15">
       <c r="A101">
         <v>2021</v>
       </c>
@@ -4011,13 +4021,13 @@
         <v>25</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:52" ht="15">
       <c r="A102">
         <v>2021</v>
       </c>
@@ -4034,7 +4044,7 @@
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4046,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:52" ht="15">
       <c r="A103">
         <v>2021</v>
       </c>
@@ -4063,7 +4073,7 @@
         <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -4081,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:52" ht="15">
       <c r="A104">
         <v>2021</v>
       </c>
@@ -4098,7 +4108,7 @@
         <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4110,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:52" ht="15">
       <c r="A105">
         <v>2021</v>
       </c>
@@ -4127,7 +4137,7 @@
         <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -4145,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:52" ht="15">
       <c r="A106">
         <v>2021</v>
       </c>
@@ -4162,7 +4172,7 @@
         <v>50</v>
       </c>
       <c r="F106" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -4174,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:52" ht="15">
       <c r="A107">
         <v>2021</v>
       </c>
@@ -4191,12 +4201,12 @@
         <v>55</v>
       </c>
       <c r="F107" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
-      <c r="R107">
+      <c r="S107">
         <v>3</v>
       </c>
       <c r="V107">
@@ -4218,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:52" ht="15">
       <c r="A108">
         <v>2021</v>
       </c>
@@ -4235,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G108">
         <v>10</v>
@@ -4247,7 +4257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:52" ht="15">
       <c r="A109">
         <v>2021</v>
       </c>
@@ -4264,7 +4274,7 @@
         <v>5</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G109">
         <v>10</v>
@@ -4279,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:52" ht="15">
       <c r="A110">
         <v>2021</v>
       </c>
@@ -4296,7 +4306,7 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G110">
         <v>5</v>
@@ -4308,7 +4318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:52" ht="15">
       <c r="A111">
         <v>2021</v>
       </c>
@@ -4325,7 +4335,7 @@
         <v>15</v>
       </c>
       <c r="F111" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -4337,7 +4347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:52" ht="15">
       <c r="A112">
         <v>2021</v>
       </c>
@@ -4354,7 +4364,7 @@
         <v>20</v>
       </c>
       <c r="F112" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -4366,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:54" ht="15">
       <c r="A113">
         <v>2021</v>
       </c>
@@ -4383,7 +4393,7 @@
         <v>25</v>
       </c>
       <c r="F113" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -4392,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:54" ht="15">
       <c r="A114">
         <v>2021</v>
       </c>
@@ -4409,7 +4419,7 @@
         <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -4421,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:54" ht="15">
       <c r="A115">
         <v>2021</v>
       </c>
@@ -4438,7 +4448,7 @@
         <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -4447,7 +4457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:54" ht="15">
       <c r="A116">
         <v>2021</v>
       </c>
@@ -4464,7 +4474,7 @@
         <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G116">
         <v>5</v>
@@ -4485,7 +4495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:54" ht="15">
       <c r="A117">
         <v>2021</v>
       </c>
@@ -4502,7 +4512,7 @@
         <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -4523,7 +4533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:54" ht="15">
       <c r="A118">
         <v>2021</v>
       </c>
@@ -4540,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G118">
         <v>15</v>
@@ -4552,7 +4562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:54" ht="15">
       <c r="A119">
         <v>2021</v>
       </c>
@@ -4578,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:54" ht="15">
       <c r="A120">
         <v>2021</v>
       </c>
@@ -4595,13 +4605,13 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:54" ht="15">
       <c r="A121">
         <v>2021</v>
       </c>
@@ -4618,7 +4628,7 @@
         <v>15</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -4630,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:54" ht="15">
       <c r="A122">
         <v>2021</v>
       </c>
@@ -4647,7 +4657,7 @@
         <v>20</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -4659,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:54" ht="15">
       <c r="A123">
         <v>2021</v>
       </c>
@@ -4676,13 +4686,13 @@
         <v>25</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:54" ht="15">
       <c r="A124">
         <v>2021</v>
       </c>
@@ -4699,7 +4709,7 @@
         <v>30</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G124">
         <v>5</v>
@@ -4711,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:54" ht="15">
       <c r="A125">
         <v>2021</v>
       </c>
@@ -4728,7 +4738,7 @@
         <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -4743,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:54" ht="15">
       <c r="A126">
         <v>2021</v>
       </c>
@@ -4775,7 +4785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:54" ht="15">
       <c r="A127">
         <v>2021</v>
       </c>
@@ -4792,12 +4802,12 @@
         <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
-      <c r="R127">
+      <c r="S127">
         <v>25</v>
       </c>
       <c r="V127">
@@ -4813,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:54" ht="15">
       <c r="A128">
         <v>2021</v>
       </c>
@@ -4830,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G128">
         <v>30</v>
@@ -4842,7 +4852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:52" ht="15">
       <c r="A129">
         <v>2021</v>
       </c>
@@ -4859,13 +4869,13 @@
         <v>5</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:52" ht="15">
       <c r="A130">
         <v>2021</v>
       </c>
@@ -4882,7 +4892,7 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -4891,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:52" ht="15">
       <c r="A131">
         <v>2021</v>
       </c>
@@ -4908,7 +4918,7 @@
         <v>15</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -4917,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:52" ht="15">
       <c r="A132">
         <v>2021</v>
       </c>
@@ -4934,13 +4944,13 @@
         <v>20</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:52" ht="15">
       <c r="A133">
         <v>2021</v>
       </c>
@@ -4957,7 +4967,7 @@
         <v>25</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -4966,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:52" ht="15">
       <c r="A134">
         <v>2021</v>
       </c>
@@ -4983,13 +4993,13 @@
         <v>30</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:52" ht="15">
       <c r="A135">
         <v>2021</v>
       </c>
@@ -5006,7 +5016,7 @@
         <v>35</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G135">
         <v>4</v>
@@ -5015,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:52" ht="15">
       <c r="A136">
         <v>2021</v>
       </c>
@@ -5037,7 +5047,7 @@
       <c r="H136">
         <v>0</v>
       </c>
-      <c r="R136">
+      <c r="S136">
         <v>1</v>
       </c>
       <c r="AH136">
@@ -5047,7 +5057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:52" ht="15">
       <c r="A137">
         <v>2021</v>
       </c>
@@ -5066,10 +5076,10 @@
       <c r="H137">
         <v>10</v>
       </c>
-      <c r="P137">
-        <v>1</v>
-      </c>
-      <c r="R137">
+      <c r="Q137">
+        <v>1</v>
+      </c>
+      <c r="S137">
         <v>10</v>
       </c>
       <c r="V137">
@@ -5085,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:52" ht="15">
       <c r="A138">
         <v>2021</v>
       </c>
@@ -5102,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G138">
         <v>35</v>
@@ -5114,7 +5124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:52" ht="15">
       <c r="A139">
         <v>2021</v>
       </c>
@@ -5131,13 +5141,13 @@
         <v>5</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:52" ht="15">
       <c r="A140">
         <v>2021</v>
       </c>
@@ -5163,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:52" ht="15">
       <c r="A141">
         <v>2021</v>
       </c>
@@ -5180,13 +5190,13 @@
         <v>15</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:52" ht="15">
       <c r="A142">
         <v>2021</v>
       </c>
@@ -5203,7 +5213,7 @@
         <v>20</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -5212,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:52" ht="15">
       <c r="A143">
         <v>2021</v>
       </c>
@@ -5229,13 +5239,13 @@
         <v>25</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:52" ht="15">
       <c r="A144">
         <v>2021</v>
       </c>
@@ -5252,13 +5262,13 @@
         <v>30</v>
       </c>
       <c r="F144" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:54" ht="15">
       <c r="A145">
         <v>2021</v>
       </c>
@@ -5275,13 +5285,13 @@
         <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:54" ht="15">
       <c r="A146">
         <v>2021</v>
       </c>
@@ -5298,13 +5308,13 @@
         <v>40</v>
       </c>
       <c r="F146" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:54" ht="15">
       <c r="A147">
         <v>2021</v>
       </c>
@@ -5321,13 +5331,13 @@
         <v>45</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:54" ht="15">
       <c r="A148">
         <v>2021</v>
       </c>
@@ -5344,7 +5354,7 @@
         <v>50</v>
       </c>
       <c r="F148" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -5353,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:54" ht="15">
       <c r="A149">
         <v>2021</v>
       </c>
@@ -5370,7 +5380,7 @@
         <v>55</v>
       </c>
       <c r="F149" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -5379,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:54" ht="15">
       <c r="A150">
         <v>2021</v>
       </c>
@@ -5396,7 +5406,7 @@
         <v>60</v>
       </c>
       <c r="F150" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -5405,7 +5415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:54" ht="15">
       <c r="A151">
         <v>2021</v>
       </c>
@@ -5431,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:54" ht="15">
       <c r="A152">
         <v>2021</v>
       </c>
@@ -5448,7 +5458,7 @@
         <v>70</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -5463,7 +5473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:54" ht="15">
       <c r="A153">
         <v>2021</v>
       </c>
@@ -5480,7 +5490,7 @@
         <v>75</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -5501,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:54" ht="15">
       <c r="A154">
         <v>2021</v>
       </c>
@@ -5518,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G154">
         <v>85</v>
@@ -5530,7 +5540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:54" ht="15">
       <c r="A155">
         <v>2021</v>
       </c>
@@ -5547,7 +5557,7 @@
         <v>5</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -5556,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:54" ht="15">
       <c r="A156">
         <v>2021</v>
       </c>
@@ -5573,7 +5583,7 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -5582,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:54" ht="15">
       <c r="A157">
         <v>2021</v>
       </c>
@@ -5608,7 +5618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:54" ht="15">
       <c r="A158">
         <v>2021</v>
       </c>
@@ -5625,7 +5635,7 @@
         <v>20</v>
       </c>
       <c r="F158" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -5634,7 +5644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:54" ht="15">
       <c r="A159">
         <v>2021</v>
       </c>
@@ -5651,7 +5661,7 @@
         <v>25</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -5660,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:54" ht="15">
       <c r="A160">
         <v>2021</v>
       </c>
@@ -5677,13 +5687,13 @@
         <v>30</v>
       </c>
       <c r="F160" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H160">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:52" ht="15">
       <c r="A161">
         <v>2021</v>
       </c>
@@ -5709,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:52" ht="15">
       <c r="A162">
         <v>2021</v>
       </c>
@@ -5726,7 +5736,7 @@
         <v>40</v>
       </c>
       <c r="F162" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -5735,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:52" ht="15">
       <c r="A163">
         <v>2021</v>
       </c>
@@ -5757,7 +5767,7 @@
       <c r="H163">
         <v>0</v>
       </c>
-      <c r="R163">
+      <c r="S163">
         <v>1</v>
       </c>
       <c r="V163">
@@ -5776,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:52" ht="15">
       <c r="A164">
         <v>2021</v>
       </c>
@@ -5793,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G164">
         <v>10</v>
@@ -5805,7 +5815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:52" ht="15">
       <c r="A165">
         <v>2021</v>
       </c>
@@ -5822,7 +5832,7 @@
         <v>5</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G165">
         <v>10</v>
@@ -5837,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:52" ht="15">
       <c r="A166">
         <v>2021</v>
       </c>
@@ -5854,7 +5864,7 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G166">
         <v>5</v>
@@ -5866,7 +5876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:52" ht="15">
       <c r="A167">
         <v>2021</v>
       </c>
@@ -5883,7 +5893,7 @@
         <v>15</v>
       </c>
       <c r="F167" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -5895,7 +5905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:52" ht="15">
       <c r="A168">
         <v>2021</v>
       </c>
@@ -5912,7 +5922,7 @@
         <v>20</v>
       </c>
       <c r="F168" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -5924,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:52" ht="15">
       <c r="A169">
         <v>2021</v>
       </c>
@@ -5941,7 +5951,7 @@
         <v>25</v>
       </c>
       <c r="F169" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -5950,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:52" ht="15">
       <c r="A170">
         <v>2021</v>
       </c>
@@ -5967,7 +5977,7 @@
         <v>30</v>
       </c>
       <c r="F170" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -5979,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:52" ht="15">
       <c r="A171">
         <v>2021</v>
       </c>
@@ -5996,7 +6006,7 @@
         <v>35</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -6005,7 +6015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:52" ht="15">
       <c r="A172">
         <v>2021</v>
       </c>
@@ -6022,7 +6032,7 @@
         <v>40</v>
       </c>
       <c r="F172" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G172">
         <v>5</v>
@@ -6043,7 +6053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:52" ht="15">
       <c r="A173">
         <v>2021</v>
       </c>
@@ -6060,7 +6070,7 @@
         <v>45</v>
       </c>
       <c r="F173" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -6081,7 +6091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:52" ht="15">
       <c r="A174">
         <v>2022</v>
       </c>
@@ -6098,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="F174" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -6110,7 +6120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:52" ht="15">
       <c r="A175">
         <v>2022</v>
       </c>
@@ -6127,7 +6137,7 @@
         <v>5</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -6136,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:52" ht="15">
       <c r="A176">
         <v>2022</v>
       </c>
@@ -6153,13 +6163,13 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:52" ht="15">
       <c r="A177">
         <v>2022</v>
       </c>
@@ -6176,7 +6186,7 @@
         <v>15</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -6185,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:52" ht="15">
       <c r="A178">
         <v>2022</v>
       </c>
@@ -6202,7 +6212,7 @@
         <v>20</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -6211,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:52" ht="15">
       <c r="A179">
         <v>2022</v>
       </c>
@@ -6228,7 +6238,7 @@
         <v>25</v>
       </c>
       <c r="F179" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -6237,7 +6247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:52" ht="15">
       <c r="A180">
         <v>2022</v>
       </c>
@@ -6254,7 +6264,7 @@
         <v>30</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G180">
         <v>5</v>
@@ -6272,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:52" ht="15">
       <c r="A181">
         <v>2022</v>
       </c>
@@ -6289,7 +6299,7 @@
         <v>35</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -6307,7 +6317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:52" ht="15">
       <c r="A182">
         <v>2022</v>
       </c>
@@ -6324,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G182">
         <v>20</v>
@@ -6336,7 +6346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:52" ht="15">
       <c r="A183">
         <v>2022</v>
       </c>
@@ -6353,13 +6363,13 @@
         <v>5</v>
       </c>
       <c r="F183" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:52" ht="15">
       <c r="A184">
         <v>2022</v>
       </c>
@@ -6376,7 +6386,7 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -6385,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:52" ht="15">
       <c r="A185">
         <v>2022</v>
       </c>
@@ -6402,13 +6412,13 @@
         <v>15</v>
       </c>
       <c r="F185" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:52" ht="15">
       <c r="A186">
         <v>2022</v>
       </c>
@@ -6425,7 +6435,7 @@
         <v>20</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G186">
         <v>3</v>
@@ -6434,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:52" ht="15">
       <c r="A187">
         <v>2022</v>
       </c>
@@ -6451,7 +6461,7 @@
         <v>25</v>
       </c>
       <c r="F187" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -6469,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:52" ht="15">
       <c r="A188">
         <v>2022</v>
       </c>
@@ -6495,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:52" ht="15">
       <c r="A189">
         <v>2022</v>
       </c>
@@ -6530,7 +6540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:52" ht="15">
       <c r="A190">
         <v>2022</v>
       </c>
@@ -6547,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G190">
         <v>25</v>
@@ -6559,7 +6569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:52" ht="15">
       <c r="A191">
         <v>2022</v>
       </c>
@@ -6576,7 +6586,7 @@
         <v>5</v>
       </c>
       <c r="F191" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -6585,7 +6595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:52" ht="15">
       <c r="A192">
         <v>2022</v>
       </c>
@@ -6602,7 +6612,7 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -6611,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:52" ht="15">
       <c r="A193">
         <v>2022</v>
       </c>
@@ -6628,13 +6638,13 @@
         <v>15</v>
       </c>
       <c r="F193" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:52" ht="15">
       <c r="A194">
         <v>2022</v>
       </c>
@@ -6651,13 +6661,13 @@
         <v>20</v>
       </c>
       <c r="F194" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:52" ht="15">
       <c r="A195">
         <v>2022</v>
       </c>
@@ -6674,13 +6684,13 @@
         <v>25</v>
       </c>
       <c r="F195" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:52" ht="15">
       <c r="A196">
         <v>2022</v>
       </c>
@@ -6697,7 +6707,7 @@
         <v>30</v>
       </c>
       <c r="F196" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -6706,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:52" ht="15">
       <c r="A197">
         <v>2022</v>
       </c>
@@ -6723,13 +6733,13 @@
         <v>35</v>
       </c>
       <c r="F197" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:52" ht="15">
       <c r="A198">
         <v>2022</v>
       </c>
@@ -6746,7 +6756,7 @@
         <v>40</v>
       </c>
       <c r="F198" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -6755,7 +6765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:52" ht="15">
       <c r="A199">
         <v>2022</v>
       </c>
@@ -6772,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G199">
         <v>40</v>
@@ -6784,7 +6794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:52" ht="15">
       <c r="A200">
         <v>2022</v>
       </c>
@@ -6801,7 +6811,7 @@
         <v>5</v>
       </c>
       <c r="F200" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -6810,7 +6820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:52" ht="15">
       <c r="A201">
         <v>2022</v>
       </c>
@@ -6827,7 +6837,7 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -6836,7 +6846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:52" ht="15">
       <c r="A202">
         <v>2022</v>
       </c>
@@ -6853,7 +6863,7 @@
         <v>15</v>
       </c>
       <c r="F202" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -6862,7 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:52" ht="15">
       <c r="A203">
         <v>2022</v>
       </c>
@@ -6888,7 +6898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:52" ht="15">
       <c r="A204">
         <v>2022</v>
       </c>
@@ -6905,7 +6915,7 @@
         <v>25</v>
       </c>
       <c r="F204" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -6914,7 +6924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:52" ht="15">
       <c r="A205">
         <v>2022</v>
       </c>
@@ -6931,7 +6941,7 @@
         <v>30</v>
       </c>
       <c r="F205" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -6940,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:52" ht="15">
       <c r="A206">
         <v>2022</v>
       </c>
@@ -6957,7 +6967,7 @@
         <v>35</v>
       </c>
       <c r="F206" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -6969,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:52" ht="15">
       <c r="A207">
         <v>2022</v>
       </c>
@@ -6986,7 +6996,7 @@
         <v>40</v>
       </c>
       <c r="F207" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -6995,7 +7005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:52" ht="15">
       <c r="A208">
         <v>2022</v>
       </c>
@@ -7021,7 +7031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:52" ht="15">
       <c r="A209">
         <v>2022</v>
       </c>
@@ -7038,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G209">
         <v>20</v>
@@ -7046,17 +7056,17 @@
       <c r="H209">
         <v>0</v>
       </c>
-      <c r="P209">
-        <v>1</v>
-      </c>
       <c r="Q209">
+        <v>1</v>
+      </c>
+      <c r="R209">
         <v>2</v>
       </c>
       <c r="AE209">
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:52" ht="15">
       <c r="A210">
         <v>2022</v>
       </c>
@@ -7073,7 +7083,7 @@
         <v>5</v>
       </c>
       <c r="F210" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G210">
         <v>10</v>
@@ -7088,7 +7098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:52" ht="15">
       <c r="A211">
         <v>2022</v>
       </c>
@@ -7105,7 +7115,7 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G211">
         <v>5</v>
@@ -7117,7 +7127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:52" ht="15">
       <c r="A212">
         <v>2022</v>
       </c>
@@ -7146,7 +7156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:52" ht="15">
       <c r="A213">
         <v>2022</v>
       </c>
@@ -7163,7 +7173,7 @@
         <v>20</v>
       </c>
       <c r="F213" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -7172,7 +7182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:52" ht="15">
       <c r="A214">
         <v>2022</v>
       </c>
@@ -7189,13 +7199,13 @@
         <v>25</v>
       </c>
       <c r="F214" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:52" ht="15">
       <c r="A215">
         <v>2022</v>
       </c>
@@ -7212,7 +7222,7 @@
         <v>30</v>
       </c>
       <c r="F215" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -7221,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:52" ht="15">
       <c r="A216">
         <v>2022</v>
       </c>
@@ -7238,7 +7248,7 @@
         <v>35</v>
       </c>
       <c r="F216" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -7250,7 +7260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:52" ht="15">
       <c r="A217">
         <v>2022</v>
       </c>
@@ -7267,7 +7277,7 @@
         <v>40</v>
       </c>
       <c r="F217" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -7288,7 +7298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:52" ht="15">
       <c r="A218">
         <v>2022</v>
       </c>
@@ -7305,7 +7315,7 @@
         <v>45</v>
       </c>
       <c r="F218" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -7326,7 +7336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:52" ht="15">
       <c r="A219">
         <v>2022</v>
       </c>
@@ -7348,7 +7358,7 @@
       <c r="H219">
         <v>0</v>
       </c>
-      <c r="P219">
+      <c r="Q219">
         <v>2</v>
       </c>
       <c r="W219">
@@ -7358,7 +7368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:52" ht="15">
       <c r="A220">
         <v>2022</v>
       </c>
@@ -7375,7 +7385,7 @@
         <v>5</v>
       </c>
       <c r="F220" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -7383,7 +7393,7 @@
       <c r="H220">
         <v>0</v>
       </c>
-      <c r="Q220">
+      <c r="R220">
         <v>10</v>
       </c>
       <c r="V220">
@@ -7393,7 +7403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:52" ht="15">
       <c r="A221">
         <v>2022</v>
       </c>
@@ -7410,12 +7420,12 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H221">
         <v>0</v>
       </c>
-      <c r="Q221">
+      <c r="R221">
         <v>2</v>
       </c>
       <c r="V221">
@@ -7425,7 +7435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:52" ht="15">
       <c r="A222">
         <v>2022</v>
       </c>
@@ -7442,13 +7452,13 @@
         <v>15</v>
       </c>
       <c r="F222" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H222">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:52" ht="15">
       <c r="A223">
         <v>2022</v>
       </c>
@@ -7465,13 +7475,13 @@
         <v>20</v>
       </c>
       <c r="F223" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H223">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:52" ht="15">
       <c r="A224">
         <v>2022</v>
       </c>
@@ -7500,7 +7510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:42" ht="15">
       <c r="A225">
         <v>2022</v>
       </c>
@@ -7517,7 +7527,7 @@
         <v>30</v>
       </c>
       <c r="F225" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -7535,7 +7545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:42" ht="15">
       <c r="A226">
         <v>2022</v>
       </c>
@@ -7552,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="F226" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G226">
         <v>35</v>
@@ -7560,7 +7570,7 @@
       <c r="H226">
         <v>0</v>
       </c>
-      <c r="P226">
+      <c r="Q226">
         <v>2</v>
       </c>
       <c r="AE226">
@@ -7570,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:42" ht="15">
       <c r="A227">
         <v>2022</v>
       </c>
@@ -7587,7 +7597,7 @@
         <v>5</v>
       </c>
       <c r="F227" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -7596,7 +7606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:42" ht="15">
       <c r="A228">
         <v>2022</v>
       </c>
@@ -7613,7 +7623,7 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G228">
         <v>5</v>
@@ -7621,7 +7631,7 @@
       <c r="H228">
         <v>0</v>
       </c>
-      <c r="P228">
+      <c r="Q228">
         <v>2</v>
       </c>
       <c r="V228">
@@ -7634,7 +7644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:42" ht="15">
       <c r="A229">
         <v>2022</v>
       </c>
@@ -7651,7 +7661,7 @@
         <v>15</v>
       </c>
       <c r="F229" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -7660,7 +7670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:42" ht="15">
       <c r="A230">
         <v>2022</v>
       </c>
@@ -7698,7 +7708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:42" ht="15">
       <c r="A231">
         <v>2022</v>
       </c>
@@ -7730,7 +7740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:42" ht="15">
       <c r="A232">
         <v>2022</v>
       </c>
@@ -7747,7 +7757,7 @@
         <v>30</v>
       </c>
       <c r="F232" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -7762,7 +7772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:42" ht="15">
       <c r="A233">
         <v>2022</v>
       </c>
@@ -7797,7 +7807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:42" ht="15">
       <c r="A234">
         <v>2022</v>
       </c>
@@ -7814,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="F234" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G234">
         <v>45</v>
@@ -7829,7 +7839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:42" ht="15">
       <c r="A235">
         <v>2022</v>
       </c>
@@ -7848,7 +7858,7 @@
       <c r="H235">
         <v>0</v>
       </c>
-      <c r="Q235">
+      <c r="R235">
         <v>1</v>
       </c>
       <c r="V235">
@@ -7858,7 +7868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:42" ht="15">
       <c r="A236">
         <v>2022</v>
       </c>
@@ -7875,7 +7885,7 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -7884,7 +7894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:42" ht="15">
       <c r="A237">
         <v>2022</v>
       </c>
@@ -7910,7 +7920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:42" ht="15">
       <c r="A238">
         <v>2022</v>
       </c>
@@ -7936,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:42" ht="15">
       <c r="A239">
         <v>2022</v>
       </c>
@@ -7953,13 +7963,13 @@
         <v>25</v>
       </c>
       <c r="F239" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:42" ht="15">
       <c r="A240">
         <v>2022</v>
       </c>
@@ -7976,7 +7986,7 @@
         <v>30</v>
       </c>
       <c r="F240" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -7985,7 +7995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:52" ht="15">
       <c r="A241">
         <v>2022</v>
       </c>
@@ -8005,7 +8015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:52" ht="15">
       <c r="A242">
         <v>2022</v>
       </c>
@@ -8022,7 +8032,7 @@
         <v>40</v>
       </c>
       <c r="F242" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -8043,7 +8053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:52" ht="15">
       <c r="A243">
         <v>2022</v>
       </c>
@@ -8060,7 +8070,7 @@
         <v>45</v>
       </c>
       <c r="F243" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -8069,7 +8079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:52" ht="15">
       <c r="A244">
         <v>2022</v>
       </c>
@@ -8086,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="F244" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G244">
         <v>40</v>
@@ -8098,7 +8108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:52" ht="15">
       <c r="A245">
         <v>2022</v>
       </c>
@@ -8115,7 +8125,7 @@
         <v>5</v>
       </c>
       <c r="F245" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -8124,7 +8134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:52" ht="15">
       <c r="A246">
         <v>2022</v>
       </c>
@@ -8143,14 +8153,14 @@
       <c r="H246">
         <v>0</v>
       </c>
-      <c r="Q246">
+      <c r="R246">
         <v>1</v>
       </c>
       <c r="AE246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:52" ht="15">
       <c r="A247">
         <v>2022</v>
       </c>
@@ -8167,13 +8177,13 @@
         <v>15</v>
       </c>
       <c r="F247" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H247">
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:52" ht="15">
       <c r="A248">
         <v>2022</v>
       </c>
@@ -8199,7 +8209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:52" ht="15">
       <c r="A249">
         <v>2022</v>
       </c>
@@ -8225,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:52" ht="15">
       <c r="A250">
         <v>2022</v>
       </c>
@@ -8251,7 +8261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:52" ht="15">
       <c r="A251">
         <v>2022</v>
       </c>
@@ -8268,7 +8278,7 @@
         <v>35</v>
       </c>
       <c r="F251" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -8283,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:52" ht="15">
       <c r="A252">
         <v>2022</v>
       </c>
@@ -8309,7 +8319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:52" ht="15">
       <c r="A253">
         <v>2022</v>
       </c>
@@ -8326,7 +8336,7 @@
         <v>45</v>
       </c>
       <c r="F253" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -8335,7 +8345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:52" ht="15">
       <c r="A254">
         <v>2022</v>
       </c>
@@ -8352,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="F254" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G254">
         <v>25</v>
@@ -8360,10 +8370,10 @@
       <c r="H254">
         <v>0</v>
       </c>
-      <c r="P254">
-        <v>1</v>
-      </c>
       <c r="Q254">
+        <v>1</v>
+      </c>
+      <c r="R254">
         <v>2</v>
       </c>
       <c r="W254">
@@ -8376,7 +8386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:52" ht="15">
       <c r="A255">
         <v>2022</v>
       </c>
@@ -8393,7 +8403,7 @@
         <v>5</v>
       </c>
       <c r="F255" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G255">
         <v>5</v>
@@ -8401,7 +8411,7 @@
       <c r="H255">
         <v>0</v>
       </c>
-      <c r="Q255">
+      <c r="R255">
         <v>1</v>
       </c>
       <c r="V255">
@@ -8411,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:52" ht="15">
       <c r="A256">
         <v>2022</v>
       </c>
@@ -8428,7 +8438,7 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G256">
         <v>5</v>
@@ -8443,7 +8453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:52" ht="15">
       <c r="A257">
         <v>2022</v>
       </c>
@@ -8469,7 +8479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:52" ht="15">
       <c r="A258">
         <v>2022</v>
       </c>
@@ -8495,7 +8505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:52" ht="15">
       <c r="A259">
         <v>2022</v>
       </c>
@@ -8518,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:52" ht="15">
       <c r="A260">
         <v>2022</v>
       </c>
@@ -8535,12 +8545,12 @@
         <v>30</v>
       </c>
       <c r="F260" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H260">
         <v>0</v>
       </c>
-      <c r="Q260">
+      <c r="R260">
         <v>1</v>
       </c>
       <c r="V260">
@@ -8556,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:52" ht="15">
       <c r="A261">
         <v>2022</v>
       </c>
@@ -8585,7 +8595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:52" ht="15">
       <c r="A262">
         <v>2022</v>
       </c>
@@ -8604,7 +8614,7 @@
       <c r="H262">
         <v>0</v>
       </c>
-      <c r="P262">
+      <c r="Q262">
         <v>1</v>
       </c>
       <c r="V262">
@@ -8614,7 +8624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:52" ht="15">
       <c r="A263">
         <v>2022</v>
       </c>
@@ -8631,7 +8641,7 @@
         <v>45</v>
       </c>
       <c r="F263" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -8646,7 +8656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:52" ht="15">
       <c r="A264">
         <v>2022</v>
       </c>
@@ -8663,7 +8673,7 @@
         <v>50</v>
       </c>
       <c r="F264" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -8678,7 +8688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:52" ht="15">
       <c r="A265">
         <v>2022</v>
       </c>
@@ -8695,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="F265" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="G265">
         <v>15</v>
@@ -8703,10 +8713,10 @@
       <c r="H265">
         <v>0</v>
       </c>
-      <c r="P265">
-        <v>2</v>
-      </c>
       <c r="Q265">
+        <v>2</v>
+      </c>
+      <c r="R265">
         <v>1</v>
       </c>
       <c r="AC265">
@@ -8719,7 +8729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:52" ht="15">
       <c r="A266">
         <v>2022</v>
       </c>
@@ -8736,7 +8746,7 @@
         <v>5</v>
       </c>
       <c r="F266" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -8744,7 +8754,7 @@
       <c r="H266">
         <v>0</v>
       </c>
-      <c r="Q266">
+      <c r="R266">
         <v>30</v>
       </c>
       <c r="V266">
@@ -8763,7 +8773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:52" ht="15">
       <c r="A267">
         <v>2022</v>
       </c>
@@ -8780,12 +8790,12 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="H267">
         <v>0</v>
       </c>
-      <c r="Q267">
+      <c r="R267">
         <v>3</v>
       </c>
       <c r="V267">
@@ -8801,7 +8811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:52" ht="15">
       <c r="A268">
         <v>2022</v>
       </c>
@@ -8818,7 +8828,7 @@
         <v>15</v>
       </c>
       <c r="F268" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G268">
         <v>5</v>
@@ -8836,7 +8846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:52" ht="15">
       <c r="A269">
         <v>2022</v>
       </c>
@@ -8853,12 +8863,12 @@
         <v>20</v>
       </c>
       <c r="F269" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="H269">
         <v>0</v>
       </c>
-      <c r="Q269">
+      <c r="R269">
         <v>10</v>
       </c>
       <c r="V269">
@@ -8868,7 +8878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:52" ht="15">
       <c r="A270">
         <v>2022</v>
       </c>
@@ -8885,12 +8895,12 @@
         <v>25</v>
       </c>
       <c r="F270" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="H270">
         <v>0</v>
       </c>
-      <c r="Q270">
+      <c r="R270">
         <v>10</v>
       </c>
       <c r="V270">
@@ -8900,7 +8910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:52" ht="15">
       <c r="A271">
         <v>2022</v>
       </c>
@@ -8917,7 +8927,7 @@
         <v>30</v>
       </c>
       <c r="F271" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="G271">
         <v>5</v>
@@ -8947,7 +8957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:52" ht="15">
       <c r="A272">
         <v>2022</v>
       </c>
@@ -8991,7 +9001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:52" ht="15">
       <c r="A273">
         <v>2022</v>
       </c>
@@ -9008,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="F273" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G273">
         <v>30</v>
@@ -9016,10 +9026,10 @@
       <c r="H273">
         <v>0</v>
       </c>
-      <c r="P273">
-        <v>1</v>
-      </c>
       <c r="Q273">
+        <v>1</v>
+      </c>
+      <c r="R273">
         <v>2</v>
       </c>
       <c r="AE273">
@@ -9029,7 +9039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:52" ht="15">
       <c r="A274">
         <v>2022</v>
       </c>
@@ -9046,12 +9056,12 @@
         <v>5</v>
       </c>
       <c r="F274" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="H274">
         <v>0</v>
       </c>
-      <c r="Q274">
+      <c r="R274">
         <v>5</v>
       </c>
       <c r="V274">
@@ -9061,7 +9071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:52" ht="15">
       <c r="A275">
         <v>2022</v>
       </c>
@@ -9078,7 +9088,7 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G275">
         <v>5</v>
@@ -9099,7 +9109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:52" ht="15">
       <c r="A276">
         <v>2022</v>
       </c>
@@ -9116,7 +9126,7 @@
         <v>15</v>
       </c>
       <c r="F276" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -9125,7 +9135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:52" ht="15">
       <c r="A277">
         <v>2022</v>
       </c>
@@ -9142,7 +9152,7 @@
         <v>20</v>
       </c>
       <c r="F277" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="H277">
         <v>0</v>
@@ -9157,7 +9167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:52" ht="15">
       <c r="A278">
         <v>2022</v>
       </c>
@@ -9174,7 +9184,7 @@
         <v>25</v>
       </c>
       <c r="F278" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -9201,7 +9211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:52" ht="15">
       <c r="A279">
         <v>2022</v>
       </c>
@@ -9218,7 +9228,7 @@
         <v>30</v>
       </c>
       <c r="F279" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -9236,7 +9246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:52" ht="15">
       <c r="A280">
         <v>2022</v>
       </c>
@@ -9268,7 +9278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:52" ht="15">
       <c r="A281">
         <v>2022</v>
       </c>
@@ -9285,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="F281" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G281">
         <v>20</v>
@@ -9309,7 +9319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:52" ht="15">
       <c r="A282">
         <v>2022</v>
       </c>
@@ -9326,7 +9336,7 @@
         <v>5</v>
       </c>
       <c r="F282" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="H282">
         <v>0</v>
@@ -9335,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:52" ht="15">
       <c r="A283">
         <v>2022</v>
       </c>
@@ -9352,7 +9362,7 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="H283">
         <v>0</v>
@@ -9361,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:52" ht="15">
       <c r="A284">
         <v>2022</v>
       </c>
@@ -9378,13 +9388,13 @@
         <v>15</v>
       </c>
       <c r="F284" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="H284">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:52" ht="15">
       <c r="A285">
         <v>2022</v>
       </c>
@@ -9401,13 +9411,13 @@
         <v>20</v>
       </c>
       <c r="F285" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="H285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:52" ht="15">
       <c r="A286">
         <v>2022</v>
       </c>
@@ -9436,7 +9446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:52" ht="15">
       <c r="A287">
         <v>2022</v>
       </c>
@@ -9456,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:52" ht="15">
       <c r="A288">
         <v>2022</v>
       </c>
@@ -9473,7 +9483,7 @@
         <v>35</v>
       </c>
       <c r="F288" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H288">
         <v>0</v>
@@ -9488,7 +9498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:52" ht="15">
       <c r="A289">
         <v>2022</v>
       </c>
@@ -9505,7 +9515,7 @@
         <v>40</v>
       </c>
       <c r="F289" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -9529,7 +9539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:52" ht="15">
       <c r="A290">
         <v>2022</v>
       </c>
@@ -9551,7 +9561,7 @@
       <c r="L290">
         <v>1</v>
       </c>
-      <c r="T290">
+      <c r="U290">
         <v>1</v>
       </c>
       <c r="V290">
@@ -9564,7 +9574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:52" ht="15">
       <c r="A291">
         <v>2022</v>
       </c>
@@ -9586,7 +9596,7 @@
       <c r="L291">
         <v>1</v>
       </c>
-      <c r="T291">
+      <c r="U291">
         <v>1</v>
       </c>
       <c r="W291">
@@ -9596,7 +9606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:52" ht="15">
       <c r="A292">
         <v>2022</v>
       </c>
@@ -9613,7 +9623,7 @@
         <v>55</v>
       </c>
       <c r="F292" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -9640,7 +9650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:52" ht="15">
       <c r="A293">
         <v>2022</v>
       </c>
@@ -9657,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="F293" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G293">
         <v>40</v>
@@ -9665,7 +9675,7 @@
       <c r="H293">
         <v>0</v>
       </c>
-      <c r="P293">
+      <c r="Q293">
         <v>1</v>
       </c>
       <c r="V293">
@@ -9678,7 +9688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:52" ht="15">
       <c r="A294">
         <v>2022</v>
       </c>
@@ -9695,7 +9705,7 @@
         <v>5</v>
       </c>
       <c r="F294" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -9707,7 +9717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:52" ht="15">
       <c r="A295">
         <v>2022</v>
       </c>
@@ -9726,7 +9736,7 @@
       <c r="H295">
         <v>0</v>
       </c>
-      <c r="Q295">
+      <c r="R295">
         <v>1</v>
       </c>
       <c r="V295">
@@ -9736,7 +9746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:52" ht="15">
       <c r="A296">
         <v>2022</v>
       </c>
@@ -9762,7 +9772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:52" ht="15">
       <c r="A297">
         <v>2022</v>
       </c>
@@ -9791,7 +9801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:52" ht="15">
       <c r="A298">
         <v>2022</v>
       </c>
@@ -9823,7 +9833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:52" ht="15">
       <c r="A299">
         <v>2022</v>
       </c>
@@ -9852,7 +9862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:52" ht="15">
       <c r="A300">
         <v>2022</v>
       </c>
@@ -9878,7 +9888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:52" ht="15">
       <c r="A301">
         <v>2022</v>
       </c>
@@ -9895,7 +9905,7 @@
         <v>40</v>
       </c>
       <c r="F301" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="H301">
         <v>0</v>
@@ -9916,7 +9926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:52" ht="15">
       <c r="A302">
         <v>2022</v>
       </c>
@@ -9933,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="F302" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G302">
         <v>25</v>
@@ -9941,12 +9951,12 @@
       <c r="H302">
         <v>0</v>
       </c>
-      <c r="P302">
-        <v>1</v>
-      </c>
       <c r="Q302">
         <v>1</v>
       </c>
+      <c r="R302">
+        <v>1</v>
+      </c>
       <c r="AE302">
         <v>5</v>
       </c>
@@ -9957,7 +9967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:52" ht="15">
       <c r="A303">
         <v>2022</v>
       </c>
@@ -9974,7 +9984,7 @@
         <v>5</v>
       </c>
       <c r="F303" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G303">
         <v>10</v>
@@ -9989,7 +9999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:52" ht="15">
       <c r="A304">
         <v>2022</v>
       </c>
@@ -10006,7 +10016,7 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G304">
         <v>5</v>
@@ -10021,7 +10031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:54" ht="15">
       <c r="A305">
         <v>2022</v>
       </c>
@@ -10050,7 +10060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:54" ht="15">
       <c r="A306">
         <v>2022</v>
       </c>
@@ -10076,7 +10086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:54" ht="15">
       <c r="A307">
         <v>2022</v>
       </c>
@@ -10102,7 +10112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:54" ht="15">
       <c r="A308">
         <v>2022</v>
       </c>
@@ -10124,7 +10134,7 @@
       <c r="L308">
         <v>1</v>
       </c>
-      <c r="Q308">
+      <c r="R308">
         <v>1</v>
       </c>
       <c r="V308">
@@ -10134,7 +10144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:54" ht="15">
       <c r="A309">
         <v>2022</v>
       </c>
@@ -10169,7 +10179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:54" ht="15">
       <c r="A310">
         <v>2022</v>
       </c>
@@ -10186,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="F310" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G310">
         <v>10</v>
@@ -10194,7 +10204,7 @@
       <c r="H310">
         <v>0</v>
       </c>
-      <c r="P310">
+      <c r="Q310">
         <v>2</v>
       </c>
       <c r="AA310">
@@ -10207,7 +10217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:54" ht="15">
       <c r="A311">
         <v>2022</v>
       </c>
@@ -10224,7 +10234,7 @@
         <v>5</v>
       </c>
       <c r="F311" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G311">
         <v>2</v>
@@ -10232,7 +10242,7 @@
       <c r="H311">
         <v>0</v>
       </c>
-      <c r="Q311">
+      <c r="R311">
         <v>1</v>
       </c>
       <c r="V311">
@@ -10245,7 +10255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:54" ht="15">
       <c r="A312">
         <v>2022</v>
       </c>
@@ -10262,12 +10272,12 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H312">
         <v>0</v>
       </c>
-      <c r="Q312">
+      <c r="R312">
         <v>1</v>
       </c>
       <c r="V312">
@@ -10283,7 +10293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:54" ht="15">
       <c r="A313">
         <v>2022</v>
       </c>
@@ -10300,7 +10310,7 @@
         <v>15</v>
       </c>
       <c r="F313" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H313">
         <v>0</v>
@@ -10315,7 +10325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:54" ht="15">
       <c r="A314">
         <v>2022</v>
       </c>
@@ -10332,7 +10342,7 @@
         <v>20</v>
       </c>
       <c r="F314" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="H314">
         <v>0</v>
@@ -10350,7 +10360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:54" ht="15">
       <c r="A315">
         <v>2022</v>
       </c>
@@ -10367,9 +10377,9 @@
         <v>25</v>
       </c>
       <c r="F315" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q315">
+        <v>73</v>
+      </c>
+      <c r="R315">
         <v>2</v>
       </c>
       <c r="V315">
@@ -10388,7 +10398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:54" ht="15">
       <c r="A316">
         <v>2022</v>
       </c>
@@ -10405,7 +10415,7 @@
         <v>30</v>
       </c>
       <c r="F316" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G316">
         <v>10</v>
@@ -10413,10 +10423,10 @@
       <c r="H316">
         <v>5</v>
       </c>
-      <c r="O316">
-        <v>1</v>
-      </c>
-      <c r="Q316">
+      <c r="P316">
+        <v>1</v>
+      </c>
+      <c r="R316">
         <v>15</v>
       </c>
       <c r="V316">
@@ -10426,7 +10436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:54" ht="15">
       <c r="A317">
         <v>2022</v>
       </c>
@@ -10443,7 +10453,7 @@
         <v>35</v>
       </c>
       <c r="F317" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H317">
         <v>30</v>
@@ -10470,7 +10480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:54" ht="15">
       <c r="A318">
         <v>2022</v>
       </c>
@@ -10487,15 +10497,15 @@
         <v>0</v>
       </c>
       <c r="F318" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G318">
         <v>20</v>
       </c>
-      <c r="P318">
-        <v>1</v>
-      </c>
       <c r="Q318">
+        <v>1</v>
+      </c>
+      <c r="R318">
         <v>3</v>
       </c>
       <c r="AA318">
@@ -10508,7 +10518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:54" ht="15">
       <c r="A319">
         <v>2022</v>
       </c>
@@ -10525,7 +10535,7 @@
         <v>5</v>
       </c>
       <c r="F319" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="V319">
         <v>10</v>
@@ -10540,7 +10550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:54" ht="15">
       <c r="A320">
         <v>2022</v>
       </c>
@@ -10557,7 +10567,7 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G320">
         <v>5</v>
@@ -10578,7 +10588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:43" ht="15">
       <c r="A321">
         <v>2022</v>
       </c>
@@ -10595,7 +10605,7 @@
         <v>15</v>
       </c>
       <c r="F321" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="V321">
         <v>1</v>
@@ -10607,7 +10617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:43" ht="15">
       <c r="A322">
         <v>2022</v>
       </c>
@@ -10624,9 +10634,9 @@
         <v>20</v>
       </c>
       <c r="F322" t="s">
-        <v>7</v>
-      </c>
-      <c r="O322">
+        <v>57</v>
+      </c>
+      <c r="P322">
         <v>1</v>
       </c>
       <c r="V322">
@@ -10639,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:43" ht="15">
       <c r="A323">
         <v>2022</v>
       </c>
@@ -10656,7 +10666,7 @@
         <v>25</v>
       </c>
       <c r="F323" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G323">
         <v>3</v>
@@ -10677,7 +10687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:43" ht="15">
       <c r="A324">
         <v>2022</v>
       </c>
@@ -10694,7 +10704,7 @@
         <v>30</v>
       </c>
       <c r="F324" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H324">
         <v>15</v>
@@ -10715,7 +10725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:43" ht="15">
       <c r="A325">
         <v>2022</v>
       </c>
@@ -10753,7 +10763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:43" ht="15">
       <c r="A326">
         <v>2022</v>
       </c>
@@ -10770,7 +10780,7 @@
         <v>40</v>
       </c>
       <c r="F326" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H326">
         <v>90</v>
@@ -10794,7 +10804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:43" ht="15">
       <c r="A327">
         <v>2022</v>
       </c>
@@ -10811,12 +10821,12 @@
         <v>0</v>
       </c>
       <c r="F327" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G327">
         <v>25</v>
       </c>
-      <c r="P327">
+      <c r="Q327">
         <v>2</v>
       </c>
       <c r="W327">
@@ -10838,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:43" ht="15">
       <c r="A328">
         <v>2022</v>
       </c>
@@ -10855,7 +10865,7 @@
         <v>5</v>
       </c>
       <c r="F328" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="V328">
         <v>5</v>
@@ -10867,7 +10877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:43" ht="15">
       <c r="A329">
         <v>2022</v>
       </c>
@@ -10884,7 +10894,7 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="V329">
         <v>2</v>
@@ -10896,7 +10906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:43" ht="15">
       <c r="A330">
         <v>2022</v>
       </c>
@@ -10913,7 +10923,7 @@
         <v>15</v>
       </c>
       <c r="F330" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="W330">
         <v>40</v>
@@ -10925,7 +10935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:43" ht="15">
       <c r="A331">
         <v>2022</v>
       </c>
@@ -10942,7 +10952,7 @@
         <v>20</v>
       </c>
       <c r="F331" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="H331">
         <v>2</v>
@@ -10954,7 +10964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:43" ht="15">
       <c r="A332">
         <v>2022</v>
       </c>
@@ -10983,7 +10993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:43" ht="15">
       <c r="A333">
         <v>2022</v>
       </c>
@@ -11000,7 +11010,7 @@
         <v>30</v>
       </c>
       <c r="F333" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="V333">
         <v>1</v>
@@ -11012,7 +11022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:43" ht="15">
       <c r="A334">
         <v>2022</v>
       </c>
@@ -11029,7 +11039,7 @@
         <v>35</v>
       </c>
       <c r="F334" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H334">
         <v>70</v>
@@ -11050,7 +11060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:43" ht="15">
       <c r="A335">
         <v>2022</v>
       </c>
@@ -11067,7 +11077,7 @@
         <v>40</v>
       </c>
       <c r="F335" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H335">
         <v>20</v>
@@ -11091,7 +11101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:43" ht="15">
       <c r="A336">
         <v>2022</v>
       </c>
@@ -11108,7 +11118,7 @@
         <v>45</v>
       </c>
       <c r="F336" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H336">
         <v>40</v>
@@ -11129,7 +11139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:54" ht="15">
       <c r="A337">
         <v>2022</v>
       </c>
@@ -11146,7 +11156,7 @@
         <v>50</v>
       </c>
       <c r="F337" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H337">
         <v>100</v>
@@ -11173,7 +11183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:54" ht="15">
       <c r="A338">
         <v>2022</v>
       </c>
@@ -11190,7 +11200,7 @@
         <v>55</v>
       </c>
       <c r="F338" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H338">
         <v>90</v>
@@ -11211,7 +11221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:54" ht="15">
       <c r="A339">
         <v>2022</v>
       </c>
@@ -11228,7 +11238,7 @@
         <v>60</v>
       </c>
       <c r="F339" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H339">
         <v>40</v>
@@ -11258,7 +11268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:54" ht="15">
       <c r="A340">
         <v>2022</v>
       </c>
@@ -11275,7 +11285,7 @@
         <v>65</v>
       </c>
       <c r="F340" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H340">
         <v>50</v>
@@ -11299,7 +11309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:54" ht="15">
       <c r="A341">
         <v>2022</v>
       </c>
@@ -11316,7 +11326,7 @@
         <v>70</v>
       </c>
       <c r="F341" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H341">
         <v>95</v>
@@ -11337,7 +11347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:54" ht="15">
       <c r="A342" s="1">
         <v>2022</v>
       </c>
@@ -11354,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G342" s="1">
         <v>30</v>
@@ -11366,17 +11376,17 @@
       <c r="L342" s="1"/>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
-      <c r="O342" s="1"/>
-      <c r="P342">
-        <v>2</v>
-      </c>
-      <c r="Q342" s="1"/>
+      <c r="O342" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P342" s="1"/>
+      <c r="Q342">
+        <v>2</v>
+      </c>
       <c r="R342" s="1"/>
       <c r="S342" s="1"/>
       <c r="T342" s="1"/>
-      <c r="U342" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U342" s="1"/>
       <c r="V342" s="1">
         <v>5</v>
       </c>
@@ -11419,11 +11429,11 @@
       <c r="AY342" s="1"/>
       <c r="AZ342" s="1"/>
       <c r="BA342" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB342" s="1"/>
     </row>
-    <row r="343" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:54" ht="15">
       <c r="A343" s="1">
         <v>2022</v>
       </c>
@@ -11440,7 +11450,7 @@
         <v>5</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G343" s="1">
         <v>2</v>
@@ -11452,15 +11462,15 @@
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
-      <c r="O343" s="1"/>
+      <c r="O343" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
       <c r="S343" s="1"/>
       <c r="T343" s="1"/>
-      <c r="U343" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U343" s="1"/>
       <c r="V343" s="1">
         <v>10</v>
       </c>
@@ -11499,11 +11509,11 @@
       <c r="AY343" s="1"/>
       <c r="AZ343" s="1"/>
       <c r="BA343" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB343" s="1"/>
     </row>
-    <row r="344" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:54" ht="15">
       <c r="A344" s="1">
         <v>2022</v>
       </c>
@@ -11520,7 +11530,7 @@
         <v>10</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G344" s="1">
         <v>10</v>
@@ -11532,15 +11542,15 @@
       <c r="L344" s="1"/>
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
-      <c r="O344" s="1"/>
+      <c r="O344" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
       <c r="S344" s="1"/>
       <c r="T344" s="1"/>
-      <c r="U344" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U344" s="1"/>
       <c r="V344" s="1">
         <v>10</v>
       </c>
@@ -11581,11 +11591,11 @@
       <c r="AY344" s="1"/>
       <c r="AZ344" s="1"/>
       <c r="BA344" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB344" s="1"/>
     </row>
-    <row r="345" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:54" ht="15">
       <c r="A345" s="1">
         <v>2022</v>
       </c>
@@ -11610,15 +11620,15 @@
       <c r="L345" s="1"/>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
-      <c r="O345" s="1"/>
+      <c r="O345" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
       <c r="S345" s="1"/>
       <c r="T345" s="1"/>
-      <c r="U345" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U345" s="1"/>
       <c r="V345" s="1">
         <v>3</v>
       </c>
@@ -11653,11 +11663,11 @@
       <c r="AY345" s="1"/>
       <c r="AZ345" s="1"/>
       <c r="BA345" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB345" s="1"/>
     </row>
-    <row r="346" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:54" ht="15">
       <c r="A346" s="1">
         <v>2022</v>
       </c>
@@ -11674,7 +11684,7 @@
         <v>20</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
@@ -11684,15 +11694,15 @@
       <c r="L346" s="1"/>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
-      <c r="O346" s="1"/>
+      <c r="O346" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
       <c r="R346" s="1"/>
       <c r="S346" s="1"/>
       <c r="T346" s="1"/>
-      <c r="U346" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U346" s="1"/>
       <c r="V346" s="1">
         <v>20</v>
       </c>
@@ -11729,11 +11739,11 @@
       <c r="AY346" s="1"/>
       <c r="AZ346" s="1"/>
       <c r="BA346" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB346" s="1"/>
     </row>
-    <row r="347" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:54" ht="15">
       <c r="A347" s="1">
         <v>2022</v>
       </c>
@@ -11750,7 +11760,7 @@
         <v>25</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G347" s="1">
         <v>3</v>
@@ -11762,15 +11772,15 @@
       <c r="L347" s="1"/>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
-      <c r="O347" s="1"/>
+      <c r="O347" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
       <c r="S347" s="1"/>
       <c r="T347" s="1"/>
-      <c r="U347" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U347" s="1"/>
       <c r="V347" s="1">
         <v>10</v>
       </c>
@@ -11811,11 +11821,11 @@
       <c r="AY347" s="1"/>
       <c r="AZ347" s="1"/>
       <c r="BA347" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB347" s="1"/>
     </row>
-    <row r="348" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:54" ht="15">
       <c r="A348" s="1">
         <v>2022</v>
       </c>
@@ -11832,7 +11842,7 @@
         <v>30</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G348" s="1"/>
       <c r="H348" s="1">
@@ -11846,15 +11856,15 @@
       <c r="L348" s="1"/>
       <c r="M348" s="1"/>
       <c r="N348" s="1"/>
-      <c r="O348" s="1"/>
+      <c r="O348" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
       <c r="R348" s="1"/>
       <c r="S348" s="1"/>
       <c r="T348" s="1"/>
-      <c r="U348" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U348" s="1"/>
       <c r="V348" s="1">
         <v>15</v>
       </c>
@@ -11899,11 +11909,11 @@
       <c r="AY348" s="1"/>
       <c r="AZ348" s="1"/>
       <c r="BA348" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB348" s="1"/>
     </row>
-    <row r="349" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:54" ht="15">
       <c r="A349" s="1">
         <v>2022</v>
       </c>
@@ -11920,7 +11930,7 @@
         <v>35</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G349" s="1">
         <v>5</v>
@@ -11936,15 +11946,15 @@
       <c r="L349" s="1"/>
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
-      <c r="O349" s="1"/>
+      <c r="O349" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
       <c r="R349" s="1"/>
       <c r="S349" s="1"/>
       <c r="T349" s="1"/>
-      <c r="U349" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U349" s="1"/>
       <c r="V349" s="1"/>
       <c r="W349" s="1"/>
       <c r="X349" s="1"/>
@@ -11987,11 +11997,11 @@
       <c r="AY349" s="1"/>
       <c r="AZ349" s="1"/>
       <c r="BA349" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB349" s="1"/>
     </row>
-    <row r="350" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:54" ht="15">
       <c r="A350" s="1">
         <v>2022</v>
       </c>
@@ -12008,7 +12018,7 @@
         <v>40</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="G350" s="1"/>
       <c r="H350" s="1">
@@ -12026,17 +12036,17 @@
         <v>60</v>
       </c>
       <c r="N350" s="1"/>
-      <c r="O350" s="1"/>
+      <c r="O350" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
-      <c r="R350" s="1">
+      <c r="R350" s="1"/>
+      <c r="S350" s="1">
         <v>20</v>
       </c>
-      <c r="S350" s="1"/>
       <c r="T350" s="1"/>
-      <c r="U350" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U350" s="1"/>
       <c r="V350" s="1">
         <v>2</v>
       </c>
@@ -12075,11 +12085,11 @@
       <c r="AY350" s="1"/>
       <c r="AZ350" s="1"/>
       <c r="BA350" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB350" s="1"/>
     </row>
-    <row r="351" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:54" ht="15">
       <c r="A351" s="1">
         <v>2022</v>
       </c>
@@ -12096,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G351" s="1">
         <v>35</v>
@@ -12108,17 +12118,17 @@
       <c r="L351" s="1"/>
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
-      <c r="O351" s="1"/>
-      <c r="P351" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q351" s="1"/>
+      <c r="O351" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P351" s="1"/>
+      <c r="Q351" s="1">
+        <v>1</v>
+      </c>
       <c r="R351" s="1"/>
       <c r="S351" s="1"/>
       <c r="T351" s="1"/>
-      <c r="U351" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U351" s="1"/>
       <c r="V351" s="1">
         <v>5</v>
       </c>
@@ -12159,11 +12169,11 @@
       <c r="AY351" s="1"/>
       <c r="AZ351" s="1"/>
       <c r="BA351" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB351" s="1"/>
     </row>
-    <row r="352" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:54" ht="15">
       <c r="A352" s="1">
         <v>2022</v>
       </c>
@@ -12180,7 +12190,7 @@
         <v>5</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
@@ -12190,15 +12200,15 @@
       <c r="L352" s="1"/>
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
-      <c r="O352" s="1"/>
+      <c r="O352" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
       <c r="S352" s="1"/>
       <c r="T352" s="1"/>
-      <c r="U352" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U352" s="1"/>
       <c r="V352" s="1">
         <v>10</v>
       </c>
@@ -12237,11 +12247,11 @@
       <c r="AY352" s="1"/>
       <c r="AZ352" s="1"/>
       <c r="BA352" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB352" s="1"/>
     </row>
-    <row r="353" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:54" ht="15">
       <c r="A353" s="1">
         <v>2022</v>
       </c>
@@ -12258,7 +12268,7 @@
         <v>10</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
@@ -12268,15 +12278,15 @@
       <c r="L353" s="1"/>
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
-      <c r="O353" s="1"/>
+      <c r="O353" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
       <c r="R353" s="1"/>
       <c r="S353" s="1"/>
       <c r="T353" s="1"/>
-      <c r="U353" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U353" s="1"/>
       <c r="V353" s="1">
         <v>5</v>
       </c>
@@ -12313,11 +12323,11 @@
       <c r="AY353" s="1"/>
       <c r="AZ353" s="1"/>
       <c r="BA353" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB353" s="1"/>
     </row>
-    <row r="354" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:54" ht="15">
       <c r="A354" s="1">
         <v>2022</v>
       </c>
@@ -12334,7 +12344,7 @@
         <v>15</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
@@ -12344,15 +12354,15 @@
       <c r="L354" s="1"/>
       <c r="M354" s="1"/>
       <c r="N354" s="1"/>
-      <c r="O354" s="1"/>
+      <c r="O354" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
       <c r="S354" s="1"/>
       <c r="T354" s="1"/>
-      <c r="U354" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U354" s="1"/>
       <c r="V354" s="1">
         <v>25</v>
       </c>
@@ -12389,11 +12399,11 @@
       <c r="AY354" s="1"/>
       <c r="AZ354" s="1"/>
       <c r="BA354" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB354" s="1"/>
     </row>
-    <row r="355" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:54" ht="15">
       <c r="A355" s="1">
         <v>2022</v>
       </c>
@@ -12410,7 +12420,7 @@
         <v>20</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
@@ -12422,15 +12432,15 @@
       </c>
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
-      <c r="O355" s="1"/>
+      <c r="O355" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
       <c r="S355" s="1"/>
       <c r="T355" s="1"/>
-      <c r="U355" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U355" s="1"/>
       <c r="V355" s="1">
         <v>15</v>
       </c>
@@ -12469,11 +12479,11 @@
       <c r="AY355" s="1"/>
       <c r="AZ355" s="1"/>
       <c r="BA355" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB355" s="1"/>
     </row>
-    <row r="356" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:54" ht="15">
       <c r="A356" s="1">
         <v>2022</v>
       </c>
@@ -12500,17 +12510,17 @@
       </c>
       <c r="M356" s="1"/>
       <c r="N356" s="1"/>
-      <c r="O356" s="1"/>
+      <c r="O356" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P356" s="1"/>
-      <c r="Q356" s="1">
-        <v>1</v>
-      </c>
-      <c r="R356" s="1"/>
+      <c r="Q356" s="1"/>
+      <c r="R356" s="1">
+        <v>1</v>
+      </c>
       <c r="S356" s="1"/>
       <c r="T356" s="1"/>
-      <c r="U356" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U356" s="1"/>
       <c r="V356" s="1">
         <v>10</v>
       </c>
@@ -12549,11 +12559,11 @@
       <c r="AY356" s="1"/>
       <c r="AZ356" s="1"/>
       <c r="BA356" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB356" s="1"/>
     </row>
-    <row r="357" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:54" ht="15">
       <c r="A357" s="1">
         <v>2022</v>
       </c>
@@ -12570,7 +12580,7 @@
         <v>30</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
@@ -12582,15 +12592,15 @@
       </c>
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
-      <c r="O357" s="1"/>
+      <c r="O357" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
       <c r="S357" s="1"/>
       <c r="T357" s="1"/>
-      <c r="U357" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U357" s="1"/>
       <c r="V357" s="1">
         <v>10</v>
       </c>
@@ -12627,11 +12637,11 @@
       <c r="AY357" s="1"/>
       <c r="AZ357" s="1"/>
       <c r="BA357" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB357" s="1"/>
     </row>
-    <row r="358" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:54" ht="15">
       <c r="A358" s="1">
         <v>2022</v>
       </c>
@@ -12648,7 +12658,7 @@
         <v>35</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
@@ -12660,15 +12670,15 @@
       </c>
       <c r="M358" s="1"/>
       <c r="N358" s="1"/>
-      <c r="O358" s="1"/>
+      <c r="O358" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
       <c r="S358" s="1"/>
       <c r="T358" s="1"/>
-      <c r="U358" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U358" s="1"/>
       <c r="V358" s="1">
         <v>10</v>
       </c>
@@ -12709,11 +12719,11 @@
       <c r="AY358" s="1"/>
       <c r="AZ358" s="1"/>
       <c r="BA358" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB358" s="1"/>
     </row>
-    <row r="359" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:54" ht="15">
       <c r="A359" s="1">
         <v>2022</v>
       </c>
@@ -12730,7 +12740,7 @@
         <v>40</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G359" s="1"/>
       <c r="H359" s="1">
@@ -12742,17 +12752,17 @@
       <c r="L359" s="1"/>
       <c r="M359" s="1"/>
       <c r="N359" s="1"/>
-      <c r="O359" s="1">
-        <v>1</v>
-      </c>
-      <c r="P359" s="1"/>
+      <c r="O359" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P359" s="1">
+        <v>1</v>
+      </c>
       <c r="Q359" s="1"/>
       <c r="R359" s="1"/>
       <c r="S359" s="1"/>
       <c r="T359" s="1"/>
-      <c r="U359" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U359" s="1"/>
       <c r="V359" s="1">
         <v>10</v>
       </c>
@@ -12793,11 +12803,11 @@
       <c r="AY359" s="1"/>
       <c r="AZ359" s="1"/>
       <c r="BA359" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB359" s="1"/>
     </row>
-    <row r="360" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:54" ht="15">
       <c r="A360" s="1">
         <v>2022</v>
       </c>
@@ -12814,7 +12824,7 @@
         <v>45</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G360" s="1"/>
       <c r="H360" s="1">
@@ -12828,15 +12838,15 @@
       <c r="L360" s="1"/>
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
-      <c r="O360" s="1"/>
+      <c r="O360" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
       <c r="R360" s="1"/>
       <c r="S360" s="1"/>
       <c r="T360" s="1"/>
-      <c r="U360" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U360" s="1"/>
       <c r="V360" s="1">
         <v>5</v>
       </c>
@@ -12877,11 +12887,11 @@
       <c r="AY360" s="1"/>
       <c r="AZ360" s="1"/>
       <c r="BA360" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB360" s="1"/>
     </row>
-    <row r="361" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:54" ht="15">
       <c r="A361" s="1">
         <v>2022</v>
       </c>
@@ -12898,7 +12908,7 @@
         <v>50</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G361" s="1"/>
       <c r="H361" s="1">
@@ -12914,15 +12924,15 @@
         <v>1</v>
       </c>
       <c r="N361" s="1"/>
-      <c r="O361" s="1"/>
+      <c r="O361" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
       <c r="S361" s="1"/>
       <c r="T361" s="1"/>
-      <c r="U361" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U361" s="1"/>
       <c r="V361" s="1">
         <v>5</v>
       </c>
@@ -12965,11 +12975,11 @@
       <c r="AY361" s="1"/>
       <c r="AZ361" s="1"/>
       <c r="BA361" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB361" s="1"/>
     </row>
-    <row r="362" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:54" ht="15">
       <c r="A362" s="1">
         <v>2022</v>
       </c>
@@ -12986,7 +12996,7 @@
         <v>55</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G362" s="1"/>
       <c r="H362" s="1">
@@ -13000,15 +13010,15 @@
       <c r="L362" s="1"/>
       <c r="M362" s="1"/>
       <c r="N362" s="1"/>
-      <c r="O362" s="1"/>
+      <c r="O362" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
       <c r="S362" s="1"/>
       <c r="T362" s="1"/>
-      <c r="U362" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U362" s="1"/>
       <c r="V362" s="1">
         <v>1</v>
       </c>
@@ -13051,11 +13061,11 @@
       <c r="AY362" s="1"/>
       <c r="AZ362" s="1"/>
       <c r="BA362" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB362" s="1"/>
     </row>
-    <row r="363" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:54" ht="15">
       <c r="A363" s="1">
         <v>2022</v>
       </c>
@@ -13072,7 +13082,7 @@
         <v>60</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G363" s="1"/>
       <c r="H363" s="1">
@@ -13090,15 +13100,15 @@
         <v>1</v>
       </c>
       <c r="N363" s="1"/>
-      <c r="O363" s="1"/>
+      <c r="O363" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
       <c r="S363" s="1"/>
       <c r="T363" s="1"/>
-      <c r="U363" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U363" s="1"/>
       <c r="V363" s="1"/>
       <c r="W363" s="1"/>
       <c r="X363" s="1"/>
@@ -13139,11 +13149,11 @@
       <c r="AY363" s="1"/>
       <c r="AZ363" s="1"/>
       <c r="BA363" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB363" s="1"/>
     </row>
-    <row r="364" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:54" ht="15">
       <c r="A364" s="1">
         <v>2022</v>
       </c>
@@ -13160,7 +13170,7 @@
         <v>65</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G364" s="1"/>
       <c r="H364" s="1">
@@ -13176,15 +13186,15 @@
         <v>5</v>
       </c>
       <c r="N364" s="1"/>
-      <c r="O364" s="1"/>
+      <c r="O364" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
       <c r="S364" s="1"/>
       <c r="T364" s="1"/>
-      <c r="U364" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U364" s="1"/>
       <c r="V364" s="1"/>
       <c r="W364" s="1">
         <v>2</v>
@@ -13221,11 +13231,11 @@
       <c r="AY364" s="1"/>
       <c r="AZ364" s="1"/>
       <c r="BA364" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB364" s="1"/>
     </row>
-    <row r="365" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:54" ht="15">
       <c r="A365" s="1">
         <v>2022</v>
       </c>
@@ -13242,7 +13252,7 @@
         <v>70</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G365" s="1"/>
       <c r="H365" s="1">
@@ -13260,15 +13270,15 @@
         <v>1</v>
       </c>
       <c r="N365" s="1"/>
-      <c r="O365" s="1"/>
+      <c r="O365" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
       <c r="S365" s="1"/>
       <c r="T365" s="1"/>
-      <c r="U365" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U365" s="1"/>
       <c r="V365" s="1">
         <v>1</v>
       </c>
@@ -13307,11 +13317,11 @@
       <c r="AY365" s="1"/>
       <c r="AZ365" s="1"/>
       <c r="BA365" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB365" s="1"/>
     </row>
-    <row r="366" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:54" ht="15">
       <c r="A366" s="1">
         <v>2022</v>
       </c>
@@ -13328,7 +13338,7 @@
         <v>75</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G366" s="1"/>
       <c r="H366" s="1">
@@ -13346,15 +13356,15 @@
         <v>1</v>
       </c>
       <c r="N366" s="1"/>
-      <c r="O366" s="1"/>
+      <c r="O366" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
       <c r="S366" s="1"/>
       <c r="T366" s="1"/>
-      <c r="U366" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U366" s="1"/>
       <c r="V366" s="1"/>
       <c r="W366" s="1"/>
       <c r="X366" s="1"/>
@@ -13391,11 +13401,11 @@
       <c r="AY366" s="1"/>
       <c r="AZ366" s="1"/>
       <c r="BA366" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB366" s="1"/>
     </row>
-    <row r="367" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:54" ht="15">
       <c r="A367" s="1">
         <v>2022</v>
       </c>
@@ -13430,15 +13440,15 @@
       <c r="L367" s="1"/>
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
-      <c r="O367" s="1"/>
+      <c r="O367" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
       <c r="S367" s="1"/>
       <c r="T367" s="1"/>
-      <c r="U367" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U367" s="1"/>
       <c r="V367" s="1">
         <v>5</v>
       </c>
@@ -13481,11 +13491,11 @@
       <c r="AY367" s="1"/>
       <c r="AZ367" s="1"/>
       <c r="BA367" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB367" s="1"/>
     </row>
-    <row r="368" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:54" ht="15">
       <c r="A368" s="1">
         <v>2022</v>
       </c>
@@ -13518,17 +13528,17 @@
       <c r="N368" s="1">
         <v>2</v>
       </c>
-      <c r="O368" s="1"/>
+      <c r="O368" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
-      <c r="R368" s="1">
-        <v>1</v>
-      </c>
-      <c r="S368" s="1"/>
+      <c r="R368" s="1"/>
+      <c r="S368" s="1">
+        <v>1</v>
+      </c>
       <c r="T368" s="1"/>
-      <c r="U368" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U368" s="1"/>
       <c r="V368" s="1">
         <v>1</v>
       </c>
@@ -13575,11 +13585,11 @@
       </c>
       <c r="AZ368" s="1"/>
       <c r="BA368" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB368" s="1"/>
     </row>
-    <row r="369" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:54" ht="15">
       <c r="A369" s="1">
         <v>2022</v>
       </c>
@@ -13596,7 +13606,7 @@
         <v>90</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="G369" s="1"/>
       <c r="H369" s="1">
@@ -13614,17 +13624,17 @@
         <v>2</v>
       </c>
       <c r="N369" s="1"/>
-      <c r="O369" s="1"/>
+      <c r="O369" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
-      <c r="R369" s="1">
-        <v>10</v>
-      </c>
-      <c r="S369" s="1"/>
+      <c r="R369" s="1"/>
+      <c r="S369" s="1">
+        <v>10</v>
+      </c>
       <c r="T369" s="1"/>
-      <c r="U369" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U369" s="1"/>
       <c r="V369" s="1"/>
       <c r="W369" s="1"/>
       <c r="X369" s="1"/>
@@ -13670,11 +13680,11 @@
       <c r="AY369" s="1"/>
       <c r="AZ369" s="1"/>
       <c r="BA369" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB369" s="1"/>
     </row>
-    <row r="370" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:54" ht="15">
       <c r="A370" s="1">
         <v>2022</v>
       </c>
@@ -13691,7 +13701,7 @@
         <v>0</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G370" s="1">
         <v>75</v>
@@ -13703,17 +13713,17 @@
       <c r="L370" s="1"/>
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
-      <c r="O370" s="1"/>
-      <c r="P370" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q370" s="1"/>
+      <c r="O370" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P370" s="1"/>
+      <c r="Q370" s="1">
+        <v>2</v>
+      </c>
       <c r="R370" s="1"/>
       <c r="S370" s="1"/>
       <c r="T370" s="1"/>
-      <c r="U370" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U370" s="1"/>
       <c r="V370" s="1">
         <v>2</v>
       </c>
@@ -13752,11 +13762,11 @@
       <c r="AY370" s="1"/>
       <c r="AZ370" s="1"/>
       <c r="BA370" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB370" s="1"/>
     </row>
-    <row r="371" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:54" ht="15">
       <c r="A371" s="1">
         <v>2022</v>
       </c>
@@ -13773,7 +13783,7 @@
         <v>5</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G371" s="1">
         <v>1</v>
@@ -13787,15 +13797,15 @@
       <c r="L371" s="1"/>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
-      <c r="O371" s="1"/>
+      <c r="O371" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
       <c r="S371" s="1"/>
       <c r="T371" s="1"/>
-      <c r="U371" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U371" s="1"/>
       <c r="V371" s="1">
         <v>1</v>
       </c>
@@ -13832,11 +13842,11 @@
       <c r="AY371" s="1"/>
       <c r="AZ371" s="1"/>
       <c r="BA371" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB371" s="1"/>
     </row>
-    <row r="372" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:54" ht="15">
       <c r="A372" s="1">
         <v>2022</v>
       </c>
@@ -13853,7 +13863,7 @@
         <v>10</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G372" s="1">
         <v>1</v>
@@ -13865,15 +13875,15 @@
       <c r="L372" s="1"/>
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
-      <c r="O372" s="1"/>
+      <c r="O372" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P372" s="1"/>
       <c r="Q372" s="1"/>
       <c r="R372" s="1"/>
       <c r="S372" s="1"/>
       <c r="T372" s="1"/>
-      <c r="U372" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U372" s="1"/>
       <c r="V372" s="1">
         <v>40</v>
       </c>
@@ -13912,11 +13922,11 @@
       <c r="AY372" s="1"/>
       <c r="AZ372" s="1"/>
       <c r="BA372" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB372" s="1"/>
     </row>
-    <row r="373" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:54" ht="15">
       <c r="A373" s="1">
         <v>2022</v>
       </c>
@@ -13933,7 +13943,7 @@
         <v>15</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
@@ -13943,15 +13953,15 @@
       <c r="L373" s="1"/>
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
-      <c r="O373" s="1"/>
+      <c r="O373" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
       <c r="S373" s="1"/>
       <c r="T373" s="1"/>
-      <c r="U373" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U373" s="1"/>
       <c r="V373" s="1">
         <v>5</v>
       </c>
@@ -13990,11 +14000,11 @@
       <c r="AY373" s="1"/>
       <c r="AZ373" s="1"/>
       <c r="BA373" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB373" s="1"/>
     </row>
-    <row r="374" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:54" ht="15">
       <c r="A374" s="1">
         <v>2022</v>
       </c>
@@ -14011,7 +14021,7 @@
         <v>20</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
@@ -14021,15 +14031,15 @@
       <c r="L374" s="1"/>
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
-      <c r="O374" s="1"/>
+      <c r="O374" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
       <c r="S374" s="1"/>
       <c r="T374" s="1"/>
-      <c r="U374" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U374" s="1"/>
       <c r="V374" s="1">
         <v>25</v>
       </c>
@@ -14068,11 +14078,11 @@
       <c r="AY374" s="1"/>
       <c r="AZ374" s="1"/>
       <c r="BA374" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB374" s="1"/>
     </row>
-    <row r="375" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:54" ht="15">
       <c r="A375" s="1">
         <v>2022</v>
       </c>
@@ -14101,15 +14111,15 @@
       <c r="L375" s="1"/>
       <c r="M375" s="1"/>
       <c r="N375" s="1"/>
-      <c r="O375" s="1"/>
+      <c r="O375" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
       <c r="R375" s="1"/>
       <c r="S375" s="1"/>
       <c r="T375" s="1"/>
-      <c r="U375" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U375" s="1"/>
       <c r="V375" s="1">
         <v>5</v>
       </c>
@@ -14146,11 +14156,11 @@
       <c r="AY375" s="1"/>
       <c r="AZ375" s="1"/>
       <c r="BA375" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB375" s="1"/>
     </row>
-    <row r="376" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:54" ht="15">
       <c r="A376" s="1">
         <v>2022</v>
       </c>
@@ -14167,7 +14177,7 @@
         <v>30</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="G376" s="1">
         <v>1</v>
@@ -14181,15 +14191,15 @@
       <c r="L376" s="1"/>
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
-      <c r="O376" s="1"/>
+      <c r="O376" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P376" s="1"/>
       <c r="Q376" s="1"/>
       <c r="R376" s="1"/>
       <c r="S376" s="1"/>
       <c r="T376" s="1"/>
-      <c r="U376" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U376" s="1"/>
       <c r="V376" s="1">
         <v>1</v>
       </c>
@@ -14226,11 +14236,11 @@
       <c r="AY376" s="1"/>
       <c r="AZ376" s="1"/>
       <c r="BA376" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB376" s="1"/>
     </row>
-    <row r="377" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:54" ht="15">
       <c r="A377" s="1">
         <v>2022</v>
       </c>
@@ -14247,7 +14257,7 @@
         <v>35</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G377" s="1">
         <v>2</v>
@@ -14261,15 +14271,15 @@
       <c r="L377" s="1"/>
       <c r="M377" s="1"/>
       <c r="N377" s="1"/>
-      <c r="O377" s="1"/>
+      <c r="O377" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
       <c r="R377" s="1"/>
       <c r="S377" s="1"/>
       <c r="T377" s="1"/>
-      <c r="U377" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U377" s="1"/>
       <c r="V377" s="1">
         <v>20</v>
       </c>
@@ -14306,11 +14316,11 @@
       <c r="AY377" s="1"/>
       <c r="AZ377" s="1"/>
       <c r="BA377" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB377" s="1"/>
     </row>
-    <row r="378" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:54" ht="15">
       <c r="A378" s="1">
         <v>2022</v>
       </c>
@@ -14341,17 +14351,17 @@
         <v>2</v>
       </c>
       <c r="N378" s="1"/>
-      <c r="O378" s="1">
-        <v>1</v>
-      </c>
-      <c r="P378" s="1"/>
+      <c r="O378" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P378" s="1">
+        <v>1</v>
+      </c>
       <c r="Q378" s="1"/>
       <c r="R378" s="1"/>
       <c r="S378" s="1"/>
       <c r="T378" s="1"/>
-      <c r="U378" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U378" s="1"/>
       <c r="V378" s="1">
         <v>10</v>
       </c>
@@ -14392,11 +14402,11 @@
       <c r="AY378" s="1"/>
       <c r="AZ378" s="1"/>
       <c r="BA378" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB378" s="1"/>
     </row>
-    <row r="379" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:54" ht="15">
       <c r="A379" s="1">
         <v>2022</v>
       </c>
@@ -14413,7 +14423,7 @@
         <v>45</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G379" s="1"/>
       <c r="H379" s="1">
@@ -14425,15 +14435,15 @@
       <c r="L379" s="1"/>
       <c r="M379" s="1"/>
       <c r="N379" s="1"/>
-      <c r="O379" s="1"/>
+      <c r="O379" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
       <c r="R379" s="1"/>
       <c r="S379" s="1"/>
       <c r="T379" s="1"/>
-      <c r="U379" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U379" s="1"/>
       <c r="V379" s="1">
         <v>10</v>
       </c>
@@ -14474,11 +14484,11 @@
       <c r="AY379" s="1"/>
       <c r="AZ379" s="1"/>
       <c r="BA379" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB379" s="1"/>
     </row>
-    <row r="380" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:54" ht="15">
       <c r="A380" s="1">
         <v>2022</v>
       </c>
@@ -14495,7 +14505,7 @@
         <v>50</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G380" s="1"/>
       <c r="H380" s="1">
@@ -14513,15 +14523,15 @@
         <v>5</v>
       </c>
       <c r="N380" s="1"/>
-      <c r="O380" s="1"/>
+      <c r="O380" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P380" s="1"/>
       <c r="Q380" s="1"/>
       <c r="R380" s="1"/>
       <c r="S380" s="1"/>
       <c r="T380" s="1"/>
-      <c r="U380" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U380" s="1"/>
       <c r="V380" s="1">
         <v>3</v>
       </c>
@@ -14558,11 +14568,11 @@
       <c r="AY380" s="1"/>
       <c r="AZ380" s="1"/>
       <c r="BA380" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB380" s="1"/>
     </row>
-    <row r="381" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:54" ht="15">
       <c r="A381" s="1">
         <v>2022</v>
       </c>
@@ -14579,7 +14589,7 @@
         <v>55</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G381" s="1"/>
       <c r="H381" s="1">
@@ -14597,15 +14607,15 @@
         <v>3</v>
       </c>
       <c r="N381" s="1"/>
-      <c r="O381" s="1"/>
+      <c r="O381" s="1">
+        <v>10</v>
+      </c>
       <c r="P381" s="1"/>
       <c r="Q381" s="1"/>
       <c r="R381" s="1"/>
       <c r="S381" s="1"/>
       <c r="T381" s="1"/>
-      <c r="U381" s="1">
-        <v>10</v>
-      </c>
+      <c r="U381" s="1"/>
       <c r="V381" s="1">
         <v>5</v>
       </c>
@@ -14648,7 +14658,7 @@
       </c>
       <c r="BB381" s="1"/>
     </row>
-    <row r="382" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:54" ht="15">
       <c r="A382" s="1">
         <v>2022</v>
       </c>
@@ -14665,7 +14675,7 @@
         <v>60</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G382" s="1"/>
       <c r="H382" s="1">
@@ -14681,15 +14691,15 @@
         <v>5</v>
       </c>
       <c r="N382" s="1"/>
-      <c r="O382" s="1"/>
+      <c r="O382" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P382" s="1"/>
       <c r="Q382" s="1"/>
       <c r="R382" s="1"/>
       <c r="S382" s="1"/>
       <c r="T382" s="1"/>
-      <c r="U382" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U382" s="1"/>
       <c r="V382" s="1">
         <v>5</v>
       </c>
@@ -14724,11 +14734,11 @@
       <c r="AY382" s="1"/>
       <c r="AZ382" s="1"/>
       <c r="BA382" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB382" s="1"/>
     </row>
-    <row r="383" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:54" ht="15">
       <c r="A383" s="1">
         <v>2022</v>
       </c>
@@ -14745,7 +14755,7 @@
         <v>65</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G383" s="1"/>
       <c r="H383" s="1">
@@ -14763,17 +14773,17 @@
         <v>3</v>
       </c>
       <c r="N383" s="1"/>
-      <c r="O383" s="1"/>
+      <c r="O383" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P383" s="1"/>
       <c r="Q383" s="1"/>
-      <c r="R383" s="1">
-        <v>5</v>
-      </c>
-      <c r="S383" s="1"/>
+      <c r="R383" s="1"/>
+      <c r="S383" s="1">
+        <v>5</v>
+      </c>
       <c r="T383" s="1"/>
-      <c r="U383" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U383" s="1"/>
       <c r="V383" s="1">
         <v>3</v>
       </c>
@@ -14808,11 +14818,11 @@
       <c r="AY383" s="1"/>
       <c r="AZ383" s="1"/>
       <c r="BA383" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB383" s="1"/>
     </row>
-    <row r="384" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:54" ht="15">
       <c r="A384" s="1">
         <v>2022</v>
       </c>
@@ -14829,7 +14839,7 @@
         <v>70</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G384" s="1"/>
       <c r="H384" s="1">
@@ -14843,15 +14853,15 @@
         <v>3</v>
       </c>
       <c r="N384" s="1"/>
-      <c r="O384" s="1"/>
+      <c r="O384" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P384" s="1"/>
       <c r="Q384" s="1"/>
       <c r="R384" s="1"/>
       <c r="S384" s="1"/>
       <c r="T384" s="1"/>
-      <c r="U384" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U384" s="1"/>
       <c r="V384" s="1"/>
       <c r="W384" s="1"/>
       <c r="X384" s="1"/>
@@ -14886,11 +14896,11 @@
       <c r="AY384" s="1"/>
       <c r="AZ384" s="1"/>
       <c r="BA384" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB384" s="1"/>
     </row>
-    <row r="385" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:54" ht="15">
       <c r="A385" s="1">
         <v>2022</v>
       </c>
@@ -14923,17 +14933,17 @@
         <v>5</v>
       </c>
       <c r="N385" s="1"/>
-      <c r="O385" s="1"/>
+      <c r="O385" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P385" s="1"/>
       <c r="Q385" s="1"/>
-      <c r="R385" s="1">
-        <v>10</v>
-      </c>
-      <c r="S385" s="1"/>
+      <c r="R385" s="1"/>
+      <c r="S385" s="1">
+        <v>10</v>
+      </c>
       <c r="T385" s="1"/>
-      <c r="U385" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="U385" s="1"/>
       <c r="V385" s="1">
         <v>3</v>
       </c>
@@ -14972,7 +14982,7 @@
       </c>
       <c r="BB385" s="1"/>
     </row>
-    <row r="386" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:54" ht="15">
       <c r="A386" s="1">
         <v>2022</v>
       </c>
@@ -14989,7 +14999,7 @@
         <v>80</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G386" s="1"/>
       <c r="H386" s="1">
@@ -14999,129 +15009,129 @@
         <v>70</v>
       </c>
       <c r="J386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="K386" s="1">
         <v>50</v>
       </c>
       <c r="L386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="M386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="N386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="O386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="P386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="Q386" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R386" s="1">
-        <v>5</v>
-      </c>
-      <c r="S386" s="1"/>
-      <c r="T386" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="R386" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S386" s="1">
+        <v>5</v>
+      </c>
+      <c r="T386" s="1"/>
       <c r="U386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="V386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="W386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="X386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="Y386" s="1"/>
       <c r="Z386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AA386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AB386" s="1"/>
       <c r="AC386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AD386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AE386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AF386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AG386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AH386" s="1">
         <v>10</v>
       </c>
       <c r="AI386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AJ386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AK386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AL386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AM386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AN386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AO386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AP386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AQ386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AR386" s="1">
         <v>10</v>
       </c>
       <c r="AS386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AT386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AU386" s="2" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AW386" s="1"/>
       <c r="AX386" s="1"/>
       <c r="AY386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AZ386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BA386" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="BB386" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="387" spans="1:54" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="387" spans="1:54" ht="15">
       <c r="A387" s="1">
         <v>2022</v>
       </c>
@@ -15138,7 +15148,7 @@
         <v>0</v>
       </c>
       <c r="F387" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G387">
         <v>60</v>
@@ -15165,7 +15175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:54" ht="15">
       <c r="A388" s="1">
         <v>2022</v>
       </c>
@@ -15191,7 +15201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:54" ht="15">
       <c r="A389" s="1">
         <v>2022</v>
       </c>
@@ -15208,7 +15218,7 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G389">
         <v>20</v>
@@ -15223,7 +15233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:54" ht="15">
       <c r="A390" s="1">
         <v>2022</v>
       </c>
@@ -15240,7 +15250,7 @@
         <v>15</v>
       </c>
       <c r="F390" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="V390">
         <v>15</v>
@@ -15258,7 +15268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:54" ht="15">
       <c r="A391" s="1">
         <v>2022</v>
       </c>
@@ -15275,7 +15285,7 @@
         <v>20</v>
       </c>
       <c r="F391" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="V391">
         <v>60</v>
@@ -15296,7 +15306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:54" ht="15">
       <c r="A392" s="1">
         <v>2022</v>
       </c>
@@ -15313,7 +15323,7 @@
         <v>25</v>
       </c>
       <c r="F392" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G392">
         <v>3</v>
@@ -15334,7 +15344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:54" ht="15">
       <c r="A393" s="1">
         <v>2022</v>
       </c>
@@ -15351,7 +15361,7 @@
         <v>30</v>
       </c>
       <c r="F393" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="V393">
         <v>50</v>
@@ -15375,7 +15385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:54" ht="15">
       <c r="A394" s="1">
         <v>2022</v>
       </c>
@@ -15392,7 +15402,7 @@
         <v>35</v>
       </c>
       <c r="F394" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="V394">
         <v>30</v>
@@ -15416,7 +15426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:54" ht="15">
       <c r="A395" s="1">
         <v>2022</v>
       </c>
@@ -15433,7 +15443,7 @@
         <v>40</v>
       </c>
       <c r="F395" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H395">
         <v>100</v>
@@ -15466,7 +15476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:54" ht="15">
       <c r="A396" s="1">
         <v>2022</v>
       </c>
@@ -15483,7 +15493,7 @@
         <v>45</v>
       </c>
       <c r="F396" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="H396">
         <v>50</v>
@@ -15497,7 +15507,7 @@
       <c r="K396">
         <v>5</v>
       </c>
-      <c r="R396">
+      <c r="S396">
         <v>70</v>
       </c>
       <c r="V396">
@@ -15534,7 +15544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:54" ht="15">
       <c r="A397" s="1">
         <v>2022</v>
       </c>
@@ -15551,12 +15561,12 @@
         <v>0</v>
       </c>
       <c r="F397" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G397">
         <v>60</v>
       </c>
-      <c r="S397">
+      <c r="T397">
         <v>5</v>
       </c>
       <c r="X397">
@@ -15575,7 +15585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:54" ht="15">
       <c r="A398" s="1">
         <v>2022</v>
       </c>
@@ -15601,7 +15611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:54" ht="15">
       <c r="A399" s="1">
         <v>2022</v>
       </c>
@@ -15618,7 +15628,7 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="V399">
         <v>10</v>
@@ -15633,7 +15643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:54" ht="15">
       <c r="A400" s="1">
         <v>2022</v>
       </c>
@@ -15650,7 +15660,7 @@
         <v>15</v>
       </c>
       <c r="F400" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="V400">
         <v>40</v>
@@ -15665,7 +15675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:47" ht="15">
       <c r="A401" s="1">
         <v>2022</v>
       </c>
@@ -15682,7 +15692,7 @@
         <v>20</v>
       </c>
       <c r="F401" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="L401">
         <v>1</v>
@@ -15700,7 +15710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:47" ht="15">
       <c r="A402" s="1">
         <v>2022</v>
       </c>
@@ -15717,9 +15727,9 @@
         <v>25</v>
       </c>
       <c r="F402" t="s">
-        <v>7</v>
-      </c>
-      <c r="O402">
+        <v>57</v>
+      </c>
+      <c r="P402">
         <v>1</v>
       </c>
       <c r="V402">
@@ -15738,7 +15748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:47" ht="15">
       <c r="A403" s="1">
         <v>2022</v>
       </c>
@@ -15755,7 +15765,7 @@
         <v>30</v>
       </c>
       <c r="F403" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="V403">
         <v>15</v>
@@ -15773,7 +15783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:47" ht="15">
       <c r="A404" s="1">
         <v>2022</v>
       </c>
@@ -15790,7 +15800,7 @@
         <v>35</v>
       </c>
       <c r="F404" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="V404">
         <v>15</v>
@@ -15808,7 +15818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:47" ht="15">
       <c r="A405" s="1">
         <v>2022</v>
       </c>
@@ -15825,7 +15835,7 @@
         <v>40</v>
       </c>
       <c r="F405" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="L405">
         <v>1</v>
@@ -15849,7 +15859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:47" ht="15">
       <c r="A406" s="1">
         <v>2022</v>
       </c>
@@ -15866,7 +15876,7 @@
         <v>45</v>
       </c>
       <c r="F406" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H406">
         <v>10</v>
@@ -15896,7 +15906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:47" ht="15">
       <c r="A407" s="1">
         <v>2022</v>
       </c>
@@ -15913,7 +15923,7 @@
         <v>50</v>
       </c>
       <c r="F407" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="H407">
         <v>5</v>
@@ -15928,7 +15938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:47" ht="15">
       <c r="A408" s="1">
         <v>2022</v>
       </c>
@@ -15960,7 +15970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:47" ht="15">
       <c r="A409" s="1">
         <v>2022</v>
       </c>
@@ -15998,7 +16008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:47" ht="15">
       <c r="A410" s="1">
         <v>2022</v>
       </c>
@@ -16015,7 +16025,7 @@
         <v>65</v>
       </c>
       <c r="F410" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H410">
         <v>50</v>
@@ -16042,7 +16052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:47" ht="15">
       <c r="A411" s="1">
         <v>2022</v>
       </c>
@@ -16059,7 +16069,7 @@
         <v>70</v>
       </c>
       <c r="F411" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H411">
         <v>60</v>
@@ -16070,7 +16080,7 @@
       <c r="M411">
         <v>10</v>
       </c>
-      <c r="R411">
+      <c r="S411">
         <v>1</v>
       </c>
       <c r="V411">
@@ -16089,7 +16099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:47" ht="15">
       <c r="A412" s="1">
         <v>2022</v>
       </c>
@@ -16106,7 +16116,7 @@
         <v>75</v>
       </c>
       <c r="F412" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H412">
         <v>70</v>
@@ -16133,7 +16143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:47" ht="15">
       <c r="A413" s="1">
         <v>2022</v>
       </c>
@@ -16150,7 +16160,7 @@
         <v>80</v>
       </c>
       <c r="F413" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G413">
         <v>2</v>
@@ -16180,7 +16190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:47" ht="15">
       <c r="A414" s="1">
         <v>2022</v>
       </c>
@@ -16197,7 +16207,7 @@
         <v>85</v>
       </c>
       <c r="F414" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="H414">
         <v>30</v>
@@ -16208,7 +16218,7 @@
       <c r="J414">
         <v>20</v>
       </c>
-      <c r="R414">
+      <c r="S414">
         <v>5</v>
       </c>
       <c r="V414">
@@ -16242,7 +16252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:47" ht="15">
       <c r="A415" s="1">
         <v>2022</v>
       </c>
@@ -16259,7 +16269,7 @@
         <v>90</v>
       </c>
       <c r="F415" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="H415">
         <v>20</v>
@@ -16267,7 +16277,7 @@
       <c r="J415">
         <v>25</v>
       </c>
-      <c r="R415">
+      <c r="S415">
         <v>5</v>
       </c>
       <c r="V415">
@@ -16304,7 +16314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:47" ht="15">
       <c r="A416" s="1">
         <v>2022</v>
       </c>
@@ -16321,7 +16331,7 @@
         <v>0</v>
       </c>
       <c r="F416" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G416">
         <v>50</v>
@@ -16336,7 +16346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:49" ht="15">
       <c r="A417" s="1">
         <v>2022</v>
       </c>
@@ -16353,7 +16363,7 @@
         <v>5</v>
       </c>
       <c r="F417" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G417">
         <v>5</v>
@@ -16368,7 +16378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="418" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:49" ht="15">
       <c r="A418" s="1">
         <v>2022</v>
       </c>
@@ -16397,7 +16407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:49" ht="15">
       <c r="A419" s="1">
         <v>2022</v>
       </c>
@@ -16414,7 +16424,7 @@
         <v>15</v>
       </c>
       <c r="F419" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="V419">
         <v>10</v>
@@ -16426,7 +16436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:49" ht="15">
       <c r="A420" s="1">
         <v>2022</v>
       </c>
@@ -16443,7 +16453,7 @@
         <v>20</v>
       </c>
       <c r="F420" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="V420">
         <v>70</v>
@@ -16458,7 +16468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:49" ht="15">
       <c r="A421" s="1">
         <v>2022</v>
       </c>
@@ -16475,7 +16485,7 @@
         <v>25</v>
       </c>
       <c r="F421" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="V421">
         <v>60</v>
@@ -16493,7 +16503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:49" ht="15">
       <c r="A422" s="1">
         <v>2022</v>
       </c>
@@ -16510,7 +16520,7 @@
         <v>30</v>
       </c>
       <c r="F422" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G422">
         <v>2</v>
@@ -16531,7 +16541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:49" ht="15">
       <c r="A423" s="1">
         <v>2022</v>
       </c>
@@ -16548,7 +16558,7 @@
         <v>35</v>
       </c>
       <c r="F423" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="V423">
         <v>20</v>
@@ -16566,7 +16576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:49" ht="15">
       <c r="A424" s="1">
         <v>2022</v>
       </c>
@@ -16583,7 +16593,7 @@
         <v>40</v>
       </c>
       <c r="F424" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="V424">
         <v>40</v>
@@ -16598,7 +16608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:49" ht="15">
       <c r="A425" s="1">
         <v>2022</v>
       </c>
@@ -16615,7 +16625,7 @@
         <v>45</v>
       </c>
       <c r="F425" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="G425">
         <v>1</v>
@@ -16642,7 +16652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:49" ht="15">
       <c r="A426" s="1">
         <v>2022</v>
       </c>
@@ -16659,7 +16669,7 @@
         <v>50</v>
       </c>
       <c r="F426" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="H426">
         <v>10</v>
@@ -16680,7 +16690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:49" ht="15">
       <c r="A427" s="1">
         <v>2022</v>
       </c>
@@ -16697,7 +16707,7 @@
         <v>55</v>
       </c>
       <c r="F427" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H427">
         <v>80</v>
@@ -16718,7 +16728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:49" ht="15">
       <c r="A428" s="1">
         <v>2022</v>
       </c>
@@ -16735,7 +16745,7 @@
         <v>60</v>
       </c>
       <c r="F428" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H428">
         <v>65</v>
@@ -16765,7 +16775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:49" ht="15">
       <c r="A429" s="1">
         <v>2022</v>
       </c>
@@ -16782,7 +16792,7 @@
         <v>65</v>
       </c>
       <c r="F429" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H429">
         <v>90</v>
@@ -16793,7 +16803,7 @@
       <c r="M429">
         <v>2</v>
       </c>
-      <c r="R429">
+      <c r="S429">
         <v>5</v>
       </c>
       <c r="V429">
@@ -16806,7 +16816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:49" ht="15">
       <c r="A430" s="1">
         <v>2022</v>
       </c>
@@ -16823,12 +16833,12 @@
         <v>70</v>
       </c>
       <c r="F430" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H430">
         <v>100</v>
       </c>
-      <c r="R430">
+      <c r="S430">
         <v>5</v>
       </c>
       <c r="AE430">
@@ -16841,7 +16851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:49" ht="15">
       <c r="A431" s="1">
         <v>2022</v>
       </c>
@@ -16858,7 +16868,7 @@
         <v>75</v>
       </c>
       <c r="F431" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H431">
         <v>80</v>
@@ -16885,7 +16895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:49" ht="15">
       <c r="A432" s="1">
         <v>2022</v>
       </c>
@@ -16902,7 +16912,7 @@
         <v>80</v>
       </c>
       <c r="F432" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I432">
         <v>95</v>
@@ -16913,7 +16923,7 @@
       <c r="M432">
         <v>5</v>
       </c>
-      <c r="R432">
+      <c r="S432">
         <v>10</v>
       </c>
       <c r="AE432">
@@ -16923,7 +16933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:50" ht="15">
       <c r="A433" s="1">
         <v>2022</v>
       </c>
@@ -16940,7 +16950,7 @@
         <v>85</v>
       </c>
       <c r="F433" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I433">
         <v>50</v>
@@ -16954,7 +16964,7 @@
       <c r="M433">
         <v>5</v>
       </c>
-      <c r="R433">
+      <c r="S433">
         <v>40</v>
       </c>
       <c r="AH433">
@@ -16973,10 +16983,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:50" ht="15">
       <c r="A434" s="1"/>
     </row>
-    <row r="435" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:50" ht="15">
       <c r="A435" s="1"/>
     </row>
   </sheetData>

--- a/GW_seaweed_seasonality_transect_data11.xlsx
+++ b/GW_seaweed_seasonality_transect_data11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25506"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25518"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="668" documentId="8_{BF71311B-6A6D-4ED2-9B6E-E3E672618DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B3480CC-A344-439E-AE98-24AD564C7838}"/>
+  <xr:revisionPtr revIDLastSave="692" documentId="8_{BF71311B-6A6D-4ED2-9B6E-E3E672618DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12936EE6-8C0D-450E-800D-08135894613A}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1134,11 +1134,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB435"/>
+  <dimension ref="A1:BB478"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ353" sqref="AZ353"/>
+      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A433" sqref="A433:A478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="14.45"/>
@@ -16984,10 +16984,769 @@
       </c>
     </row>
     <row r="434" spans="1:50" ht="15">
-      <c r="A434" s="1"/>
+      <c r="A434" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B434">
+        <v>7</v>
+      </c>
+      <c r="C434">
+        <v>14</v>
+      </c>
+      <c r="D434">
+        <v>2</v>
+      </c>
+      <c r="E434" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="435" spans="1:50" ht="15">
-      <c r="A435" s="1"/>
+      <c r="A435" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B435">
+        <v>7</v>
+      </c>
+      <c r="C435">
+        <v>14</v>
+      </c>
+      <c r="D435">
+        <v>2</v>
+      </c>
+      <c r="E435" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:50" ht="15">
+      <c r="A436" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B436">
+        <v>7</v>
+      </c>
+      <c r="C436">
+        <v>14</v>
+      </c>
+      <c r="D436">
+        <v>2</v>
+      </c>
+      <c r="E436" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="437" spans="1:50" ht="15">
+      <c r="A437" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B437">
+        <v>7</v>
+      </c>
+      <c r="C437">
+        <v>14</v>
+      </c>
+      <c r="D437">
+        <v>2</v>
+      </c>
+      <c r="E437" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="438" spans="1:50" ht="15">
+      <c r="A438" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B438">
+        <v>7</v>
+      </c>
+      <c r="C438">
+        <v>14</v>
+      </c>
+      <c r="D438">
+        <v>2</v>
+      </c>
+      <c r="E438" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="439" spans="1:50" ht="15">
+      <c r="A439" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B439">
+        <v>7</v>
+      </c>
+      <c r="C439">
+        <v>14</v>
+      </c>
+      <c r="D439">
+        <v>2</v>
+      </c>
+      <c r="E439" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="440" spans="1:50" ht="15">
+      <c r="A440" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B440">
+        <v>7</v>
+      </c>
+      <c r="C440">
+        <v>14</v>
+      </c>
+      <c r="D440">
+        <v>2</v>
+      </c>
+      <c r="E440" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="441" spans="1:50" ht="15">
+      <c r="A441" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B441">
+        <v>7</v>
+      </c>
+      <c r="C441">
+        <v>14</v>
+      </c>
+      <c r="D441">
+        <v>2</v>
+      </c>
+      <c r="E441" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="442" spans="1:50" ht="15">
+      <c r="A442" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B442">
+        <v>7</v>
+      </c>
+      <c r="C442">
+        <v>14</v>
+      </c>
+      <c r="D442">
+        <v>2</v>
+      </c>
+      <c r="E442" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="443" spans="1:50" ht="15">
+      <c r="A443" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B443">
+        <v>7</v>
+      </c>
+      <c r="C443">
+        <v>14</v>
+      </c>
+      <c r="D443">
+        <v>3</v>
+      </c>
+      <c r="E443" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:50" ht="15">
+      <c r="A444" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B444">
+        <v>7</v>
+      </c>
+      <c r="C444">
+        <v>14</v>
+      </c>
+      <c r="D444">
+        <v>3</v>
+      </c>
+      <c r="E444" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:50" ht="15">
+      <c r="A445" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B445">
+        <v>7</v>
+      </c>
+      <c r="C445">
+        <v>14</v>
+      </c>
+      <c r="D445">
+        <v>3</v>
+      </c>
+      <c r="E445" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="446" spans="1:50" ht="15">
+      <c r="A446" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B446">
+        <v>7</v>
+      </c>
+      <c r="C446">
+        <v>14</v>
+      </c>
+      <c r="D446">
+        <v>3</v>
+      </c>
+      <c r="E446" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="447" spans="1:50" ht="15">
+      <c r="A447" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B447">
+        <v>7</v>
+      </c>
+      <c r="C447">
+        <v>14</v>
+      </c>
+      <c r="D447">
+        <v>3</v>
+      </c>
+      <c r="E447" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="448" spans="1:50" ht="15">
+      <c r="A448" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B448">
+        <v>7</v>
+      </c>
+      <c r="C448">
+        <v>14</v>
+      </c>
+      <c r="D448">
+        <v>3</v>
+      </c>
+      <c r="E448" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" ht="15">
+      <c r="A449" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B449">
+        <v>7</v>
+      </c>
+      <c r="C449">
+        <v>14</v>
+      </c>
+      <c r="D449">
+        <v>3</v>
+      </c>
+      <c r="E449" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" ht="15">
+      <c r="A450" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B450">
+        <v>7</v>
+      </c>
+      <c r="C450">
+        <v>14</v>
+      </c>
+      <c r="D450">
+        <v>3</v>
+      </c>
+      <c r="E450" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" ht="15">
+      <c r="A451" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B451">
+        <v>7</v>
+      </c>
+      <c r="C451">
+        <v>14</v>
+      </c>
+      <c r="D451">
+        <v>3</v>
+      </c>
+      <c r="E451" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" ht="15">
+      <c r="A452" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B452">
+        <v>7</v>
+      </c>
+      <c r="C452">
+        <v>14</v>
+      </c>
+      <c r="D452">
+        <v>3</v>
+      </c>
+      <c r="E452" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" ht="15">
+      <c r="A453" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B453">
+        <v>7</v>
+      </c>
+      <c r="C453">
+        <v>14</v>
+      </c>
+      <c r="D453">
+        <v>3</v>
+      </c>
+      <c r="E453" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" ht="15">
+      <c r="A454" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B454">
+        <v>7</v>
+      </c>
+      <c r="C454">
+        <v>14</v>
+      </c>
+      <c r="D454">
+        <v>3</v>
+      </c>
+      <c r="E454" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" ht="15">
+      <c r="A455" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B455">
+        <v>7</v>
+      </c>
+      <c r="C455">
+        <v>14</v>
+      </c>
+      <c r="D455">
+        <v>3</v>
+      </c>
+      <c r="E455" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="15">
+      <c r="A456" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B456">
+        <v>7</v>
+      </c>
+      <c r="C456">
+        <v>14</v>
+      </c>
+      <c r="D456">
+        <v>3</v>
+      </c>
+      <c r="E456" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" ht="15">
+      <c r="A457" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B457">
+        <v>7</v>
+      </c>
+      <c r="C457">
+        <v>14</v>
+      </c>
+      <c r="D457">
+        <v>3</v>
+      </c>
+      <c r="E457" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" ht="15">
+      <c r="A458" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B458">
+        <v>7</v>
+      </c>
+      <c r="C458">
+        <v>14</v>
+      </c>
+      <c r="D458">
+        <v>3</v>
+      </c>
+      <c r="E458" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" ht="15">
+      <c r="A459" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B459">
+        <v>7</v>
+      </c>
+      <c r="C459">
+        <v>14</v>
+      </c>
+      <c r="D459">
+        <v>3</v>
+      </c>
+      <c r="E459" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" ht="15">
+      <c r="A460" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B460">
+        <v>7</v>
+      </c>
+      <c r="C460">
+        <v>14</v>
+      </c>
+      <c r="D460">
+        <v>3</v>
+      </c>
+      <c r="E460">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" ht="15">
+      <c r="A461" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B461">
+        <v>7</v>
+      </c>
+      <c r="C461">
+        <v>14</v>
+      </c>
+      <c r="D461">
+        <v>3</v>
+      </c>
+      <c r="E461">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" ht="15">
+      <c r="A462" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B462">
+        <v>7</v>
+      </c>
+      <c r="C462">
+        <v>14</v>
+      </c>
+      <c r="D462">
+        <v>4</v>
+      </c>
+      <c r="E462" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" ht="15">
+      <c r="A463" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B463">
+        <v>7</v>
+      </c>
+      <c r="C463">
+        <v>14</v>
+      </c>
+      <c r="D463">
+        <v>4</v>
+      </c>
+      <c r="E463" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" ht="15">
+      <c r="A464" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B464">
+        <v>7</v>
+      </c>
+      <c r="C464">
+        <v>14</v>
+      </c>
+      <c r="D464">
+        <v>4</v>
+      </c>
+      <c r="E464" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" ht="15">
+      <c r="A465" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B465">
+        <v>7</v>
+      </c>
+      <c r="C465">
+        <v>14</v>
+      </c>
+      <c r="D465">
+        <v>4</v>
+      </c>
+      <c r="E465" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" ht="15">
+      <c r="A466" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B466">
+        <v>7</v>
+      </c>
+      <c r="C466">
+        <v>14</v>
+      </c>
+      <c r="D466">
+        <v>4</v>
+      </c>
+      <c r="E466" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" ht="15">
+      <c r="A467" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B467">
+        <v>7</v>
+      </c>
+      <c r="C467">
+        <v>14</v>
+      </c>
+      <c r="D467">
+        <v>4</v>
+      </c>
+      <c r="E467" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" ht="15">
+      <c r="A468" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B468">
+        <v>7</v>
+      </c>
+      <c r="C468">
+        <v>14</v>
+      </c>
+      <c r="D468">
+        <v>4</v>
+      </c>
+      <c r="E468" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" ht="15">
+      <c r="A469" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B469">
+        <v>7</v>
+      </c>
+      <c r="C469">
+        <v>14</v>
+      </c>
+      <c r="D469">
+        <v>4</v>
+      </c>
+      <c r="E469" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" ht="15">
+      <c r="A470" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B470">
+        <v>7</v>
+      </c>
+      <c r="C470">
+        <v>14</v>
+      </c>
+      <c r="D470">
+        <v>4</v>
+      </c>
+      <c r="E470" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" ht="15">
+      <c r="A471" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B471">
+        <v>7</v>
+      </c>
+      <c r="C471">
+        <v>14</v>
+      </c>
+      <c r="D471">
+        <v>4</v>
+      </c>
+      <c r="E471" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" ht="15">
+      <c r="A472" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B472">
+        <v>7</v>
+      </c>
+      <c r="C472">
+        <v>14</v>
+      </c>
+      <c r="D472">
+        <v>4</v>
+      </c>
+      <c r="E472" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" ht="15">
+      <c r="A473" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B473">
+        <v>7</v>
+      </c>
+      <c r="C473">
+        <v>14</v>
+      </c>
+      <c r="D473">
+        <v>4</v>
+      </c>
+      <c r="E473" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" ht="15">
+      <c r="A474" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B474">
+        <v>7</v>
+      </c>
+      <c r="C474">
+        <v>14</v>
+      </c>
+      <c r="D474">
+        <v>4</v>
+      </c>
+      <c r="E474" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" ht="15">
+      <c r="A475" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B475">
+        <v>7</v>
+      </c>
+      <c r="C475">
+        <v>14</v>
+      </c>
+      <c r="D475">
+        <v>4</v>
+      </c>
+      <c r="E475" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" ht="15">
+      <c r="A476" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B476">
+        <v>7</v>
+      </c>
+      <c r="C476">
+        <v>14</v>
+      </c>
+      <c r="D476">
+        <v>4</v>
+      </c>
+      <c r="E476" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" ht="15">
+      <c r="A477" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B477">
+        <v>7</v>
+      </c>
+      <c r="C477">
+        <v>14</v>
+      </c>
+      <c r="D477">
+        <v>4</v>
+      </c>
+      <c r="E477" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" ht="15">
+      <c r="A478" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B478">
+        <v>7</v>
+      </c>
+      <c r="C478">
+        <v>14</v>
+      </c>
+      <c r="D478">
+        <v>4</v>
+      </c>
+      <c r="E478" s="1">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GW_seaweed_seasonality_transect_data11.xlsx
+++ b/GW_seaweed_seasonality_transect_data11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="692" documentId="8_{BF71311B-6A6D-4ED2-9B6E-E3E672618DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12936EE6-8C0D-450E-800D-08135894613A}"/>
+  <xr:revisionPtr revIDLastSave="1076" documentId="8_{BF71311B-6A6D-4ED2-9B6E-E3E672618DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD1EF1D2-B2AA-4A1A-8E95-59D872E9A4E3}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="89">
   <si>
     <t>year</t>
   </si>
@@ -279,12 +279,33 @@
   <si>
     <t>alaria_marginata</t>
   </si>
+  <si>
+    <t>No % cover given</t>
+  </si>
+  <si>
+    <t>orange_crust__sponge</t>
+  </si>
+  <si>
+    <t>pterothamnion_sp__red</t>
+  </si>
+  <si>
+    <t>lithothamnion_sp__red</t>
+  </si>
+  <si>
+    <t>schizymenia_pacifica__red</t>
+  </si>
+  <si>
+    <t>crusticorallina_sp__red</t>
+  </si>
+  <si>
+    <t>neodilsea_borealis__red</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,7 +454,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +634,30 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF806000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -774,11 +819,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1134,19 +1183,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB478"/>
+  <dimension ref="A1:BH479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A433" sqref="A433:A478"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BE1" sqref="BE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="47" max="48" width="12.5703125" style="2"/>
+    <col min="47" max="48" width="12.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="15">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1214,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1210,7 +1259,7 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
@@ -1237,7 +1286,7 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AF1" t="s">
@@ -1297,20 +1346,38 @@
       <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BE1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BG1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:54" ht="15">
+      <c r="BH1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -1339,7 +1406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:54" ht="15">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1362,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:54" ht="15">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -1385,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:54" ht="15">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -1411,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:54" ht="15">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -1434,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:54" ht="15">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -1457,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:54" ht="15">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -1489,7 +1556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:54" ht="15">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -1518,7 +1585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:54" ht="15">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -1544,7 +1611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:54" ht="15">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -1570,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:54" ht="15">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2021</v>
       </c>
@@ -1599,7 +1666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:54" ht="15">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -1628,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:54" ht="15">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2021</v>
       </c>
@@ -1657,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:54" ht="15">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -1686,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:54" ht="15">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -1715,7 +1782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="15">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -1741,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -1770,7 +1837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="15">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2021</v>
       </c>
@@ -1796,7 +1863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="15">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -1825,7 +1892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="15">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2021</v>
       </c>
@@ -1851,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="15">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2021</v>
       </c>
@@ -1877,7 +1944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="15">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -1900,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="15">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2021</v>
       </c>
@@ -1926,7 +1993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="15">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2021</v>
       </c>
@@ -1952,7 +2019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="15">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -1978,7 +2045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="15">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2021</v>
       </c>
@@ -2004,7 +2071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="15">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -2030,7 +2097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="15">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2021</v>
       </c>
@@ -2059,7 +2126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="15">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2021</v>
       </c>
@@ -2085,7 +2152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="15">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2021</v>
       </c>
@@ -2108,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="15">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2021</v>
       </c>
@@ -2137,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="15">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2021</v>
       </c>
@@ -2166,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="15">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2021</v>
       </c>
@@ -2195,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="15">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -2224,7 +2291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="15">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2021</v>
       </c>
@@ -2253,7 +2320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="15">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2021</v>
       </c>
@@ -2282,7 +2349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="15">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2021</v>
       </c>
@@ -2311,7 +2378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="15">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2021</v>
       </c>
@@ -2340,7 +2407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="15">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2021</v>
       </c>
@@ -2369,7 +2436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="15">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2021</v>
       </c>
@@ -2395,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="15">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2021</v>
       </c>
@@ -2421,7 +2488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="15">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2021</v>
       </c>
@@ -2450,7 +2517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="15">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2021</v>
       </c>
@@ -2479,7 +2546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="15">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2021</v>
       </c>
@@ -2502,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="15">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -2531,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="15">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2021</v>
       </c>
@@ -2557,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="15">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2021</v>
       </c>
@@ -2580,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="15">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2021</v>
       </c>
@@ -2609,7 +2676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="15">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2021</v>
       </c>
@@ -2635,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="15">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -2664,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="15">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2021</v>
       </c>
@@ -2693,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="15">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2021</v>
       </c>
@@ -2719,7 +2786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="15">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2021</v>
       </c>
@@ -2748,7 +2815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="15">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2021</v>
       </c>
@@ -2777,7 +2844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="15">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2021</v>
       </c>
@@ -2800,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="15">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2021</v>
       </c>
@@ -2829,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="15">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2021</v>
       </c>
@@ -2858,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="15">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2021</v>
       </c>
@@ -2887,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="15">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2021</v>
       </c>
@@ -2916,7 +2983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="15">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2021</v>
       </c>
@@ -2945,7 +3012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="15">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2021</v>
       </c>
@@ -2971,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="15">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2021</v>
       </c>
@@ -2994,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="15">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2021</v>
       </c>
@@ -3026,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:52" ht="15">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2021</v>
       </c>
@@ -3054,11 +3121,11 @@
       <c r="AE65">
         <v>5</v>
       </c>
-      <c r="AZ65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:52" ht="15">
+      <c r="BE65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2021</v>
       </c>
@@ -3087,7 +3154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:52" ht="15">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2021</v>
       </c>
@@ -3116,7 +3183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:52" ht="15">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2021</v>
       </c>
@@ -3145,7 +3212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:52" ht="15">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2021</v>
       </c>
@@ -3171,7 +3238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:52" ht="15">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2021</v>
       </c>
@@ -3200,7 +3267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:52" ht="15">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2021</v>
       </c>
@@ -3223,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:52" ht="15">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2021</v>
       </c>
@@ -3249,7 +3316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:52" ht="15">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2021</v>
       </c>
@@ -3278,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:52" ht="15">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2021</v>
       </c>
@@ -3301,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:52" ht="15">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2021</v>
       </c>
@@ -3330,7 +3397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:52" ht="15">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2021</v>
       </c>
@@ -3353,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:52" ht="15">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2021</v>
       </c>
@@ -3385,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:52" ht="15">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2021</v>
       </c>
@@ -3414,7 +3481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:52" ht="15">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2021</v>
       </c>
@@ -3440,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:52" ht="15">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2021</v>
       </c>
@@ -3469,7 +3536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:52" ht="15">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2021</v>
       </c>
@@ -3492,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:52" ht="15">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2021</v>
       </c>
@@ -3518,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:52" ht="15">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2021</v>
       </c>
@@ -3550,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:52" ht="15">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2021</v>
       </c>
@@ -3572,11 +3639,11 @@
       <c r="AE84">
         <v>1</v>
       </c>
-      <c r="AZ84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:52" ht="15">
+      <c r="BE84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2021</v>
       </c>
@@ -3611,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:52" ht="15">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2021</v>
       </c>
@@ -3640,7 +3707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:52" ht="15">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2021</v>
       </c>
@@ -3663,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:52" ht="15">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2021</v>
       </c>
@@ -3686,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:52" ht="15">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2021</v>
       </c>
@@ -3715,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:52" ht="15">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2021</v>
       </c>
@@ -3738,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:52" ht="15">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2021</v>
       </c>
@@ -3761,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:52" ht="15">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2021</v>
       </c>
@@ -3783,11 +3850,11 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="AZ92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:52" ht="15">
+      <c r="BE92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2021</v>
       </c>
@@ -3813,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:52" ht="15">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2021</v>
       </c>
@@ -3839,7 +3906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:52" ht="15">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2021</v>
       </c>
@@ -3865,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:52" ht="15">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2021</v>
       </c>
@@ -3894,7 +3961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:52" ht="15">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2021</v>
       </c>
@@ -3923,7 +3990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:52" ht="15">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2021</v>
       </c>
@@ -3952,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:52" ht="15">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2021</v>
       </c>
@@ -3981,7 +4048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:52" ht="15">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2021</v>
       </c>
@@ -4004,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:52" ht="15">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2021</v>
       </c>
@@ -4027,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:52" ht="15">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2021</v>
       </c>
@@ -4056,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:52" ht="15">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2021</v>
       </c>
@@ -4087,11 +4154,11 @@
       <c r="AE103">
         <v>1</v>
       </c>
-      <c r="AZ103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:52" ht="15">
+      <c r="BE103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2021</v>
       </c>
@@ -4120,7 +4187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:52" ht="15">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2021</v>
       </c>
@@ -4151,11 +4218,11 @@
       <c r="AI105">
         <v>1</v>
       </c>
-      <c r="AZ105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:52" ht="15">
+      <c r="BE105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2021</v>
       </c>
@@ -4184,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:52" ht="15">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2021</v>
       </c>
@@ -4224,11 +4291,11 @@
       <c r="AK107">
         <v>1</v>
       </c>
-      <c r="AZ107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:52" ht="15">
+      <c r="BE107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2021</v>
       </c>
@@ -4257,7 +4324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:52" ht="15">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2021</v>
       </c>
@@ -4285,11 +4352,11 @@
       <c r="AE109">
         <v>5</v>
       </c>
-      <c r="AZ109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:52" ht="15">
+      <c r="BE109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2021</v>
       </c>
@@ -4318,7 +4385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:52" ht="15">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2021</v>
       </c>
@@ -4347,7 +4414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:52" ht="15">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2021</v>
       </c>
@@ -4376,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:54" ht="15">
+    <row r="113" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2021</v>
       </c>
@@ -4402,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:54" ht="15">
+    <row r="114" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2021</v>
       </c>
@@ -4427,11 +4494,11 @@
       <c r="V114">
         <v>1</v>
       </c>
-      <c r="AZ114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:54" ht="15">
+      <c r="BE114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2021</v>
       </c>
@@ -4457,7 +4524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:54" ht="15">
+    <row r="116" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2021</v>
       </c>
@@ -4491,11 +4558,11 @@
       <c r="AM116">
         <v>2</v>
       </c>
-      <c r="AZ116">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:54" ht="15">
+      <c r="BE116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2021</v>
       </c>
@@ -4529,11 +4596,11 @@
       <c r="AM117">
         <v>5</v>
       </c>
-      <c r="AZ117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:54" ht="15">
+      <c r="BE117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2021</v>
       </c>
@@ -4562,7 +4629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:54" ht="15">
+    <row r="119" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2021</v>
       </c>
@@ -4588,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:54" ht="15">
+    <row r="120" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2021</v>
       </c>
@@ -4611,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:54" ht="15">
+    <row r="121" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2021</v>
       </c>
@@ -4640,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:54" ht="15">
+    <row r="122" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2021</v>
       </c>
@@ -4669,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:54" ht="15">
+    <row r="123" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2021</v>
       </c>
@@ -4692,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:54" ht="15">
+    <row r="124" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2021</v>
       </c>
@@ -4721,7 +4788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:54" ht="15">
+    <row r="125" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2021</v>
       </c>
@@ -4753,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:54" ht="15">
+    <row r="126" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2021</v>
       </c>
@@ -4785,7 +4852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:54" ht="15">
+    <row r="127" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2021</v>
       </c>
@@ -4816,14 +4883,14 @@
       <c r="AH127">
         <v>5</v>
       </c>
-      <c r="AY127">
-        <v>1</v>
-      </c>
-      <c r="BB127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:54" ht="15">
+      <c r="BD127">
+        <v>1</v>
+      </c>
+      <c r="BG127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2021</v>
       </c>
@@ -4852,7 +4919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:52" ht="15">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2021</v>
       </c>
@@ -4875,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:52" ht="15">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2021</v>
       </c>
@@ -4901,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:52" ht="15">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2021</v>
       </c>
@@ -4927,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:52" ht="15">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2021</v>
       </c>
@@ -4950,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:52" ht="15">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2021</v>
       </c>
@@ -4976,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:52" ht="15">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2021</v>
       </c>
@@ -4999,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:52" ht="15">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2021</v>
       </c>
@@ -5025,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:52" ht="15">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2021</v>
       </c>
@@ -5053,11 +5120,11 @@
       <c r="AH136">
         <v>2</v>
       </c>
-      <c r="AZ136">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:52" ht="15">
+      <c r="BE136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2021</v>
       </c>
@@ -5095,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:52" ht="15">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2021</v>
       </c>
@@ -5124,7 +5191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:52" ht="15">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2021</v>
       </c>
@@ -5147,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:52" ht="15">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2021</v>
       </c>
@@ -5173,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:52" ht="15">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2021</v>
       </c>
@@ -5196,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:52" ht="15">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2021</v>
       </c>
@@ -5222,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:52" ht="15">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2021</v>
       </c>
@@ -5245,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:52" ht="15">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2021</v>
       </c>
@@ -5268,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:54" ht="15">
+    <row r="145" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2021</v>
       </c>
@@ -5291,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:54" ht="15">
+    <row r="146" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2021</v>
       </c>
@@ -5314,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:54" ht="15">
+    <row r="147" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2021</v>
       </c>
@@ -5337,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:54" ht="15">
+    <row r="148" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2021</v>
       </c>
@@ -5363,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:54" ht="15">
+    <row r="149" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2021</v>
       </c>
@@ -5389,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:54" ht="15">
+    <row r="150" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2021</v>
       </c>
@@ -5415,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:54" ht="15">
+    <row r="151" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2021</v>
       </c>
@@ -5441,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:54" ht="15">
+    <row r="152" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2021</v>
       </c>
@@ -5473,7 +5540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:54" ht="15">
+    <row r="153" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2021</v>
       </c>
@@ -5507,11 +5574,11 @@
       <c r="AN153">
         <v>10</v>
       </c>
-      <c r="BB153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:54" ht="15">
+      <c r="BG153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2021</v>
       </c>
@@ -5540,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:54" ht="15">
+    <row r="155" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2021</v>
       </c>
@@ -5566,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:54" ht="15">
+    <row r="156" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2021</v>
       </c>
@@ -5592,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:54" ht="15">
+    <row r="157" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2021</v>
       </c>
@@ -5618,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:54" ht="15">
+    <row r="158" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2021</v>
       </c>
@@ -5644,7 +5711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:54" ht="15">
+    <row r="159" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2021</v>
       </c>
@@ -5670,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:54" ht="15">
+    <row r="160" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2021</v>
       </c>
@@ -5693,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:52" ht="15">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2021</v>
       </c>
@@ -5719,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:52" ht="15">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2021</v>
       </c>
@@ -5745,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:52" ht="15">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2021</v>
       </c>
@@ -5786,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:52" ht="15">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2021</v>
       </c>
@@ -5815,7 +5882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:52" ht="15">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2021</v>
       </c>
@@ -5843,11 +5910,11 @@
       <c r="AE165">
         <v>5</v>
       </c>
-      <c r="AZ165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:52" ht="15">
+      <c r="BE165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2021</v>
       </c>
@@ -5876,7 +5943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:52" ht="15">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2021</v>
       </c>
@@ -5905,7 +5972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:52" ht="15">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2021</v>
       </c>
@@ -5934,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:52" ht="15">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2021</v>
       </c>
@@ -5960,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:52" ht="15">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2021</v>
       </c>
@@ -5985,11 +6052,11 @@
       <c r="V170">
         <v>1</v>
       </c>
-      <c r="AZ170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:52" ht="15">
+      <c r="BE170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2021</v>
       </c>
@@ -6015,7 +6082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:52" ht="15">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2021</v>
       </c>
@@ -6049,11 +6116,11 @@
       <c r="AM172">
         <v>2</v>
       </c>
-      <c r="AZ172">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:52" ht="15">
+      <c r="BE172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2021</v>
       </c>
@@ -6087,11 +6154,11 @@
       <c r="AM173">
         <v>5</v>
       </c>
-      <c r="AZ173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:52" ht="15">
+      <c r="BE173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2022</v>
       </c>
@@ -6120,7 +6187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:52" ht="15">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2022</v>
       </c>
@@ -6146,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:52" ht="15">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2022</v>
       </c>
@@ -6169,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:52" ht="15">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2022</v>
       </c>
@@ -6195,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:52" ht="15">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2022</v>
       </c>
@@ -6221,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:52" ht="15">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2022</v>
       </c>
@@ -6247,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:52" ht="15">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2022</v>
       </c>
@@ -6278,11 +6345,11 @@
       <c r="AE180">
         <v>3</v>
       </c>
-      <c r="AZ180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:52" ht="15">
+      <c r="BE180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2022</v>
       </c>
@@ -6313,11 +6380,11 @@
       <c r="AM181">
         <v>1</v>
       </c>
-      <c r="AZ181">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="182" spans="1:52" ht="15">
+      <c r="BE181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2022</v>
       </c>
@@ -6346,7 +6413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:52" ht="15">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2022</v>
       </c>
@@ -6369,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:52" ht="15">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2022</v>
       </c>
@@ -6395,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:52" ht="15">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2022</v>
       </c>
@@ -6418,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:52" ht="15">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2022</v>
       </c>
@@ -6444,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:52" ht="15">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2022</v>
       </c>
@@ -6475,11 +6542,11 @@
       <c r="AE187">
         <v>10</v>
       </c>
-      <c r="AZ187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:52" ht="15">
+      <c r="BE187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2022</v>
       </c>
@@ -6501,11 +6568,11 @@
       <c r="H188">
         <v>0</v>
       </c>
-      <c r="AZ188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:52" ht="15">
+      <c r="BE188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2022</v>
       </c>
@@ -6536,11 +6603,11 @@
       <c r="AJ189">
         <v>1</v>
       </c>
-      <c r="AZ189">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:52" ht="15">
+      <c r="BE189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2022</v>
       </c>
@@ -6569,7 +6636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:52" ht="15">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2022</v>
       </c>
@@ -6595,7 +6662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:52" ht="15">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2022</v>
       </c>
@@ -6621,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:52" ht="15">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2022</v>
       </c>
@@ -6644,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:52" ht="15">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2022</v>
       </c>
@@ -6667,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:52" ht="15">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2022</v>
       </c>
@@ -6690,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:52" ht="15">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2022</v>
       </c>
@@ -6712,11 +6779,11 @@
       <c r="H196">
         <v>0</v>
       </c>
-      <c r="AZ196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:52" ht="15">
+      <c r="BE196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2022</v>
       </c>
@@ -6739,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:52" ht="15">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2022</v>
       </c>
@@ -6761,11 +6828,11 @@
       <c r="H198">
         <v>0</v>
       </c>
-      <c r="AZ198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:52" ht="15">
+      <c r="BE198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2022</v>
       </c>
@@ -6794,7 +6861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:52" ht="15">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2022</v>
       </c>
@@ -6820,7 +6887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:52" ht="15">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2022</v>
       </c>
@@ -6846,7 +6913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:52" ht="15">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2022</v>
       </c>
@@ -6872,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:52" ht="15">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2022</v>
       </c>
@@ -6898,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:52" ht="15">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2022</v>
       </c>
@@ -6924,7 +6991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:52" ht="15">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2022</v>
       </c>
@@ -6950,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:52" ht="15">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2022</v>
       </c>
@@ -6979,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:52" ht="15">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2022</v>
       </c>
@@ -7001,11 +7068,11 @@
       <c r="H207">
         <v>0</v>
       </c>
-      <c r="AZ207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:52" ht="15">
+      <c r="BE207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2022</v>
       </c>
@@ -7027,11 +7094,11 @@
       <c r="V208">
         <v>1</v>
       </c>
-      <c r="AZ208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:52" ht="15">
+      <c r="BE208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2022</v>
       </c>
@@ -7066,7 +7133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:52" ht="15">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2022</v>
       </c>
@@ -7094,11 +7161,11 @@
       <c r="AE210">
         <v>5</v>
       </c>
-      <c r="AZ210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:52" ht="15">
+      <c r="BE210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2022</v>
       </c>
@@ -7127,7 +7194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:52" ht="15">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2022</v>
       </c>
@@ -7156,7 +7223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:52" ht="15">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2022</v>
       </c>
@@ -7182,7 +7249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:52" ht="15">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2022</v>
       </c>
@@ -7205,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:52" ht="15">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2022</v>
       </c>
@@ -7231,7 +7298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:52" ht="15">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2022</v>
       </c>
@@ -7260,7 +7327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:52" ht="15">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2022</v>
       </c>
@@ -7294,11 +7361,11 @@
       <c r="AJ217">
         <v>1</v>
       </c>
-      <c r="AZ217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:52" ht="15">
+      <c r="BE217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2022</v>
       </c>
@@ -7332,11 +7399,11 @@
       <c r="AM218">
         <v>1</v>
       </c>
-      <c r="AZ218">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:52" ht="15">
+      <c r="BE218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2022</v>
       </c>
@@ -7368,7 +7435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:52" ht="15">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2022</v>
       </c>
@@ -7403,7 +7470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:52" ht="15">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2022</v>
       </c>
@@ -7435,7 +7502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:52" ht="15">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2022</v>
       </c>
@@ -7458,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:52" ht="15">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2022</v>
       </c>
@@ -7481,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:52" ht="15">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2022</v>
       </c>
@@ -7510,7 +7577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:42" ht="15">
+    <row r="225" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2022</v>
       </c>
@@ -7545,7 +7612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:42" ht="15">
+    <row r="226" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2022</v>
       </c>
@@ -7580,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:42" ht="15">
+    <row r="227" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2022</v>
       </c>
@@ -7606,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:42" ht="15">
+    <row r="228" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2022</v>
       </c>
@@ -7644,7 +7711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:42" ht="15">
+    <row r="229" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2022</v>
       </c>
@@ -7670,7 +7737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:42" ht="15">
+    <row r="230" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2022</v>
       </c>
@@ -7708,7 +7775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:42" ht="15">
+    <row r="231" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2022</v>
       </c>
@@ -7740,7 +7807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:42" ht="15">
+    <row r="232" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2022</v>
       </c>
@@ -7772,7 +7839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:42" ht="15">
+    <row r="233" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2022</v>
       </c>
@@ -7807,7 +7874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:42" ht="15">
+    <row r="234" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2022</v>
       </c>
@@ -7839,7 +7906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:42" ht="15">
+    <row r="235" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2022</v>
       </c>
@@ -7868,7 +7935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:42" ht="15">
+    <row r="236" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2022</v>
       </c>
@@ -7894,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:42" ht="15">
+    <row r="237" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2022</v>
       </c>
@@ -7920,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:42" ht="15">
+    <row r="238" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2022</v>
       </c>
@@ -7946,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:42" ht="15">
+    <row r="239" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2022</v>
       </c>
@@ -7969,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:42" ht="15">
+    <row r="240" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2022</v>
       </c>
@@ -7995,7 +8062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:52" ht="15">
+    <row r="241" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2022</v>
       </c>
@@ -8015,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:52" ht="15">
+    <row r="242" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2022</v>
       </c>
@@ -8053,7 +8120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:52" ht="15">
+    <row r="243" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2022</v>
       </c>
@@ -8079,7 +8146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:52" ht="15">
+    <row r="244" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2022</v>
       </c>
@@ -8108,7 +8175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:52" ht="15">
+    <row r="245" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2022</v>
       </c>
@@ -8134,7 +8201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:52" ht="15">
+    <row r="246" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2022</v>
       </c>
@@ -8160,7 +8227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:52" ht="15">
+    <row r="247" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2022</v>
       </c>
@@ -8183,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:52" ht="15">
+    <row r="248" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2022</v>
       </c>
@@ -8209,7 +8276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:52" ht="15">
+    <row r="249" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2022</v>
       </c>
@@ -8231,11 +8298,11 @@
       <c r="V249">
         <v>1</v>
       </c>
-      <c r="AZ249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:52" ht="15">
+      <c r="BE249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2022</v>
       </c>
@@ -8257,11 +8324,11 @@
       <c r="V250">
         <v>1</v>
       </c>
-      <c r="AZ250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:52" ht="15">
+      <c r="BE250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2022</v>
       </c>
@@ -8289,11 +8356,11 @@
       <c r="V251">
         <v>1</v>
       </c>
-      <c r="AZ251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:52" ht="15">
+      <c r="BE251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2022</v>
       </c>
@@ -8319,7 +8386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:52" ht="15">
+    <row r="253" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2022</v>
       </c>
@@ -8341,11 +8408,11 @@
       <c r="H253">
         <v>0</v>
       </c>
-      <c r="AZ253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:52" ht="15">
+      <c r="BE253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2022</v>
       </c>
@@ -8386,7 +8453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:52" ht="15">
+    <row r="255" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2022</v>
       </c>
@@ -8421,7 +8488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:52" ht="15">
+    <row r="256" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2022</v>
       </c>
@@ -8453,7 +8520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:52" ht="15">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2022</v>
       </c>
@@ -8479,7 +8546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:52" ht="15">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2022</v>
       </c>
@@ -8505,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:52" ht="15">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2022</v>
       </c>
@@ -8528,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:52" ht="15">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2022</v>
       </c>
@@ -8562,11 +8629,11 @@
       <c r="AP260">
         <v>1</v>
       </c>
-      <c r="AZ260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:52" ht="15">
+      <c r="BE260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2022</v>
       </c>
@@ -8591,11 +8658,11 @@
       <c r="AJ261">
         <v>1</v>
       </c>
-      <c r="AZ261">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262" spans="1:52" ht="15">
+      <c r="BE261">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2022</v>
       </c>
@@ -8620,11 +8687,11 @@
       <c r="V262">
         <v>1</v>
       </c>
-      <c r="AZ262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:52" ht="15">
+      <c r="BE262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2022</v>
       </c>
@@ -8652,11 +8719,11 @@
       <c r="V263">
         <v>1</v>
       </c>
-      <c r="AZ263">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="264" spans="1:52" ht="15">
+      <c r="BE263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2022</v>
       </c>
@@ -8684,11 +8751,11 @@
       <c r="AI264">
         <v>1</v>
       </c>
-      <c r="AZ264">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:52" ht="15">
+      <c r="BE264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2022</v>
       </c>
@@ -8729,7 +8796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:52" ht="15">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2022</v>
       </c>
@@ -8773,7 +8840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:52" ht="15">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2022</v>
       </c>
@@ -8811,7 +8878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:52" ht="15">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2022</v>
       </c>
@@ -8846,7 +8913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:52" ht="15">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2022</v>
       </c>
@@ -8878,7 +8945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:52" ht="15">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2022</v>
       </c>
@@ -8910,7 +8977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:52" ht="15">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2022</v>
       </c>
@@ -8953,11 +9020,11 @@
       <c r="AP271">
         <v>3</v>
       </c>
-      <c r="AZ271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:52" ht="15">
+      <c r="BE271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2022</v>
       </c>
@@ -8997,11 +9064,11 @@
       <c r="AM272">
         <v>1</v>
       </c>
-      <c r="AZ272">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="273" spans="1:52" ht="15">
+      <c r="BE272">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2022</v>
       </c>
@@ -9039,7 +9106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:52" ht="15">
+    <row r="274" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2022</v>
       </c>
@@ -9071,7 +9138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:52" ht="15">
+    <row r="275" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2022</v>
       </c>
@@ -9109,7 +9176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:52" ht="15">
+    <row r="276" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2022</v>
       </c>
@@ -9135,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:52" ht="15">
+    <row r="277" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2022</v>
       </c>
@@ -9167,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:52" ht="15">
+    <row r="278" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2022</v>
       </c>
@@ -9207,11 +9274,11 @@
       <c r="AH278">
         <v>1</v>
       </c>
-      <c r="AZ278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:52" ht="15">
+      <c r="BE278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2022</v>
       </c>
@@ -9246,7 +9313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:52" ht="15">
+    <row r="280" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2022</v>
       </c>
@@ -9278,7 +9345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:52" ht="15">
+    <row r="281" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2022</v>
       </c>
@@ -9315,11 +9382,11 @@
       <c r="AG281">
         <v>1</v>
       </c>
-      <c r="AZ281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:52" ht="15">
+      <c r="BE281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2022</v>
       </c>
@@ -9345,7 +9412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:52" ht="15">
+    <row r="283" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2022</v>
       </c>
@@ -9371,7 +9438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:52" ht="15">
+    <row r="284" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2022</v>
       </c>
@@ -9394,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:52" ht="15">
+    <row r="285" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2022</v>
       </c>
@@ -9417,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:52" ht="15">
+    <row r="286" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2022</v>
       </c>
@@ -9442,11 +9509,11 @@
       <c r="V286">
         <v>1</v>
       </c>
-      <c r="AZ286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:52" ht="15">
+      <c r="BE286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2022</v>
       </c>
@@ -9466,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:52" ht="15">
+    <row r="288" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2022</v>
       </c>
@@ -9494,11 +9561,11 @@
       <c r="V288">
         <v>1</v>
       </c>
-      <c r="AZ288">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="289" spans="1:52" ht="15">
+      <c r="BE288">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2022</v>
       </c>
@@ -9535,11 +9602,11 @@
       <c r="AF289">
         <v>1</v>
       </c>
-      <c r="AZ289">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:52" ht="15">
+      <c r="BE289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2022</v>
       </c>
@@ -9570,11 +9637,11 @@
       <c r="W290">
         <v>1</v>
       </c>
-      <c r="AZ290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:52" ht="15">
+      <c r="BE290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2022</v>
       </c>
@@ -9602,11 +9669,11 @@
       <c r="W291">
         <v>1</v>
       </c>
-      <c r="AZ291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:52" ht="15">
+      <c r="BE291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2022</v>
       </c>
@@ -9646,11 +9713,11 @@
       <c r="AG292">
         <v>1</v>
       </c>
-      <c r="AZ292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:52" ht="15">
+      <c r="BE292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2022</v>
       </c>
@@ -9688,7 +9755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:52" ht="15">
+    <row r="294" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2022</v>
       </c>
@@ -9717,7 +9784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:52" ht="15">
+    <row r="295" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2022</v>
       </c>
@@ -9746,7 +9813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:52" ht="15">
+    <row r="296" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2022</v>
       </c>
@@ -9772,7 +9839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:52" ht="15">
+    <row r="297" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2022</v>
       </c>
@@ -9797,11 +9864,11 @@
       <c r="V297">
         <v>1</v>
       </c>
-      <c r="AZ297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:52" ht="15">
+      <c r="BE297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2022</v>
       </c>
@@ -9829,11 +9896,11 @@
       <c r="AP298">
         <v>1</v>
       </c>
-      <c r="AZ298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:52" ht="15">
+      <c r="BE298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2022</v>
       </c>
@@ -9858,11 +9925,11 @@
       <c r="V299">
         <v>1</v>
       </c>
-      <c r="AZ299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:52" ht="15">
+      <c r="BE299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2022</v>
       </c>
@@ -9884,11 +9951,11 @@
       <c r="L300">
         <v>1</v>
       </c>
-      <c r="AZ300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:52" ht="15">
+      <c r="BE300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2022</v>
       </c>
@@ -9922,11 +9989,11 @@
       <c r="AE301">
         <v>1</v>
       </c>
-      <c r="AZ301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:52" ht="15">
+      <c r="BE301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2022</v>
       </c>
@@ -9967,7 +10034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:52" ht="15">
+    <row r="303" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2022</v>
       </c>
@@ -9999,7 +10066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:52" ht="15">
+    <row r="304" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2022</v>
       </c>
@@ -10031,7 +10098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:54" ht="15">
+    <row r="305" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2022</v>
       </c>
@@ -10060,7 +10127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:54" ht="15">
+    <row r="306" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2022</v>
       </c>
@@ -10086,7 +10153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:54" ht="15">
+    <row r="307" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2022</v>
       </c>
@@ -10112,7 +10179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:54" ht="15">
+    <row r="308" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2022</v>
       </c>
@@ -10144,7 +10211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:54" ht="15">
+    <row r="309" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2022</v>
       </c>
@@ -10172,14 +10239,14 @@
       <c r="AP309">
         <v>2</v>
       </c>
-      <c r="AZ309">
-        <v>1</v>
-      </c>
-      <c r="BB309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:54" ht="15">
+      <c r="BE309">
+        <v>1</v>
+      </c>
+      <c r="BG309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2022</v>
       </c>
@@ -10217,7 +10284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:54" ht="15">
+    <row r="311" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2022</v>
       </c>
@@ -10255,7 +10322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:54" ht="15">
+    <row r="312" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2022</v>
       </c>
@@ -10293,7 +10360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:54" ht="15">
+    <row r="313" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2022</v>
       </c>
@@ -10325,7 +10392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:54" ht="15">
+    <row r="314" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2022</v>
       </c>
@@ -10360,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:54" ht="15">
+    <row r="315" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2022</v>
       </c>
@@ -10398,7 +10465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:54" ht="15">
+    <row r="316" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2022</v>
       </c>
@@ -10436,7 +10503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:54" ht="15">
+    <row r="317" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2022</v>
       </c>
@@ -10480,7 +10547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:54" ht="15">
+    <row r="318" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2022</v>
       </c>
@@ -10518,7 +10585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:54" ht="15">
+    <row r="319" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2022</v>
       </c>
@@ -10550,7 +10617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:54" ht="15">
+    <row r="320" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2022</v>
       </c>
@@ -10588,7 +10655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:43" ht="15">
+    <row r="321" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2022</v>
       </c>
@@ -10617,7 +10684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:43" ht="15">
+    <row r="322" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2022</v>
       </c>
@@ -10649,7 +10716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:43" ht="15">
+    <row r="323" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2022</v>
       </c>
@@ -10687,7 +10754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:43" ht="15">
+    <row r="324" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2022</v>
       </c>
@@ -10725,7 +10792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:43" ht="15">
+    <row r="325" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2022</v>
       </c>
@@ -10763,7 +10830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:43" ht="15">
+    <row r="326" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2022</v>
       </c>
@@ -10804,7 +10871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:43" ht="15">
+    <row r="327" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2022</v>
       </c>
@@ -10848,7 +10915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:43" ht="15">
+    <row r="328" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2022</v>
       </c>
@@ -10877,7 +10944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:43" ht="15">
+    <row r="329" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2022</v>
       </c>
@@ -10906,7 +10973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:43" ht="15">
+    <row r="330" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2022</v>
       </c>
@@ -10935,7 +11002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:43" ht="15">
+    <row r="331" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2022</v>
       </c>
@@ -10964,7 +11031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:43" ht="15">
+    <row r="332" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2022</v>
       </c>
@@ -10993,7 +11060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:43" ht="15">
+    <row r="333" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2022</v>
       </c>
@@ -11022,7 +11089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:43" ht="15">
+    <row r="334" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2022</v>
       </c>
@@ -11060,7 +11127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:43" ht="15">
+    <row r="335" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2022</v>
       </c>
@@ -11101,7 +11168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:43" ht="15">
+    <row r="336" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2022</v>
       </c>
@@ -11139,7 +11206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:54" ht="15">
+    <row r="337" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2022</v>
       </c>
@@ -11183,7 +11250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:54" ht="15">
+    <row r="338" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2022</v>
       </c>
@@ -11221,7 +11288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:54" ht="15">
+    <row r="339" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2022</v>
       </c>
@@ -11268,7 +11335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:54" ht="15">
+    <row r="340" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2022</v>
       </c>
@@ -11309,7 +11376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:54" ht="15">
+    <row r="341" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2022</v>
       </c>
@@ -11347,7 +11414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:54" ht="15">
+    <row r="342" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>2022</v>
       </c>
@@ -11428,12 +11495,17 @@
       <c r="AX342" s="1"/>
       <c r="AY342" s="1"/>
       <c r="AZ342" s="1"/>
-      <c r="BA342" s="1" t="s">
+      <c r="BA342" s="1"/>
+      <c r="BB342" s="1"/>
+      <c r="BC342" s="1"/>
+      <c r="BD342" s="1"/>
+      <c r="BE342" s="1"/>
+      <c r="BF342" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB342" s="1"/>
-    </row>
-    <row r="343" spans="1:54" ht="15">
+      <c r="BG342" s="1"/>
+    </row>
+    <row r="343" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>2022</v>
       </c>
@@ -11508,12 +11580,17 @@
       <c r="AX343" s="1"/>
       <c r="AY343" s="1"/>
       <c r="AZ343" s="1"/>
-      <c r="BA343" s="1" t="s">
+      <c r="BA343" s="1"/>
+      <c r="BB343" s="1"/>
+      <c r="BC343" s="1"/>
+      <c r="BD343" s="1"/>
+      <c r="BE343" s="1"/>
+      <c r="BF343" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB343" s="1"/>
-    </row>
-    <row r="344" spans="1:54" ht="15">
+      <c r="BG343" s="1"/>
+    </row>
+    <row r="344" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>2022</v>
       </c>
@@ -11590,12 +11667,17 @@
       <c r="AX344" s="1"/>
       <c r="AY344" s="1"/>
       <c r="AZ344" s="1"/>
-      <c r="BA344" s="1" t="s">
+      <c r="BA344" s="1"/>
+      <c r="BB344" s="1"/>
+      <c r="BC344" s="1"/>
+      <c r="BD344" s="1"/>
+      <c r="BE344" s="1"/>
+      <c r="BF344" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB344" s="1"/>
-    </row>
-    <row r="345" spans="1:54" ht="15">
+      <c r="BG344" s="1"/>
+    </row>
+    <row r="345" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>2022</v>
       </c>
@@ -11662,12 +11744,17 @@
       <c r="AX345" s="1"/>
       <c r="AY345" s="1"/>
       <c r="AZ345" s="1"/>
-      <c r="BA345" s="1" t="s">
+      <c r="BA345" s="1"/>
+      <c r="BB345" s="1"/>
+      <c r="BC345" s="1"/>
+      <c r="BD345" s="1"/>
+      <c r="BE345" s="1"/>
+      <c r="BF345" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB345" s="1"/>
-    </row>
-    <row r="346" spans="1:54" ht="15">
+      <c r="BG345" s="1"/>
+    </row>
+    <row r="346" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>2022</v>
       </c>
@@ -11738,12 +11825,17 @@
       <c r="AX346" s="1"/>
       <c r="AY346" s="1"/>
       <c r="AZ346" s="1"/>
-      <c r="BA346" s="1" t="s">
+      <c r="BA346" s="1"/>
+      <c r="BB346" s="1"/>
+      <c r="BC346" s="1"/>
+      <c r="BD346" s="1"/>
+      <c r="BE346" s="1"/>
+      <c r="BF346" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB346" s="1"/>
-    </row>
-    <row r="347" spans="1:54" ht="15">
+      <c r="BG346" s="1"/>
+    </row>
+    <row r="347" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>2022</v>
       </c>
@@ -11820,12 +11912,17 @@
       <c r="AX347" s="1"/>
       <c r="AY347" s="1"/>
       <c r="AZ347" s="1"/>
-      <c r="BA347" s="1" t="s">
+      <c r="BA347" s="1"/>
+      <c r="BB347" s="1"/>
+      <c r="BC347" s="1"/>
+      <c r="BD347" s="1"/>
+      <c r="BE347" s="1"/>
+      <c r="BF347" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB347" s="1"/>
-    </row>
-    <row r="348" spans="1:54" ht="15">
+      <c r="BG347" s="1"/>
+    </row>
+    <row r="348" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>2022</v>
       </c>
@@ -11908,12 +12005,17 @@
       <c r="AX348" s="1"/>
       <c r="AY348" s="1"/>
       <c r="AZ348" s="1"/>
-      <c r="BA348" s="1" t="s">
+      <c r="BA348" s="1"/>
+      <c r="BB348" s="1"/>
+      <c r="BC348" s="1"/>
+      <c r="BD348" s="1"/>
+      <c r="BE348" s="1"/>
+      <c r="BF348" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB348" s="1"/>
-    </row>
-    <row r="349" spans="1:54" ht="15">
+      <c r="BG348" s="1"/>
+    </row>
+    <row r="349" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>2022</v>
       </c>
@@ -11996,12 +12098,17 @@
       <c r="AX349" s="1"/>
       <c r="AY349" s="1"/>
       <c r="AZ349" s="1"/>
-      <c r="BA349" s="1" t="s">
+      <c r="BA349" s="1"/>
+      <c r="BB349" s="1"/>
+      <c r="BC349" s="1"/>
+      <c r="BD349" s="1"/>
+      <c r="BE349" s="1"/>
+      <c r="BF349" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB349" s="1"/>
-    </row>
-    <row r="350" spans="1:54" ht="15">
+      <c r="BG349" s="1"/>
+    </row>
+    <row r="350" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>2022</v>
       </c>
@@ -12084,12 +12191,17 @@
       <c r="AX350" s="1"/>
       <c r="AY350" s="1"/>
       <c r="AZ350" s="1"/>
-      <c r="BA350" s="1" t="s">
+      <c r="BA350" s="1"/>
+      <c r="BB350" s="1"/>
+      <c r="BC350" s="1"/>
+      <c r="BD350" s="1"/>
+      <c r="BE350" s="1"/>
+      <c r="BF350" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB350" s="1"/>
-    </row>
-    <row r="351" spans="1:54" ht="15">
+      <c r="BG350" s="1"/>
+    </row>
+    <row r="351" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>2022</v>
       </c>
@@ -12168,12 +12280,17 @@
       <c r="AX351" s="1"/>
       <c r="AY351" s="1"/>
       <c r="AZ351" s="1"/>
-      <c r="BA351" s="1" t="s">
+      <c r="BA351" s="1"/>
+      <c r="BB351" s="1"/>
+      <c r="BC351" s="1"/>
+      <c r="BD351" s="1"/>
+      <c r="BE351" s="1"/>
+      <c r="BF351" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB351" s="1"/>
-    </row>
-    <row r="352" spans="1:54" ht="15">
+      <c r="BG351" s="1"/>
+    </row>
+    <row r="352" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>2022</v>
       </c>
@@ -12246,12 +12363,17 @@
       <c r="AX352" s="1"/>
       <c r="AY352" s="1"/>
       <c r="AZ352" s="1"/>
-      <c r="BA352" s="1" t="s">
+      <c r="BA352" s="1"/>
+      <c r="BB352" s="1"/>
+      <c r="BC352" s="1"/>
+      <c r="BD352" s="1"/>
+      <c r="BE352" s="1"/>
+      <c r="BF352" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB352" s="1"/>
-    </row>
-    <row r="353" spans="1:54" ht="15">
+      <c r="BG352" s="1"/>
+    </row>
+    <row r="353" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>2022</v>
       </c>
@@ -12322,12 +12444,17 @@
       <c r="AX353" s="1"/>
       <c r="AY353" s="1"/>
       <c r="AZ353" s="1"/>
-      <c r="BA353" s="1" t="s">
+      <c r="BA353" s="1"/>
+      <c r="BB353" s="1"/>
+      <c r="BC353" s="1"/>
+      <c r="BD353" s="1"/>
+      <c r="BE353" s="1"/>
+      <c r="BF353" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB353" s="1"/>
-    </row>
-    <row r="354" spans="1:54" ht="15">
+      <c r="BG353" s="1"/>
+    </row>
+    <row r="354" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>2022</v>
       </c>
@@ -12398,12 +12525,17 @@
       <c r="AX354" s="1"/>
       <c r="AY354" s="1"/>
       <c r="AZ354" s="1"/>
-      <c r="BA354" s="1" t="s">
+      <c r="BA354" s="1"/>
+      <c r="BB354" s="1"/>
+      <c r="BC354" s="1"/>
+      <c r="BD354" s="1"/>
+      <c r="BE354" s="1"/>
+      <c r="BF354" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB354" s="1"/>
-    </row>
-    <row r="355" spans="1:54" ht="15">
+      <c r="BG354" s="1"/>
+    </row>
+    <row r="355" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>2022</v>
       </c>
@@ -12478,12 +12610,17 @@
       <c r="AX355" s="1"/>
       <c r="AY355" s="1"/>
       <c r="AZ355" s="1"/>
-      <c r="BA355" s="1" t="s">
+      <c r="BA355" s="1"/>
+      <c r="BB355" s="1"/>
+      <c r="BC355" s="1"/>
+      <c r="BD355" s="1"/>
+      <c r="BE355" s="1"/>
+      <c r="BF355" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB355" s="1"/>
-    </row>
-    <row r="356" spans="1:54" ht="15">
+      <c r="BG355" s="1"/>
+    </row>
+    <row r="356" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>2022</v>
       </c>
@@ -12558,12 +12695,17 @@
       <c r="AX356" s="1"/>
       <c r="AY356" s="1"/>
       <c r="AZ356" s="1"/>
-      <c r="BA356" s="1" t="s">
+      <c r="BA356" s="1"/>
+      <c r="BB356" s="1"/>
+      <c r="BC356" s="1"/>
+      <c r="BD356" s="1"/>
+      <c r="BE356" s="1"/>
+      <c r="BF356" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB356" s="1"/>
-    </row>
-    <row r="357" spans="1:54" ht="15">
+      <c r="BG356" s="1"/>
+    </row>
+    <row r="357" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>2022</v>
       </c>
@@ -12636,12 +12778,17 @@
       <c r="AX357" s="1"/>
       <c r="AY357" s="1"/>
       <c r="AZ357" s="1"/>
-      <c r="BA357" s="1" t="s">
+      <c r="BA357" s="1"/>
+      <c r="BB357" s="1"/>
+      <c r="BC357" s="1"/>
+      <c r="BD357" s="1"/>
+      <c r="BE357" s="1"/>
+      <c r="BF357" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB357" s="1"/>
-    </row>
-    <row r="358" spans="1:54" ht="15">
+      <c r="BG357" s="1"/>
+    </row>
+    <row r="358" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>2022</v>
       </c>
@@ -12718,12 +12865,17 @@
       <c r="AX358" s="1"/>
       <c r="AY358" s="1"/>
       <c r="AZ358" s="1"/>
-      <c r="BA358" s="1" t="s">
+      <c r="BA358" s="1"/>
+      <c r="BB358" s="1"/>
+      <c r="BC358" s="1"/>
+      <c r="BD358" s="1"/>
+      <c r="BE358" s="1"/>
+      <c r="BF358" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB358" s="1"/>
-    </row>
-    <row r="359" spans="1:54" ht="15">
+      <c r="BG358" s="1"/>
+    </row>
+    <row r="359" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>2022</v>
       </c>
@@ -12802,12 +12954,17 @@
       <c r="AX359" s="1"/>
       <c r="AY359" s="1"/>
       <c r="AZ359" s="1"/>
-      <c r="BA359" s="1" t="s">
+      <c r="BA359" s="1"/>
+      <c r="BB359" s="1"/>
+      <c r="BC359" s="1"/>
+      <c r="BD359" s="1"/>
+      <c r="BE359" s="1"/>
+      <c r="BF359" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB359" s="1"/>
-    </row>
-    <row r="360" spans="1:54" ht="15">
+      <c r="BG359" s="1"/>
+    </row>
+    <row r="360" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>2022</v>
       </c>
@@ -12886,12 +13043,17 @@
       <c r="AX360" s="1"/>
       <c r="AY360" s="1"/>
       <c r="AZ360" s="1"/>
-      <c r="BA360" s="1" t="s">
+      <c r="BA360" s="1"/>
+      <c r="BB360" s="1"/>
+      <c r="BC360" s="1"/>
+      <c r="BD360" s="1"/>
+      <c r="BE360" s="1"/>
+      <c r="BF360" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB360" s="1"/>
-    </row>
-    <row r="361" spans="1:54" ht="15">
+      <c r="BG360" s="1"/>
+    </row>
+    <row r="361" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>2022</v>
       </c>
@@ -12974,12 +13136,17 @@
       <c r="AX361" s="1"/>
       <c r="AY361" s="1"/>
       <c r="AZ361" s="1"/>
-      <c r="BA361" s="1" t="s">
+      <c r="BA361" s="1"/>
+      <c r="BB361" s="1"/>
+      <c r="BC361" s="1"/>
+      <c r="BD361" s="1"/>
+      <c r="BE361" s="1"/>
+      <c r="BF361" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB361" s="1"/>
-    </row>
-    <row r="362" spans="1:54" ht="15">
+      <c r="BG361" s="1"/>
+    </row>
+    <row r="362" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>2022</v>
       </c>
@@ -13060,12 +13227,17 @@
       <c r="AX362" s="1"/>
       <c r="AY362" s="1"/>
       <c r="AZ362" s="1"/>
-      <c r="BA362" s="1" t="s">
+      <c r="BA362" s="1"/>
+      <c r="BB362" s="1"/>
+      <c r="BC362" s="1"/>
+      <c r="BD362" s="1"/>
+      <c r="BE362" s="1"/>
+      <c r="BF362" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB362" s="1"/>
-    </row>
-    <row r="363" spans="1:54" ht="15">
+      <c r="BG362" s="1"/>
+    </row>
+    <row r="363" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>2022</v>
       </c>
@@ -13148,12 +13320,17 @@
       <c r="AX363" s="1"/>
       <c r="AY363" s="1"/>
       <c r="AZ363" s="1"/>
-      <c r="BA363" s="1" t="s">
+      <c r="BA363" s="1"/>
+      <c r="BB363" s="1"/>
+      <c r="BC363" s="1"/>
+      <c r="BD363" s="1"/>
+      <c r="BE363" s="1"/>
+      <c r="BF363" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB363" s="1"/>
-    </row>
-    <row r="364" spans="1:54" ht="15">
+      <c r="BG363" s="1"/>
+    </row>
+    <row r="364" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>2022</v>
       </c>
@@ -13230,12 +13407,17 @@
       <c r="AX364" s="1"/>
       <c r="AY364" s="1"/>
       <c r="AZ364" s="1"/>
-      <c r="BA364" s="1" t="s">
+      <c r="BA364" s="1"/>
+      <c r="BB364" s="1"/>
+      <c r="BC364" s="1"/>
+      <c r="BD364" s="1"/>
+      <c r="BE364" s="1"/>
+      <c r="BF364" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB364" s="1"/>
-    </row>
-    <row r="365" spans="1:54" ht="15">
+      <c r="BG364" s="1"/>
+    </row>
+    <row r="365" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>2022</v>
       </c>
@@ -13316,12 +13498,17 @@
       <c r="AX365" s="1"/>
       <c r="AY365" s="1"/>
       <c r="AZ365" s="1"/>
-      <c r="BA365" s="1" t="s">
+      <c r="BA365" s="1"/>
+      <c r="BB365" s="1"/>
+      <c r="BC365" s="1"/>
+      <c r="BD365" s="1"/>
+      <c r="BE365" s="1"/>
+      <c r="BF365" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB365" s="1"/>
-    </row>
-    <row r="366" spans="1:54" ht="15">
+      <c r="BG365" s="1"/>
+    </row>
+    <row r="366" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>2022</v>
       </c>
@@ -13400,12 +13587,17 @@
       <c r="AX366" s="1"/>
       <c r="AY366" s="1"/>
       <c r="AZ366" s="1"/>
-      <c r="BA366" s="1" t="s">
+      <c r="BA366" s="1"/>
+      <c r="BB366" s="1"/>
+      <c r="BC366" s="1"/>
+      <c r="BD366" s="1"/>
+      <c r="BE366" s="1"/>
+      <c r="BF366" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB366" s="1"/>
-    </row>
-    <row r="367" spans="1:54" ht="15">
+      <c r="BG366" s="1"/>
+    </row>
+    <row r="367" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>2022</v>
       </c>
@@ -13490,12 +13682,17 @@
       <c r="AX367" s="1"/>
       <c r="AY367" s="1"/>
       <c r="AZ367" s="1"/>
-      <c r="BA367" s="1" t="s">
+      <c r="BA367" s="1"/>
+      <c r="BB367" s="1"/>
+      <c r="BC367" s="1"/>
+      <c r="BD367" s="1"/>
+      <c r="BE367" s="1"/>
+      <c r="BF367" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB367" s="1"/>
-    </row>
-    <row r="368" spans="1:54" ht="15">
+      <c r="BG367" s="1"/>
+    </row>
+    <row r="368" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>2022</v>
       </c>
@@ -13580,16 +13777,21 @@
       <c r="AT368" s="1"/>
       <c r="AW368" s="1"/>
       <c r="AX368" s="1"/>
-      <c r="AY368" s="1">
-        <v>1</v>
-      </c>
+      <c r="AY368" s="1"/>
       <c r="AZ368" s="1"/>
-      <c r="BA368" s="1" t="s">
+      <c r="BA368" s="1"/>
+      <c r="BB368" s="1"/>
+      <c r="BC368" s="1"/>
+      <c r="BD368" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE368" s="1"/>
+      <c r="BF368" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB368" s="1"/>
-    </row>
-    <row r="369" spans="1:54" ht="15">
+      <c r="BG368" s="1"/>
+    </row>
+    <row r="369" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>2022</v>
       </c>
@@ -13679,12 +13881,17 @@
       <c r="AX369" s="1"/>
       <c r="AY369" s="1"/>
       <c r="AZ369" s="1"/>
-      <c r="BA369" s="1" t="s">
+      <c r="BA369" s="1"/>
+      <c r="BB369" s="1"/>
+      <c r="BC369" s="1"/>
+      <c r="BD369" s="1"/>
+      <c r="BE369" s="1"/>
+      <c r="BF369" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB369" s="1"/>
-    </row>
-    <row r="370" spans="1:54" ht="15">
+      <c r="BG369" s="1"/>
+    </row>
+    <row r="370" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>2022</v>
       </c>
@@ -13761,12 +13968,17 @@
       <c r="AX370" s="1"/>
       <c r="AY370" s="1"/>
       <c r="AZ370" s="1"/>
-      <c r="BA370" s="1" t="s">
+      <c r="BA370" s="1"/>
+      <c r="BB370" s="1"/>
+      <c r="BC370" s="1"/>
+      <c r="BD370" s="1"/>
+      <c r="BE370" s="1"/>
+      <c r="BF370" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB370" s="1"/>
-    </row>
-    <row r="371" spans="1:54" ht="15">
+      <c r="BG370" s="1"/>
+    </row>
+    <row r="371" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>2022</v>
       </c>
@@ -13841,12 +14053,17 @@
       <c r="AX371" s="1"/>
       <c r="AY371" s="1"/>
       <c r="AZ371" s="1"/>
-      <c r="BA371" s="1" t="s">
+      <c r="BA371" s="1"/>
+      <c r="BB371" s="1"/>
+      <c r="BC371" s="1"/>
+      <c r="BD371" s="1"/>
+      <c r="BE371" s="1"/>
+      <c r="BF371" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB371" s="1"/>
-    </row>
-    <row r="372" spans="1:54" ht="15">
+      <c r="BG371" s="1"/>
+    </row>
+    <row r="372" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>2022</v>
       </c>
@@ -13921,12 +14138,17 @@
       <c r="AX372" s="1"/>
       <c r="AY372" s="1"/>
       <c r="AZ372" s="1"/>
-      <c r="BA372" s="1" t="s">
+      <c r="BA372" s="1"/>
+      <c r="BB372" s="1"/>
+      <c r="BC372" s="1"/>
+      <c r="BD372" s="1"/>
+      <c r="BE372" s="1"/>
+      <c r="BF372" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB372" s="1"/>
-    </row>
-    <row r="373" spans="1:54" ht="15">
+      <c r="BG372" s="1"/>
+    </row>
+    <row r="373" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>2022</v>
       </c>
@@ -13999,12 +14221,17 @@
       <c r="AX373" s="1"/>
       <c r="AY373" s="1"/>
       <c r="AZ373" s="1"/>
-      <c r="BA373" s="1" t="s">
+      <c r="BA373" s="1"/>
+      <c r="BB373" s="1"/>
+      <c r="BC373" s="1"/>
+      <c r="BD373" s="1"/>
+      <c r="BE373" s="1"/>
+      <c r="BF373" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB373" s="1"/>
-    </row>
-    <row r="374" spans="1:54" ht="15">
+      <c r="BG373" s="1"/>
+    </row>
+    <row r="374" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>2022</v>
       </c>
@@ -14077,12 +14304,17 @@
       <c r="AX374" s="1"/>
       <c r="AY374" s="1"/>
       <c r="AZ374" s="1"/>
-      <c r="BA374" s="1" t="s">
+      <c r="BA374" s="1"/>
+      <c r="BB374" s="1"/>
+      <c r="BC374" s="1"/>
+      <c r="BD374" s="1"/>
+      <c r="BE374" s="1"/>
+      <c r="BF374" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB374" s="1"/>
-    </row>
-    <row r="375" spans="1:54" ht="15">
+      <c r="BG374" s="1"/>
+    </row>
+    <row r="375" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>2022</v>
       </c>
@@ -14155,12 +14387,17 @@
       <c r="AX375" s="1"/>
       <c r="AY375" s="1"/>
       <c r="AZ375" s="1"/>
-      <c r="BA375" s="1" t="s">
+      <c r="BA375" s="1"/>
+      <c r="BB375" s="1"/>
+      <c r="BC375" s="1"/>
+      <c r="BD375" s="1"/>
+      <c r="BE375" s="1"/>
+      <c r="BF375" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB375" s="1"/>
-    </row>
-    <row r="376" spans="1:54" ht="15">
+      <c r="BG375" s="1"/>
+    </row>
+    <row r="376" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>2022</v>
       </c>
@@ -14235,12 +14472,17 @@
       <c r="AX376" s="1"/>
       <c r="AY376" s="1"/>
       <c r="AZ376" s="1"/>
-      <c r="BA376" s="1" t="s">
+      <c r="BA376" s="1"/>
+      <c r="BB376" s="1"/>
+      <c r="BC376" s="1"/>
+      <c r="BD376" s="1"/>
+      <c r="BE376" s="1"/>
+      <c r="BF376" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB376" s="1"/>
-    </row>
-    <row r="377" spans="1:54" ht="15">
+      <c r="BG376" s="1"/>
+    </row>
+    <row r="377" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>2022</v>
       </c>
@@ -14315,12 +14557,17 @@
       <c r="AX377" s="1"/>
       <c r="AY377" s="1"/>
       <c r="AZ377" s="1"/>
-      <c r="BA377" s="1" t="s">
+      <c r="BA377" s="1"/>
+      <c r="BB377" s="1"/>
+      <c r="BC377" s="1"/>
+      <c r="BD377" s="1"/>
+      <c r="BE377" s="1"/>
+      <c r="BF377" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB377" s="1"/>
-    </row>
-    <row r="378" spans="1:54" ht="15">
+      <c r="BG377" s="1"/>
+    </row>
+    <row r="378" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>2022</v>
       </c>
@@ -14401,12 +14648,17 @@
       <c r="AX378" s="1"/>
       <c r="AY378" s="1"/>
       <c r="AZ378" s="1"/>
-      <c r="BA378" s="1" t="s">
+      <c r="BA378" s="1"/>
+      <c r="BB378" s="1"/>
+      <c r="BC378" s="1"/>
+      <c r="BD378" s="1"/>
+      <c r="BE378" s="1"/>
+      <c r="BF378" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB378" s="1"/>
-    </row>
-    <row r="379" spans="1:54" ht="15">
+      <c r="BG378" s="1"/>
+    </row>
+    <row r="379" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>2022</v>
       </c>
@@ -14483,12 +14735,17 @@
       <c r="AX379" s="1"/>
       <c r="AY379" s="1"/>
       <c r="AZ379" s="1"/>
-      <c r="BA379" s="1" t="s">
+      <c r="BA379" s="1"/>
+      <c r="BB379" s="1"/>
+      <c r="BC379" s="1"/>
+      <c r="BD379" s="1"/>
+      <c r="BE379" s="1"/>
+      <c r="BF379" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB379" s="1"/>
-    </row>
-    <row r="380" spans="1:54" ht="15">
+      <c r="BG379" s="1"/>
+    </row>
+    <row r="380" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>2022</v>
       </c>
@@ -14567,12 +14824,17 @@
       <c r="AX380" s="1"/>
       <c r="AY380" s="1"/>
       <c r="AZ380" s="1"/>
-      <c r="BA380" s="1" t="s">
+      <c r="BA380" s="1"/>
+      <c r="BB380" s="1"/>
+      <c r="BC380" s="1"/>
+      <c r="BD380" s="1"/>
+      <c r="BE380" s="1"/>
+      <c r="BF380" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB380" s="1"/>
-    </row>
-    <row r="381" spans="1:54" ht="15">
+      <c r="BG380" s="1"/>
+    </row>
+    <row r="381" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>2022</v>
       </c>
@@ -14653,12 +14915,17 @@
       <c r="AX381" s="1"/>
       <c r="AY381" s="1"/>
       <c r="AZ381" s="1"/>
-      <c r="BA381" s="1">
-        <v>1</v>
-      </c>
+      <c r="BA381" s="1"/>
       <c r="BB381" s="1"/>
-    </row>
-    <row r="382" spans="1:54" ht="15">
+      <c r="BC381" s="1"/>
+      <c r="BD381" s="1"/>
+      <c r="BE381" s="1"/>
+      <c r="BF381" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG381" s="1"/>
+    </row>
+    <row r="382" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>2022</v>
       </c>
@@ -14733,12 +15000,17 @@
       <c r="AX382" s="1"/>
       <c r="AY382" s="1"/>
       <c r="AZ382" s="1"/>
-      <c r="BA382" s="1" t="s">
+      <c r="BA382" s="1"/>
+      <c r="BB382" s="1"/>
+      <c r="BC382" s="1"/>
+      <c r="BD382" s="1"/>
+      <c r="BE382" s="1"/>
+      <c r="BF382" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB382" s="1"/>
-    </row>
-    <row r="383" spans="1:54" ht="15">
+      <c r="BG382" s="1"/>
+    </row>
+    <row r="383" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>2022</v>
       </c>
@@ -14817,12 +15089,17 @@
       <c r="AX383" s="1"/>
       <c r="AY383" s="1"/>
       <c r="AZ383" s="1"/>
-      <c r="BA383" s="1" t="s">
+      <c r="BA383" s="1"/>
+      <c r="BB383" s="1"/>
+      <c r="BC383" s="1"/>
+      <c r="BD383" s="1"/>
+      <c r="BE383" s="1"/>
+      <c r="BF383" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB383" s="1"/>
-    </row>
-    <row r="384" spans="1:54" ht="15">
+      <c r="BG383" s="1"/>
+    </row>
+    <row r="384" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>2022</v>
       </c>
@@ -14895,12 +15172,17 @@
       <c r="AX384" s="1"/>
       <c r="AY384" s="1"/>
       <c r="AZ384" s="1"/>
-      <c r="BA384" s="1" t="s">
+      <c r="BA384" s="1"/>
+      <c r="BB384" s="1"/>
+      <c r="BC384" s="1"/>
+      <c r="BD384" s="1"/>
+      <c r="BE384" s="1"/>
+      <c r="BF384" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB384" s="1"/>
-    </row>
-    <row r="385" spans="1:54" ht="15">
+      <c r="BG384" s="1"/>
+    </row>
+    <row r="385" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>2022</v>
       </c>
@@ -14977,12 +15259,17 @@
       <c r="AX385" s="1"/>
       <c r="AY385" s="1"/>
       <c r="AZ385" s="1"/>
-      <c r="BA385" s="1">
-        <v>1</v>
-      </c>
+      <c r="BA385" s="1"/>
       <c r="BB385" s="1"/>
-    </row>
-    <row r="386" spans="1:54" ht="15">
+      <c r="BC385" s="1"/>
+      <c r="BD385" s="1"/>
+      <c r="BE385" s="1"/>
+      <c r="BF385" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG385" s="1"/>
+    </row>
+    <row r="386" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>2022</v>
       </c>
@@ -15118,20 +15405,25 @@
       </c>
       <c r="AW386" s="1"/>
       <c r="AX386" s="1"/>
-      <c r="AY386" s="1" t="s">
+      <c r="AY386" s="1"/>
+      <c r="AZ386" s="1"/>
+      <c r="BA386" s="1"/>
+      <c r="BB386" s="1"/>
+      <c r="BC386" s="1"/>
+      <c r="BD386" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AZ386" s="1" t="s">
+      <c r="BE386" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BA386" s="1" t="s">
+      <c r="BF386" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB386" s="1" t="s">
+      <c r="BG386" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="387" spans="1:54" ht="15">
+    <row r="387" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>2022</v>
       </c>
@@ -15175,7 +15467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:54" ht="15">
+    <row r="388" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>2022</v>
       </c>
@@ -15201,7 +15493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:54" ht="15">
+    <row r="389" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>2022</v>
       </c>
@@ -15233,7 +15525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:54" ht="15">
+    <row r="390" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>2022</v>
       </c>
@@ -15268,7 +15560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:54" ht="15">
+    <row r="391" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>2022</v>
       </c>
@@ -15306,7 +15598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:54" ht="15">
+    <row r="392" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>2022</v>
       </c>
@@ -15344,7 +15636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:54" ht="15">
+    <row r="393" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>2022</v>
       </c>
@@ -15385,7 +15677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:54" ht="15">
+    <row r="394" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>2022</v>
       </c>
@@ -15426,7 +15718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:54" ht="15">
+    <row r="395" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>2022</v>
       </c>
@@ -15476,7 +15768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:54" ht="15">
+    <row r="396" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>2022</v>
       </c>
@@ -15540,11 +15832,11 @@
       <c r="AW396">
         <v>5</v>
       </c>
-      <c r="AY396">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="397" spans="1:54" ht="15">
+      <c r="BD396">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>2022</v>
       </c>
@@ -15585,7 +15877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:54" ht="15">
+    <row r="398" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>2022</v>
       </c>
@@ -15611,7 +15903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:54" ht="15">
+    <row r="399" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>2022</v>
       </c>
@@ -15643,7 +15935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:54" ht="15">
+    <row r="400" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>2022</v>
       </c>
@@ -15675,7 +15967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:47" ht="15">
+    <row r="401" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>2022</v>
       </c>
@@ -15710,7 +16002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:47" ht="15">
+    <row r="402" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>2022</v>
       </c>
@@ -15748,7 +16040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:47" ht="15">
+    <row r="403" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>2022</v>
       </c>
@@ -15783,7 +16075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:47" ht="15">
+    <row r="404" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>2022</v>
       </c>
@@ -15818,7 +16110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:47" ht="15">
+    <row r="405" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>2022</v>
       </c>
@@ -15859,7 +16151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:47" ht="15">
+    <row r="406" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>2022</v>
       </c>
@@ -15906,7 +16198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:47" ht="15">
+    <row r="407" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>2022</v>
       </c>
@@ -15938,7 +16230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:47" ht="15">
+    <row r="408" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>2022</v>
       </c>
@@ -15970,7 +16262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:47" ht="15">
+    <row r="409" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>2022</v>
       </c>
@@ -16008,7 +16300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:47" ht="15">
+    <row r="410" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>2022</v>
       </c>
@@ -16052,7 +16344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:47" ht="15">
+    <row r="411" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>2022</v>
       </c>
@@ -16099,7 +16391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:47" ht="15">
+    <row r="412" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>2022</v>
       </c>
@@ -16143,7 +16435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:47" ht="15">
+    <row r="413" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>2022</v>
       </c>
@@ -16190,7 +16482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:47" ht="15">
+    <row r="414" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>2022</v>
       </c>
@@ -16252,7 +16544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:47" ht="15">
+    <row r="415" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>2022</v>
       </c>
@@ -16314,7 +16606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:47" ht="15">
+    <row r="416" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>2022</v>
       </c>
@@ -16346,7 +16638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:49" ht="15">
+    <row r="417" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>2022</v>
       </c>
@@ -16378,7 +16670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="418" spans="1:49" ht="15">
+    <row r="418" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>2022</v>
       </c>
@@ -16407,7 +16699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:49" ht="15">
+    <row r="419" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>2022</v>
       </c>
@@ -16436,7 +16728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:49" ht="15">
+    <row r="420" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>2022</v>
       </c>
@@ -16468,7 +16760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:49" ht="15">
+    <row r="421" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>2022</v>
       </c>
@@ -16503,7 +16795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:49" ht="15">
+    <row r="422" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>2022</v>
       </c>
@@ -16541,7 +16833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:49" ht="15">
+    <row r="423" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>2022</v>
       </c>
@@ -16576,7 +16868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:49" ht="15">
+    <row r="424" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>2022</v>
       </c>
@@ -16608,7 +16900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:49" ht="15">
+    <row r="425" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>2022</v>
       </c>
@@ -16652,7 +16944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:49" ht="15">
+    <row r="426" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>2022</v>
       </c>
@@ -16690,7 +16982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:49" ht="15">
+    <row r="427" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>2022</v>
       </c>
@@ -16728,7 +17020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:49" ht="15">
+    <row r="428" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>2022</v>
       </c>
@@ -16775,7 +17067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:49" ht="15">
+    <row r="429" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>2022</v>
       </c>
@@ -16816,7 +17108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:49" ht="15">
+    <row r="430" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>2022</v>
       </c>
@@ -16851,7 +17143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:49" ht="15">
+    <row r="431" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>2022</v>
       </c>
@@ -16895,7 +17187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:49" ht="15">
+    <row r="432" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>2022</v>
       </c>
@@ -16933,7 +17225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:50" ht="15">
+    <row r="433" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>2022</v>
       </c>
@@ -16983,7 +17275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:50" ht="15">
+    <row r="434" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>2022</v>
       </c>
@@ -16999,8 +17291,29 @@
       <c r="E434" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:50" ht="15">
+      <c r="F434" t="s">
+        <v>54</v>
+      </c>
+      <c r="G434">
+        <v>50</v>
+      </c>
+      <c r="V434">
+        <v>1</v>
+      </c>
+      <c r="Z434">
+        <v>1</v>
+      </c>
+      <c r="AE434">
+        <v>10</v>
+      </c>
+      <c r="AF434">
+        <v>1</v>
+      </c>
+      <c r="AG434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>2022</v>
       </c>
@@ -17016,8 +17329,20 @@
       <c r="E435" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="436" spans="1:50" ht="15">
+      <c r="F435" t="s">
+        <v>57</v>
+      </c>
+      <c r="G435">
+        <v>1</v>
+      </c>
+      <c r="V435">
+        <v>15</v>
+      </c>
+      <c r="AE435">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>2022</v>
       </c>
@@ -17033,8 +17358,29 @@
       <c r="E436" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="437" spans="1:50" ht="15">
+      <c r="F436" t="s">
+        <v>66</v>
+      </c>
+      <c r="G436">
+        <v>10</v>
+      </c>
+      <c r="V436">
+        <v>5</v>
+      </c>
+      <c r="W436">
+        <v>40</v>
+      </c>
+      <c r="X436">
+        <v>30</v>
+      </c>
+      <c r="AE436">
+        <v>2</v>
+      </c>
+      <c r="AG436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>2022</v>
       </c>
@@ -17050,8 +17396,29 @@
       <c r="E437" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="438" spans="1:50" ht="15">
+      <c r="F437" t="s">
+        <v>79</v>
+      </c>
+      <c r="V437">
+        <v>10</v>
+      </c>
+      <c r="W437">
+        <v>5</v>
+      </c>
+      <c r="X437">
+        <v>50</v>
+      </c>
+      <c r="AB437">
+        <v>2</v>
+      </c>
+      <c r="AE437">
+        <v>1</v>
+      </c>
+      <c r="AG437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>2022</v>
       </c>
@@ -17067,8 +17434,23 @@
       <c r="E438" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="439" spans="1:50" ht="15">
+      <c r="F438" t="s">
+        <v>57</v>
+      </c>
+      <c r="V438">
+        <v>50</v>
+      </c>
+      <c r="W438">
+        <v>10</v>
+      </c>
+      <c r="X438">
+        <v>20</v>
+      </c>
+      <c r="AE438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>2022</v>
       </c>
@@ -17084,8 +17466,23 @@
       <c r="E439" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="440" spans="1:50" ht="15">
+      <c r="F439" t="s">
+        <v>79</v>
+      </c>
+      <c r="G439">
+        <v>5</v>
+      </c>
+      <c r="V439">
+        <v>15</v>
+      </c>
+      <c r="X439">
+        <v>30</v>
+      </c>
+      <c r="AE439">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="440" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>2022</v>
       </c>
@@ -17101,8 +17498,23 @@
       <c r="E440" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="441" spans="1:50" ht="15">
+      <c r="F440" t="s">
+        <v>57</v>
+      </c>
+      <c r="V440">
+        <v>20</v>
+      </c>
+      <c r="W440">
+        <v>5</v>
+      </c>
+      <c r="X440">
+        <v>10</v>
+      </c>
+      <c r="AE440">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="441" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>2022</v>
       </c>
@@ -17118,8 +17530,29 @@
       <c r="E441" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="442" spans="1:50" ht="15">
+      <c r="F441" t="s">
+        <v>57</v>
+      </c>
+      <c r="G441">
+        <v>3</v>
+      </c>
+      <c r="V441">
+        <v>30</v>
+      </c>
+      <c r="W441">
+        <v>10</v>
+      </c>
+      <c r="X441">
+        <v>15</v>
+      </c>
+      <c r="AE441">
+        <v>20</v>
+      </c>
+      <c r="AG441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>2022</v>
       </c>
@@ -17135,8 +17568,44 @@
       <c r="E442" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="443" spans="1:50" ht="15">
+      <c r="F442" t="s">
+        <v>56</v>
+      </c>
+      <c r="H442">
+        <v>20</v>
+      </c>
+      <c r="J442">
+        <v>5</v>
+      </c>
+      <c r="V442">
+        <v>5</v>
+      </c>
+      <c r="W442">
+        <v>5</v>
+      </c>
+      <c r="X442">
+        <v>10</v>
+      </c>
+      <c r="AE442">
+        <v>40</v>
+      </c>
+      <c r="AG442">
+        <v>1</v>
+      </c>
+      <c r="AH442">
+        <v>1</v>
+      </c>
+      <c r="AJ442">
+        <v>5</v>
+      </c>
+      <c r="AM442">
+        <v>1</v>
+      </c>
+      <c r="AP442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>2022</v>
       </c>
@@ -17152,8 +17621,29 @@
       <c r="E443" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:50" ht="15">
+      <c r="F443" t="s">
+        <v>54</v>
+      </c>
+      <c r="G443">
+        <v>40</v>
+      </c>
+      <c r="T443">
+        <v>2</v>
+      </c>
+      <c r="X443">
+        <v>1</v>
+      </c>
+      <c r="AE443">
+        <v>5</v>
+      </c>
+      <c r="AF443">
+        <v>5</v>
+      </c>
+      <c r="AG443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>2022</v>
       </c>
@@ -17169,8 +17659,26 @@
       <c r="E444" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="445" spans="1:50" ht="15">
+      <c r="F444" t="s">
+        <v>57</v>
+      </c>
+      <c r="G444">
+        <v>1</v>
+      </c>
+      <c r="V444">
+        <v>5</v>
+      </c>
+      <c r="W444">
+        <v>1</v>
+      </c>
+      <c r="X444">
+        <v>1</v>
+      </c>
+      <c r="AE444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>2022</v>
       </c>
@@ -17186,8 +17694,29 @@
       <c r="E445" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="446" spans="1:50" ht="15">
+      <c r="F445" t="s">
+        <v>57</v>
+      </c>
+      <c r="G445">
+        <v>1</v>
+      </c>
+      <c r="V445">
+        <v>35</v>
+      </c>
+      <c r="W445">
+        <v>7</v>
+      </c>
+      <c r="X445">
+        <v>5</v>
+      </c>
+      <c r="AE445">
+        <v>5</v>
+      </c>
+      <c r="AG445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>2022</v>
       </c>
@@ -17203,8 +17732,23 @@
       <c r="E446" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="447" spans="1:50" ht="15">
+      <c r="F446" t="s">
+        <v>57</v>
+      </c>
+      <c r="V446">
+        <v>15</v>
+      </c>
+      <c r="W446">
+        <v>5</v>
+      </c>
+      <c r="X446">
+        <v>8</v>
+      </c>
+      <c r="AE446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>2022</v>
       </c>
@@ -17220,8 +17764,20 @@
       <c r="E447" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="448" spans="1:50" ht="15">
+      <c r="F447" t="s">
+        <v>57</v>
+      </c>
+      <c r="V447">
+        <v>40</v>
+      </c>
+      <c r="W447">
+        <v>15</v>
+      </c>
+      <c r="X447" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="448" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>2022</v>
       </c>
@@ -17237,8 +17793,29 @@
       <c r="E448" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" ht="15">
+      <c r="F448" t="s">
+        <v>57</v>
+      </c>
+      <c r="G448">
+        <v>1</v>
+      </c>
+      <c r="V448">
+        <v>40</v>
+      </c>
+      <c r="W448">
+        <v>2</v>
+      </c>
+      <c r="X448">
+        <v>20</v>
+      </c>
+      <c r="AE448">
+        <v>3</v>
+      </c>
+      <c r="AG448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>2022</v>
       </c>
@@ -17254,8 +17831,23 @@
       <c r="E449" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" ht="15">
+      <c r="F449" t="s">
+        <v>57</v>
+      </c>
+      <c r="V449">
+        <v>25</v>
+      </c>
+      <c r="W449">
+        <v>3</v>
+      </c>
+      <c r="X449">
+        <v>5</v>
+      </c>
+      <c r="AE449">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>2022</v>
       </c>
@@ -17271,8 +17863,23 @@
       <c r="E450" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" ht="15">
+      <c r="F450" t="s">
+        <v>57</v>
+      </c>
+      <c r="V450">
+        <v>10</v>
+      </c>
+      <c r="W450">
+        <v>3</v>
+      </c>
+      <c r="X450">
+        <v>5</v>
+      </c>
+      <c r="AE450">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>2022</v>
       </c>
@@ -17288,8 +17895,35 @@
       <c r="E451" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" ht="15">
+      <c r="F451" t="s">
+        <v>57</v>
+      </c>
+      <c r="G451">
+        <v>1</v>
+      </c>
+      <c r="H451">
+        <v>1</v>
+      </c>
+      <c r="V451">
+        <v>30</v>
+      </c>
+      <c r="W451">
+        <v>5</v>
+      </c>
+      <c r="X451">
+        <v>15</v>
+      </c>
+      <c r="AE451">
+        <v>5</v>
+      </c>
+      <c r="AG451">
+        <v>2</v>
+      </c>
+      <c r="AJ451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>2022</v>
       </c>
@@ -17305,8 +17939,29 @@
       <c r="E452" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" ht="15">
+      <c r="F452" t="s">
+        <v>57</v>
+      </c>
+      <c r="H452">
+        <v>1</v>
+      </c>
+      <c r="V452">
+        <v>30</v>
+      </c>
+      <c r="W452">
+        <v>2</v>
+      </c>
+      <c r="X452">
+        <v>5</v>
+      </c>
+      <c r="AE452">
+        <v>15</v>
+      </c>
+      <c r="AG452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>2022</v>
       </c>
@@ -17322,8 +17977,32 @@
       <c r="E453" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" ht="15">
+      <c r="F453" t="s">
+        <v>57</v>
+      </c>
+      <c r="G453">
+        <v>2</v>
+      </c>
+      <c r="H453">
+        <v>1</v>
+      </c>
+      <c r="V453">
+        <v>60</v>
+      </c>
+      <c r="W453">
+        <v>35</v>
+      </c>
+      <c r="X453">
+        <v>10</v>
+      </c>
+      <c r="AE453">
+        <v>10</v>
+      </c>
+      <c r="AP453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>2022</v>
       </c>
@@ -17339,8 +18018,26 @@
       <c r="E454" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" ht="15">
+      <c r="H454">
+        <v>5</v>
+      </c>
+      <c r="J454">
+        <v>1</v>
+      </c>
+      <c r="V454">
+        <v>30</v>
+      </c>
+      <c r="W454">
+        <v>5</v>
+      </c>
+      <c r="X454">
+        <v>30</v>
+      </c>
+      <c r="AE454">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="455" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>2022</v>
       </c>
@@ -17356,8 +18053,32 @@
       <c r="E455" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" ht="15">
+      <c r="F455" t="s">
+        <v>79</v>
+      </c>
+      <c r="H455">
+        <v>5</v>
+      </c>
+      <c r="J455">
+        <v>1</v>
+      </c>
+      <c r="V455">
+        <v>20</v>
+      </c>
+      <c r="W455">
+        <v>5</v>
+      </c>
+      <c r="X455">
+        <v>80</v>
+      </c>
+      <c r="AG455">
+        <v>1</v>
+      </c>
+      <c r="AP455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>2022</v>
       </c>
@@ -17373,8 +18094,47 @@
       <c r="E456" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" ht="15">
+      <c r="F456" t="s">
+        <v>80</v>
+      </c>
+      <c r="H456">
+        <v>60</v>
+      </c>
+      <c r="I456">
+        <v>10</v>
+      </c>
+      <c r="J456">
+        <v>2</v>
+      </c>
+      <c r="V456">
+        <v>10</v>
+      </c>
+      <c r="W456">
+        <v>3</v>
+      </c>
+      <c r="X456">
+        <v>5</v>
+      </c>
+      <c r="AH456">
+        <v>3</v>
+      </c>
+      <c r="AI456">
+        <v>2</v>
+      </c>
+      <c r="AJ456">
+        <v>15</v>
+      </c>
+      <c r="AK456">
+        <v>2</v>
+      </c>
+      <c r="AP456">
+        <v>3</v>
+      </c>
+      <c r="AY456">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>2022</v>
       </c>
@@ -17390,8 +18150,35 @@
       <c r="E457" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" ht="15">
+      <c r="F457" t="s">
+        <v>79</v>
+      </c>
+      <c r="H457">
+        <v>10</v>
+      </c>
+      <c r="J457">
+        <v>3</v>
+      </c>
+      <c r="V457">
+        <v>20</v>
+      </c>
+      <c r="W457">
+        <v>3</v>
+      </c>
+      <c r="X457">
+        <v>70</v>
+      </c>
+      <c r="AE457">
+        <v>10</v>
+      </c>
+      <c r="AF457">
+        <v>10</v>
+      </c>
+      <c r="AG457">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>2022</v>
       </c>
@@ -17407,8 +18194,44 @@
       <c r="E458" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" ht="15">
+      <c r="F458" t="s">
+        <v>79</v>
+      </c>
+      <c r="H458">
+        <v>10</v>
+      </c>
+      <c r="I458">
+        <v>7</v>
+      </c>
+      <c r="V458">
+        <v>5</v>
+      </c>
+      <c r="W458">
+        <v>3</v>
+      </c>
+      <c r="X458">
+        <v>15</v>
+      </c>
+      <c r="AI458">
+        <v>3</v>
+      </c>
+      <c r="AL458">
+        <v>2</v>
+      </c>
+      <c r="AM458">
+        <v>1</v>
+      </c>
+      <c r="AP458">
+        <v>4</v>
+      </c>
+      <c r="AQ458">
+        <v>1</v>
+      </c>
+      <c r="AY458">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>2022</v>
       </c>
@@ -17424,8 +18247,44 @@
       <c r="E459" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" ht="15">
+      <c r="F459" t="s">
+        <v>75</v>
+      </c>
+      <c r="H459">
+        <v>20</v>
+      </c>
+      <c r="I459">
+        <v>5</v>
+      </c>
+      <c r="J459">
+        <v>5</v>
+      </c>
+      <c r="V459">
+        <v>10</v>
+      </c>
+      <c r="W459">
+        <v>2</v>
+      </c>
+      <c r="X459">
+        <v>5</v>
+      </c>
+      <c r="AE459">
+        <v>15</v>
+      </c>
+      <c r="AG459">
+        <v>1</v>
+      </c>
+      <c r="AH459">
+        <v>2</v>
+      </c>
+      <c r="AP459">
+        <v>2</v>
+      </c>
+      <c r="AY459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>2022</v>
       </c>
@@ -17441,8 +18300,50 @@
       <c r="E460">
         <v>85</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" ht="15">
+      <c r="F460" t="s">
+        <v>75</v>
+      </c>
+      <c r="H460">
+        <v>30</v>
+      </c>
+      <c r="I460">
+        <v>10</v>
+      </c>
+      <c r="J460">
+        <v>15</v>
+      </c>
+      <c r="S460">
+        <v>5</v>
+      </c>
+      <c r="V460">
+        <v>2</v>
+      </c>
+      <c r="W460">
+        <v>1</v>
+      </c>
+      <c r="X460">
+        <v>3</v>
+      </c>
+      <c r="AG460">
+        <v>1</v>
+      </c>
+      <c r="AH460">
+        <v>10</v>
+      </c>
+      <c r="AI460">
+        <v>2</v>
+      </c>
+      <c r="AJ460">
+        <v>15</v>
+      </c>
+      <c r="AP460">
+        <v>8</v>
+      </c>
+      <c r="BA460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>2022</v>
       </c>
@@ -17458,8 +18359,47 @@
       <c r="E461">
         <v>90</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" ht="15">
+      <c r="F461" t="s">
+        <v>78</v>
+      </c>
+      <c r="H461">
+        <v>30</v>
+      </c>
+      <c r="I461">
+        <v>50</v>
+      </c>
+      <c r="J461">
+        <v>30</v>
+      </c>
+      <c r="S461">
+        <v>3</v>
+      </c>
+      <c r="V461">
+        <v>5</v>
+      </c>
+      <c r="AH461">
+        <v>30</v>
+      </c>
+      <c r="AJ461">
+        <v>10</v>
+      </c>
+      <c r="AK461">
+        <v>5</v>
+      </c>
+      <c r="AP461">
+        <v>4</v>
+      </c>
+      <c r="AT461">
+        <v>4</v>
+      </c>
+      <c r="AU461" s="2">
+        <v>5</v>
+      </c>
+      <c r="AY461">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>2022</v>
       </c>
@@ -17470,13 +18410,49 @@
         <v>14</v>
       </c>
       <c r="D462">
-        <v>4</v>
-      </c>
-      <c r="E462" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5" ht="15">
+        <v>3</v>
+      </c>
+      <c r="E462">
+        <v>95</v>
+      </c>
+      <c r="F462" t="s">
+        <v>78</v>
+      </c>
+      <c r="I462">
+        <v>50</v>
+      </c>
+      <c r="J462">
+        <v>5</v>
+      </c>
+      <c r="S462">
+        <v>2</v>
+      </c>
+      <c r="AH462">
+        <v>15</v>
+      </c>
+      <c r="AJ462">
+        <v>1</v>
+      </c>
+      <c r="AN462">
+        <v>15</v>
+      </c>
+      <c r="AP462">
+        <v>5</v>
+      </c>
+      <c r="AT462">
+        <v>2</v>
+      </c>
+      <c r="AZ462">
+        <v>5</v>
+      </c>
+      <c r="BB462">
+        <v>5</v>
+      </c>
+      <c r="BH462">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>2022</v>
       </c>
@@ -17490,10 +18466,28 @@
         <v>4</v>
       </c>
       <c r="E463" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5" ht="15">
+        <v>0</v>
+      </c>
+      <c r="F463" t="s">
+        <v>54</v>
+      </c>
+      <c r="G463">
+        <v>30</v>
+      </c>
+      <c r="V463">
+        <v>1</v>
+      </c>
+      <c r="AE463">
+        <v>5</v>
+      </c>
+      <c r="AF463">
+        <v>2</v>
+      </c>
+      <c r="AG463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>2022</v>
       </c>
@@ -17507,10 +18501,25 @@
         <v>4</v>
       </c>
       <c r="E464" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" ht="15">
+        <v>5</v>
+      </c>
+      <c r="F464" t="s">
+        <v>56</v>
+      </c>
+      <c r="G464">
+        <v>5</v>
+      </c>
+      <c r="V464">
+        <v>1</v>
+      </c>
+      <c r="X464">
+        <v>1</v>
+      </c>
+      <c r="AE464">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="465" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>2022</v>
       </c>
@@ -17524,10 +18533,31 @@
         <v>4</v>
       </c>
       <c r="E465" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5" ht="15">
+        <v>10</v>
+      </c>
+      <c r="F465" t="s">
+        <v>57</v>
+      </c>
+      <c r="G465">
+        <v>3</v>
+      </c>
+      <c r="V465">
+        <v>20</v>
+      </c>
+      <c r="W465">
+        <v>1</v>
+      </c>
+      <c r="X465">
+        <v>10</v>
+      </c>
+      <c r="AE465">
+        <v>5</v>
+      </c>
+      <c r="AG465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>2022</v>
       </c>
@@ -17541,10 +18571,28 @@
         <v>4</v>
       </c>
       <c r="E466" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5" ht="15">
+        <v>15</v>
+      </c>
+      <c r="F466" t="s">
+        <v>79</v>
+      </c>
+      <c r="G466">
+        <v>5</v>
+      </c>
+      <c r="V466">
+        <v>10</v>
+      </c>
+      <c r="W466">
+        <v>2</v>
+      </c>
+      <c r="X466">
+        <v>15</v>
+      </c>
+      <c r="AG466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>2022</v>
       </c>
@@ -17558,10 +18606,22 @@
         <v>4</v>
       </c>
       <c r="E467" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5" ht="15">
+        <v>20</v>
+      </c>
+      <c r="V467">
+        <v>15</v>
+      </c>
+      <c r="W467">
+        <v>5</v>
+      </c>
+      <c r="X467">
+        <v>15</v>
+      </c>
+      <c r="AE467">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>2022</v>
       </c>
@@ -17575,10 +18635,22 @@
         <v>4</v>
       </c>
       <c r="E468" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5" ht="15">
+        <v>25</v>
+      </c>
+      <c r="V468">
+        <v>50</v>
+      </c>
+      <c r="W468">
+        <v>5</v>
+      </c>
+      <c r="X468">
+        <v>50</v>
+      </c>
+      <c r="AE468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>2022</v>
       </c>
@@ -17592,10 +18664,28 @@
         <v>4</v>
       </c>
       <c r="E469" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5" ht="15">
+        <v>30</v>
+      </c>
+      <c r="F469" t="s">
+        <v>57</v>
+      </c>
+      <c r="V469">
+        <v>20</v>
+      </c>
+      <c r="W469">
+        <v>10</v>
+      </c>
+      <c r="X469">
+        <v>10</v>
+      </c>
+      <c r="AE469">
+        <v>2</v>
+      </c>
+      <c r="AP469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>2022</v>
       </c>
@@ -17609,10 +18699,25 @@
         <v>4</v>
       </c>
       <c r="E470" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" ht="15">
+        <v>35</v>
+      </c>
+      <c r="F470" t="s">
+        <v>79</v>
+      </c>
+      <c r="V470">
+        <v>15</v>
+      </c>
+      <c r="W470">
+        <v>10</v>
+      </c>
+      <c r="X470">
+        <v>20</v>
+      </c>
+      <c r="AE470">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>2022</v>
       </c>
@@ -17626,10 +18731,22 @@
         <v>4</v>
       </c>
       <c r="E471" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" ht="15">
+        <v>40</v>
+      </c>
+      <c r="F471" t="s">
+        <v>57</v>
+      </c>
+      <c r="V471">
+        <v>15</v>
+      </c>
+      <c r="W471">
+        <v>5</v>
+      </c>
+      <c r="X471">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="472" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>2022</v>
       </c>
@@ -17643,10 +18760,25 @@
         <v>4</v>
       </c>
       <c r="E472" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" ht="15">
+        <v>45</v>
+      </c>
+      <c r="F472" t="s">
+        <v>57</v>
+      </c>
+      <c r="H472">
+        <v>1</v>
+      </c>
+      <c r="V472">
+        <v>25</v>
+      </c>
+      <c r="W472">
+        <v>6</v>
+      </c>
+      <c r="X472">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="473" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>2022</v>
       </c>
@@ -17660,10 +18792,31 @@
         <v>4</v>
       </c>
       <c r="E473" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5" ht="15">
+        <v>50</v>
+      </c>
+      <c r="F473" t="s">
+        <v>79</v>
+      </c>
+      <c r="H473">
+        <v>1</v>
+      </c>
+      <c r="V473">
+        <v>15</v>
+      </c>
+      <c r="W473">
+        <v>10</v>
+      </c>
+      <c r="X473">
+        <v>20</v>
+      </c>
+      <c r="AE473">
+        <v>1</v>
+      </c>
+      <c r="AG473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>2022</v>
       </c>
@@ -17677,10 +18830,28 @@
         <v>4</v>
       </c>
       <c r="E474" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5" ht="15">
+        <v>55</v>
+      </c>
+      <c r="F474" t="s">
+        <v>79</v>
+      </c>
+      <c r="H474">
+        <v>5</v>
+      </c>
+      <c r="V474">
+        <v>20</v>
+      </c>
+      <c r="W474">
+        <v>10</v>
+      </c>
+      <c r="X474">
+        <v>30</v>
+      </c>
+      <c r="AE474">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>2022</v>
       </c>
@@ -17694,10 +18865,31 @@
         <v>4</v>
       </c>
       <c r="E475" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" ht="15">
+        <v>60</v>
+      </c>
+      <c r="F475" t="s">
+        <v>56</v>
+      </c>
+      <c r="H475">
+        <v>10</v>
+      </c>
+      <c r="V475">
+        <v>15</v>
+      </c>
+      <c r="W475">
+        <v>5</v>
+      </c>
+      <c r="X475">
+        <v>10</v>
+      </c>
+      <c r="AE475">
+        <v>25</v>
+      </c>
+      <c r="AM475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>2022</v>
       </c>
@@ -17711,10 +18903,31 @@
         <v>4</v>
       </c>
       <c r="E476" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" ht="15">
+        <v>65</v>
+      </c>
+      <c r="F476" t="s">
+        <v>75</v>
+      </c>
+      <c r="H476">
+        <v>30</v>
+      </c>
+      <c r="S476">
+        <v>5</v>
+      </c>
+      <c r="W476">
+        <v>15</v>
+      </c>
+      <c r="X476">
+        <v>10</v>
+      </c>
+      <c r="AJ476">
+        <v>1</v>
+      </c>
+      <c r="BC476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>2022</v>
       </c>
@@ -17728,10 +18941,34 @@
         <v>4</v>
       </c>
       <c r="E477" s="1">
+        <v>70</v>
+      </c>
+      <c r="F477" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" ht="15">
+      <c r="H477">
+        <v>80</v>
+      </c>
+      <c r="S477">
+        <v>1</v>
+      </c>
+      <c r="V477">
+        <v>1</v>
+      </c>
+      <c r="W477">
+        <v>5</v>
+      </c>
+      <c r="X477">
+        <v>10</v>
+      </c>
+      <c r="AE477">
+        <v>1</v>
+      </c>
+      <c r="AH477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>2022</v>
       </c>
@@ -17745,7 +18982,111 @@
         <v>4</v>
       </c>
       <c r="E478" s="1">
+        <v>75</v>
+      </c>
+      <c r="F478" t="s">
+        <v>75</v>
+      </c>
+      <c r="H478">
         <v>80</v>
+      </c>
+      <c r="I478">
+        <v>20</v>
+      </c>
+      <c r="J478">
+        <v>1</v>
+      </c>
+      <c r="K478">
+        <v>1</v>
+      </c>
+      <c r="M478">
+        <v>1</v>
+      </c>
+      <c r="S478">
+        <v>1</v>
+      </c>
+      <c r="V478">
+        <v>10</v>
+      </c>
+      <c r="X478">
+        <v>5</v>
+      </c>
+      <c r="AH478">
+        <v>5</v>
+      </c>
+      <c r="AK478">
+        <v>1</v>
+      </c>
+      <c r="AL478">
+        <v>1</v>
+      </c>
+      <c r="AM478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B479">
+        <v>7</v>
+      </c>
+      <c r="C479">
+        <v>14</v>
+      </c>
+      <c r="D479">
+        <v>4</v>
+      </c>
+      <c r="E479" s="1">
+        <v>80</v>
+      </c>
+      <c r="F479" t="s">
+        <v>78</v>
+      </c>
+      <c r="H479">
+        <v>50</v>
+      </c>
+      <c r="I479">
+        <v>100</v>
+      </c>
+      <c r="K479">
+        <v>30</v>
+      </c>
+      <c r="M479">
+        <v>1</v>
+      </c>
+      <c r="S479">
+        <v>15</v>
+      </c>
+      <c r="V479">
+        <v>10</v>
+      </c>
+      <c r="W479">
+        <v>1</v>
+      </c>
+      <c r="X479">
+        <v>1</v>
+      </c>
+      <c r="AE479">
+        <v>1</v>
+      </c>
+      <c r="AH479">
+        <v>10</v>
+      </c>
+      <c r="AI479">
+        <v>1</v>
+      </c>
+      <c r="AJ479">
+        <v>1</v>
+      </c>
+      <c r="AK479">
+        <v>1</v>
+      </c>
+      <c r="AL479">
+        <v>1</v>
+      </c>
+      <c r="AU479" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
